--- a/Code/Results/Cases/Case_1_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9588885739617002</v>
+        <v>0.9588885739617006</v>
       </c>
       <c r="D2">
-        <v>1.034424991390877</v>
+        <v>1.034424991390876</v>
       </c>
       <c r="E2">
-        <v>0.9724100325444928</v>
+        <v>0.9724100325444931</v>
       </c>
       <c r="F2">
-        <v>0.9795734396436987</v>
+        <v>0.9795734396436993</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.047145124571443</v>
       </c>
       <c r="J2">
-        <v>0.9823725232277637</v>
+        <v>0.9823725232277642</v>
       </c>
       <c r="K2">
         <v>1.045424692573197</v>
       </c>
       <c r="L2">
-        <v>0.9842676082759337</v>
+        <v>0.9842676082759343</v>
       </c>
       <c r="M2">
-        <v>0.991324879891664</v>
+        <v>0.9913248798916645</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9691582200638348</v>
+        <v>0.9691582200638352</v>
       </c>
       <c r="D3">
         <v>1.03834298777402</v>
       </c>
       <c r="E3">
-        <v>0.9811095430854117</v>
+        <v>0.981109543085412</v>
       </c>
       <c r="F3">
-        <v>0.9892526353255877</v>
+        <v>0.989252635325588</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,13 +477,13 @@
         <v>1.049618614709027</v>
       </c>
       <c r="J3">
-        <v>0.9905264946782993</v>
+        <v>0.9905264946782997</v>
       </c>
       <c r="K3">
         <v>1.048507687599881</v>
       </c>
       <c r="L3">
-        <v>0.9919899764013707</v>
+        <v>0.9919899764013709</v>
       </c>
       <c r="M3">
         <v>1.000024903101243</v>
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9755283492401429</v>
+        <v>0.9755283492401436</v>
       </c>
       <c r="D4">
         <v>1.040785533178821</v>
       </c>
       <c r="E4">
-        <v>0.9865142306415694</v>
+        <v>0.98651423064157</v>
       </c>
       <c r="F4">
-        <v>0.995262652629525</v>
+        <v>0.9952626526295252</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,13 +515,13 @@
         <v>1.051137076958979</v>
       </c>
       <c r="J4">
-        <v>0.9955794560633811</v>
+        <v>0.9955794560633819</v>
       </c>
       <c r="K4">
-        <v>1.050415424180544</v>
+        <v>1.050415424180545</v>
       </c>
       <c r="L4">
-        <v>0.9967781889582796</v>
+        <v>0.9967781889582803</v>
       </c>
       <c r="M4">
         <v>1.00541859154383</v>
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.978145635697123</v>
+        <v>0.9781456356971235</v>
       </c>
       <c r="D5">
-        <v>1.041791484807954</v>
+        <v>1.041791484807955</v>
       </c>
       <c r="E5">
-        <v>0.9887366926112539</v>
+        <v>0.9887366926112546</v>
       </c>
       <c r="F5">
-        <v>0.997733211414098</v>
+        <v>0.9977332114140987</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.051756910420794</v>
       </c>
       <c r="J5">
-        <v>0.9976542692584096</v>
+        <v>0.9976542692584104</v>
       </c>
       <c r="K5">
-        <v>1.051197760571979</v>
+        <v>1.05119776057198</v>
       </c>
       <c r="L5">
-        <v>0.9987449171761473</v>
+        <v>0.9987449171761481</v>
       </c>
       <c r="M5">
-        <v>1.007633782608534</v>
+        <v>1.007633782608536</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -579,10 +579,10 @@
         <v>1.041959197965008</v>
       </c>
       <c r="E6">
-        <v>0.9891070503365389</v>
+        <v>0.9891070503365391</v>
       </c>
       <c r="F6">
-        <v>0.9981448637178149</v>
+        <v>0.9981448637178152</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.051859926647004</v>
       </c>
       <c r="J6">
-        <v>0.9979998464111484</v>
+        <v>0.9979998464111486</v>
       </c>
       <c r="K6">
         <v>1.051327996539654</v>
       </c>
       <c r="L6">
-        <v>0.9990725279319497</v>
+        <v>0.99907252793195</v>
       </c>
       <c r="M6">
-        <v>1.008002766078154</v>
+        <v>1.008002766078155</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9755635538225008</v>
+        <v>0.975563553822502</v>
       </c>
       <c r="D7">
         <v>1.040799055260748</v>
       </c>
       <c r="E7">
-        <v>0.9865441174393579</v>
+        <v>0.9865441174393591</v>
       </c>
       <c r="F7">
-        <v>0.9952958790246849</v>
+        <v>0.9952958790246864</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05114543063089</v>
+        <v>1.051145430630891</v>
       </c>
       <c r="J7">
-        <v>0.995607369229107</v>
+        <v>0.9956073692291082</v>
       </c>
       <c r="K7">
         <v>1.050425953638924</v>
       </c>
       <c r="L7">
-        <v>0.9968046455746721</v>
+        <v>0.9968046455746731</v>
       </c>
       <c r="M7">
-        <v>1.0054483915061</v>
+        <v>1.005448391506102</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9624194915460182</v>
+        <v>0.9624194915460187</v>
       </c>
       <c r="D8">
         <v>1.035769107953597</v>
       </c>
       <c r="E8">
-        <v>0.9753991702918263</v>
+        <v>0.9753991702918269</v>
       </c>
       <c r="F8">
-        <v>0.9828998829295457</v>
+        <v>0.9828998829295459</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.04799875731691</v>
       </c>
       <c r="J8">
-        <v>0.9851769739464468</v>
+        <v>0.9851769739464473</v>
       </c>
       <c r="K8">
         <v>1.046485418229184</v>
       </c>
       <c r="L8">
-        <v>0.9869230193492834</v>
+        <v>0.9869230193492838</v>
       </c>
       <c r="M8">
-        <v>0.9943165790015286</v>
+        <v>0.9943165790015288</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9368801584764035</v>
+        <v>0.9368801584764014</v>
       </c>
       <c r="D9">
         <v>1.026128635141467</v>
       </c>
       <c r="E9">
-        <v>0.9538260171838776</v>
+        <v>0.9538260171838756</v>
       </c>
       <c r="F9">
-        <v>0.9588789625176832</v>
+        <v>0.9588789625176819</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041766846453982</v>
+        <v>1.041766846453981</v>
       </c>
       <c r="J9">
-        <v>0.9648771716625572</v>
+        <v>0.9648771716625555</v>
       </c>
       <c r="K9">
         <v>1.038811554622065</v>
       </c>
       <c r="L9">
-        <v>0.9677154628223481</v>
+        <v>0.9677154628223461</v>
       </c>
       <c r="M9">
-        <v>0.972676399758566</v>
+        <v>0.9726763997585645</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9177906573554405</v>
+        <v>0.9177906573554401</v>
       </c>
       <c r="D10">
         <v>1.019065748083379</v>
       </c>
       <c r="E10">
-        <v>0.9377766714920329</v>
+        <v>0.9377766714920325</v>
       </c>
       <c r="F10">
-        <v>0.9409930650945474</v>
+        <v>0.9409930650945469</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.037050916505239</v>
       </c>
       <c r="J10">
-        <v>0.9496935140395301</v>
+        <v>0.9496935140395294</v>
       </c>
       <c r="K10">
-        <v>1.033099090793269</v>
+        <v>1.033099090793268</v>
       </c>
       <c r="L10">
-        <v>0.9533682515956544</v>
+        <v>0.9533682515956541</v>
       </c>
       <c r="M10">
-        <v>0.9565162143987501</v>
+        <v>0.9565162143987496</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9088977080468393</v>
+        <v>0.9088977080468399</v>
       </c>
       <c r="D11">
-        <v>1.015823735035317</v>
+        <v>1.015823735035318</v>
       </c>
       <c r="E11">
-        <v>0.9303235989971322</v>
+        <v>0.9303235989971329</v>
       </c>
       <c r="F11">
-        <v>0.9326841723917181</v>
+        <v>0.932684172391719</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034846700446101</v>
+        <v>1.034846700446102</v>
       </c>
       <c r="J11">
-        <v>0.9426212661040798</v>
+        <v>0.9426212661040804</v>
       </c>
       <c r="K11">
-        <v>1.030453283755793</v>
+        <v>1.030453283755794</v>
       </c>
       <c r="L11">
-        <v>0.9466910642477527</v>
+        <v>0.9466910642477535</v>
       </c>
       <c r="M11">
-        <v>0.9489979450928031</v>
+        <v>0.948997945092804</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9054850455629223</v>
+        <v>0.9054850455629225</v>
       </c>
       <c r="D12">
         <v>1.014588332888129</v>
       </c>
       <c r="E12">
-        <v>0.9274676349008443</v>
+        <v>0.9274676349008444</v>
       </c>
       <c r="F12">
-        <v>0.9294999051639887</v>
+        <v>0.9294999051639885</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>1.034000418160322</v>
       </c>
       <c r="J12">
-        <v>0.9399078617369913</v>
+        <v>0.9399078617369915</v>
       </c>
       <c r="K12">
         <v>1.029441280572451</v>
@@ -828,7 +828,7 @@
         <v>0.9441301415337998</v>
       </c>
       <c r="M12">
-        <v>0.9461150257809756</v>
+        <v>0.9461150257809752</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,7 +839,7 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9062223098859992</v>
+        <v>0.9062223098859988</v>
       </c>
       <c r="D13">
         <v>1.014854807728273</v>
@@ -848,7 +848,7 @@
         <v>0.9280844335628744</v>
       </c>
       <c r="F13">
-        <v>0.9301876215669037</v>
+        <v>0.9301876215669033</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.034183253740921</v>
       </c>
       <c r="J13">
-        <v>0.940494027132708</v>
+        <v>0.9404940271327078</v>
       </c>
       <c r="K13">
         <v>1.029659743764925</v>
       </c>
       <c r="L13">
-        <v>0.9446833243915188</v>
+        <v>0.9446833243915189</v>
       </c>
       <c r="M13">
-        <v>0.9467377330696986</v>
+        <v>0.9467377330696984</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9086179497566317</v>
+        <v>0.9086179497566301</v>
       </c>
       <c r="D14">
-        <v>1.015722275783834</v>
+        <v>1.015722275783833</v>
       </c>
       <c r="E14">
-        <v>0.9300893893355638</v>
+        <v>0.9300893893355624</v>
       </c>
       <c r="F14">
-        <v>0.9324230461862537</v>
+        <v>0.9324230461862522</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034777329229047</v>
+        <v>1.034777329229046</v>
       </c>
       <c r="J14">
-        <v>0.942398816610308</v>
+        <v>0.9423988166103064</v>
       </c>
       <c r="K14">
         <v>1.030370249717303</v>
       </c>
       <c r="L14">
-        <v>0.9464810965343867</v>
+        <v>0.9464810965343855</v>
       </c>
       <c r="M14">
-        <v>0.9487615641381388</v>
+        <v>0.9487615641381375</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -921,7 +921,7 @@
         <v>1.016252500172757</v>
       </c>
       <c r="E15">
-        <v>0.931312701987122</v>
+        <v>0.9313127019871218</v>
       </c>
       <c r="F15">
         <v>0.9337869340844143</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035139602369941</v>
+        <v>1.035139602369942</v>
       </c>
       <c r="J15">
-        <v>0.9435605666920932</v>
+        <v>0.9435605666920931</v>
       </c>
       <c r="K15">
         <v>1.030804029068165</v>
       </c>
       <c r="L15">
-        <v>0.9475776973981846</v>
+        <v>0.9475776973981845</v>
       </c>
       <c r="M15">
         <v>0.9499961386363995</v>
@@ -950,19 +950,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9183664228796175</v>
+        <v>0.9183664228796172</v>
       </c>
       <c r="D16">
-        <v>1.019276751519853</v>
+        <v>1.019276751519854</v>
       </c>
       <c r="E16">
-        <v>0.9382597429529833</v>
+        <v>0.938259742952983</v>
       </c>
       <c r="F16">
-        <v>0.9415315527336838</v>
+        <v>0.9415315527336837</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -977,7 +977,7 @@
         <v>1.033270785376453</v>
       </c>
       <c r="L16">
-        <v>0.9538007293934417</v>
+        <v>0.9538007293934414</v>
       </c>
       <c r="M16">
         <v>0.9570032377297916</v>
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9233873695959177</v>
+        <v>0.9233873695959197</v>
       </c>
       <c r="D17">
         <v>1.021122307108516</v>
       </c>
       <c r="E17">
-        <v>0.9424750319452463</v>
+        <v>0.942475031945248</v>
       </c>
       <c r="F17">
-        <v>0.9462300833475578</v>
+        <v>0.9462300833475594</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038436458279453</v>
+        <v>1.038436458279454</v>
       </c>
       <c r="J17">
-        <v>0.9541450720981253</v>
+        <v>0.9541450720981269</v>
       </c>
       <c r="K17">
-        <v>1.034769851421276</v>
+        <v>1.034769851421277</v>
       </c>
       <c r="L17">
-        <v>0.9575729096840875</v>
+        <v>0.957572909684089</v>
       </c>
       <c r="M17">
-        <v>0.9612514926646307</v>
+        <v>0.9612514926646325</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9262566922423716</v>
+        <v>0.9262566922423726</v>
       </c>
       <c r="D18">
-        <v>1.022181337983316</v>
+        <v>1.022181337983317</v>
       </c>
       <c r="E18">
-        <v>0.9448860795554971</v>
+        <v>0.944886079555498</v>
       </c>
       <c r="F18">
-        <v>0.9489172546023363</v>
+        <v>0.9489172546023376</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039146035069395</v>
+        <v>1.039146035069396</v>
       </c>
       <c r="J18">
-        <v>0.9564273836003667</v>
+        <v>0.9564273836003676</v>
       </c>
       <c r="K18">
-        <v>1.035627870284431</v>
+        <v>1.035627870284432</v>
       </c>
       <c r="L18">
-        <v>0.9597291693384201</v>
+        <v>0.9597291693384209</v>
       </c>
       <c r="M18">
-        <v>0.9636801205223609</v>
+        <v>0.963680120522362</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9272254030923112</v>
+        <v>0.9272254030923119</v>
       </c>
       <c r="D19">
         <v>1.022539576386039</v>
       </c>
       <c r="E19">
-        <v>0.9457004189687831</v>
+        <v>0.9457004189687843</v>
       </c>
       <c r="F19">
-        <v>0.9498248061785586</v>
+        <v>0.9498248061785596</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.039385455214016</v>
       </c>
       <c r="J19">
-        <v>0.9571979167678132</v>
+        <v>0.9571979167678141</v>
       </c>
       <c r="K19">
-        <v>1.035917747529596</v>
+        <v>1.035917747529597</v>
       </c>
       <c r="L19">
-        <v>0.9604572281451349</v>
+        <v>0.9604572281451359</v>
       </c>
       <c r="M19">
-        <v>0.9645001790696727</v>
+        <v>0.9645001790696737</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.922854902987266</v>
+        <v>0.9228549029872658</v>
       </c>
       <c r="D20">
         <v>1.020926124775567</v>
       </c>
       <c r="E20">
-        <v>0.9420277782607929</v>
+        <v>0.9420277782607923</v>
       </c>
       <c r="F20">
-        <v>0.945731584994945</v>
+        <v>0.9457315849949446</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.038304717697184</v>
       </c>
       <c r="J20">
-        <v>0.9537215422297658</v>
+        <v>0.9537215422297656</v>
       </c>
       <c r="K20">
         <v>1.034610729984959</v>
       </c>
       <c r="L20">
-        <v>0.9571728112304726</v>
+        <v>0.9571728112304723</v>
       </c>
       <c r="M20">
-        <v>0.9608008735667475</v>
+        <v>0.9608008735667473</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9079156549304475</v>
+        <v>0.9079156549304481</v>
       </c>
       <c r="D21">
         <v>1.015467721341971</v>
       </c>
       <c r="E21">
-        <v>0.9295015067960891</v>
+        <v>0.9295015067960894</v>
       </c>
       <c r="F21">
-        <v>0.9317675958249748</v>
+        <v>0.9317675958249755</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03460317815125</v>
+        <v>1.034603178151251</v>
       </c>
       <c r="J21">
-        <v>0.9418403982060165</v>
+        <v>0.9418403982060169</v>
       </c>
       <c r="K21">
-        <v>1.030161861148617</v>
+        <v>1.030161861148618</v>
       </c>
       <c r="L21">
-        <v>0.945954026236322</v>
+        <v>0.9459540262363224</v>
       </c>
       <c r="M21">
-        <v>0.9481682002378182</v>
+        <v>0.9481682002378188</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8978791496378347</v>
+        <v>0.897879149637836</v>
       </c>
       <c r="D22">
-        <v>1.011853027736361</v>
+        <v>1.01185302773636</v>
       </c>
       <c r="E22">
-        <v>0.9211109624723316</v>
+        <v>0.921110962472333</v>
       </c>
       <c r="F22">
-        <v>0.9224119614110411</v>
+        <v>0.9224119614110421</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032114385781031</v>
+        <v>1.03211438578103</v>
       </c>
       <c r="J22">
-        <v>0.9338619941051132</v>
+        <v>0.9338619941051143</v>
       </c>
       <c r="K22">
-        <v>1.027193274928028</v>
+        <v>1.027193274928027</v>
       </c>
       <c r="L22">
-        <v>0.9384258311134459</v>
+        <v>0.938425831113447</v>
       </c>
       <c r="M22">
-        <v>0.939694819725119</v>
+        <v>0.9396948197251203</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9032668163118346</v>
+        <v>0.903266816311835</v>
       </c>
       <c r="D23">
-        <v>1.013787988746058</v>
+        <v>1.013787988746059</v>
       </c>
       <c r="E23">
-        <v>0.9256125163709715</v>
+        <v>0.9256125163709719</v>
       </c>
       <c r="F23">
-        <v>0.927431445691704</v>
+        <v>0.9274314456917043</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03345031374068</v>
+        <v>1.033450313740681</v>
       </c>
       <c r="J23">
-        <v>0.9381443667580649</v>
+        <v>0.9381443667580652</v>
       </c>
       <c r="K23">
-        <v>1.028784559960494</v>
+        <v>1.028784559960495</v>
       </c>
       <c r="L23">
-        <v>0.9424660167454885</v>
+        <v>0.9424660167454891</v>
       </c>
       <c r="M23">
-        <v>0.9442418551874815</v>
+        <v>0.9442418551874817</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1263,28 +1263,28 @@
         <v>1.021014824793188</v>
       </c>
       <c r="E24">
-        <v>0.942230019358958</v>
+        <v>0.9422300193589579</v>
       </c>
       <c r="F24">
-        <v>0.9459569990042971</v>
+        <v>0.9459569990042969</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038364292958593</v>
+        <v>1.038364292958592</v>
       </c>
       <c r="J24">
-        <v>0.9539130618384926</v>
+        <v>0.9539130618384924</v>
       </c>
       <c r="K24">
-        <v>1.034682680427714</v>
+        <v>1.034682680427713</v>
       </c>
       <c r="L24">
-        <v>0.9573537336422334</v>
+        <v>0.9573537336422333</v>
       </c>
       <c r="M24">
-        <v>0.9610046404323758</v>
+        <v>0.9610046404323757</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9438070201924372</v>
+        <v>0.9438070201924375</v>
       </c>
       <c r="D25">
         <v>1.02872350060385</v>
       </c>
       <c r="E25">
-        <v>0.9596660775044222</v>
+        <v>0.9596660775044225</v>
       </c>
       <c r="F25">
-        <v>0.9653844467045685</v>
+        <v>0.9653844467045684</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,13 +1313,13 @@
         <v>1.043468519607723</v>
       </c>
       <c r="J25">
-        <v>0.9703856732814502</v>
+        <v>0.9703856732814503</v>
       </c>
       <c r="K25">
         <v>1.040891703829121</v>
       </c>
       <c r="L25">
-        <v>0.9729245530778489</v>
+        <v>0.9729245530778491</v>
       </c>
       <c r="M25">
         <v>0.9785449952376232</v>

--- a/Code/Results/Cases/Case_1_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9588885739617006</v>
+        <v>0.9588885739617002</v>
       </c>
       <c r="D2">
-        <v>1.034424991390876</v>
+        <v>1.034424991390877</v>
       </c>
       <c r="E2">
-        <v>0.9724100325444931</v>
+        <v>0.9724100325444928</v>
       </c>
       <c r="F2">
-        <v>0.9795734396436993</v>
+        <v>0.9795734396436987</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.047145124571443</v>
       </c>
       <c r="J2">
-        <v>0.9823725232277642</v>
+        <v>0.9823725232277637</v>
       </c>
       <c r="K2">
         <v>1.045424692573197</v>
       </c>
       <c r="L2">
-        <v>0.9842676082759343</v>
+        <v>0.9842676082759337</v>
       </c>
       <c r="M2">
-        <v>0.9913248798916645</v>
+        <v>0.991324879891664</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9691582200638352</v>
+        <v>0.9691582200638348</v>
       </c>
       <c r="D3">
         <v>1.03834298777402</v>
       </c>
       <c r="E3">
-        <v>0.981109543085412</v>
+        <v>0.9811095430854117</v>
       </c>
       <c r="F3">
-        <v>0.989252635325588</v>
+        <v>0.9892526353255877</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,13 +477,13 @@
         <v>1.049618614709027</v>
       </c>
       <c r="J3">
-        <v>0.9905264946782997</v>
+        <v>0.9905264946782993</v>
       </c>
       <c r="K3">
         <v>1.048507687599881</v>
       </c>
       <c r="L3">
-        <v>0.9919899764013709</v>
+        <v>0.9919899764013707</v>
       </c>
       <c r="M3">
         <v>1.000024903101243</v>
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9755283492401436</v>
+        <v>0.9755283492401429</v>
       </c>
       <c r="D4">
         <v>1.040785533178821</v>
       </c>
       <c r="E4">
-        <v>0.98651423064157</v>
+        <v>0.9865142306415694</v>
       </c>
       <c r="F4">
-        <v>0.9952626526295252</v>
+        <v>0.995262652629525</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,13 +515,13 @@
         <v>1.051137076958979</v>
       </c>
       <c r="J4">
-        <v>0.9955794560633819</v>
+        <v>0.9955794560633811</v>
       </c>
       <c r="K4">
-        <v>1.050415424180545</v>
+        <v>1.050415424180544</v>
       </c>
       <c r="L4">
-        <v>0.9967781889582803</v>
+        <v>0.9967781889582796</v>
       </c>
       <c r="M4">
         <v>1.00541859154383</v>
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9781456356971235</v>
+        <v>0.978145635697123</v>
       </c>
       <c r="D5">
-        <v>1.041791484807955</v>
+        <v>1.041791484807954</v>
       </c>
       <c r="E5">
-        <v>0.9887366926112546</v>
+        <v>0.9887366926112539</v>
       </c>
       <c r="F5">
-        <v>0.9977332114140987</v>
+        <v>0.997733211414098</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.051756910420794</v>
       </c>
       <c r="J5">
-        <v>0.9976542692584104</v>
+        <v>0.9976542692584096</v>
       </c>
       <c r="K5">
-        <v>1.05119776057198</v>
+        <v>1.051197760571979</v>
       </c>
       <c r="L5">
-        <v>0.9987449171761481</v>
+        <v>0.9987449171761473</v>
       </c>
       <c r="M5">
-        <v>1.007633782608536</v>
+        <v>1.007633782608534</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -579,10 +579,10 @@
         <v>1.041959197965008</v>
       </c>
       <c r="E6">
-        <v>0.9891070503365391</v>
+        <v>0.9891070503365389</v>
       </c>
       <c r="F6">
-        <v>0.9981448637178152</v>
+        <v>0.9981448637178149</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.051859926647004</v>
       </c>
       <c r="J6">
-        <v>0.9979998464111486</v>
+        <v>0.9979998464111484</v>
       </c>
       <c r="K6">
         <v>1.051327996539654</v>
       </c>
       <c r="L6">
-        <v>0.99907252793195</v>
+        <v>0.9990725279319497</v>
       </c>
       <c r="M6">
-        <v>1.008002766078155</v>
+        <v>1.008002766078154</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.975563553822502</v>
+        <v>0.9755635538225008</v>
       </c>
       <c r="D7">
         <v>1.040799055260748</v>
       </c>
       <c r="E7">
-        <v>0.9865441174393591</v>
+        <v>0.9865441174393579</v>
       </c>
       <c r="F7">
-        <v>0.9952958790246864</v>
+        <v>0.9952958790246849</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051145430630891</v>
+        <v>1.05114543063089</v>
       </c>
       <c r="J7">
-        <v>0.9956073692291082</v>
+        <v>0.995607369229107</v>
       </c>
       <c r="K7">
         <v>1.050425953638924</v>
       </c>
       <c r="L7">
-        <v>0.9968046455746731</v>
+        <v>0.9968046455746721</v>
       </c>
       <c r="M7">
-        <v>1.005448391506102</v>
+        <v>1.0054483915061</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9624194915460187</v>
+        <v>0.9624194915460182</v>
       </c>
       <c r="D8">
         <v>1.035769107953597</v>
       </c>
       <c r="E8">
-        <v>0.9753991702918269</v>
+        <v>0.9753991702918263</v>
       </c>
       <c r="F8">
-        <v>0.9828998829295459</v>
+        <v>0.9828998829295457</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.04799875731691</v>
       </c>
       <c r="J8">
-        <v>0.9851769739464473</v>
+        <v>0.9851769739464468</v>
       </c>
       <c r="K8">
         <v>1.046485418229184</v>
       </c>
       <c r="L8">
-        <v>0.9869230193492838</v>
+        <v>0.9869230193492834</v>
       </c>
       <c r="M8">
-        <v>0.9943165790015288</v>
+        <v>0.9943165790015286</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9368801584764014</v>
+        <v>0.9368801584764035</v>
       </c>
       <c r="D9">
         <v>1.026128635141467</v>
       </c>
       <c r="E9">
-        <v>0.9538260171838756</v>
+        <v>0.9538260171838776</v>
       </c>
       <c r="F9">
-        <v>0.9588789625176819</v>
+        <v>0.9588789625176832</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041766846453981</v>
+        <v>1.041766846453982</v>
       </c>
       <c r="J9">
-        <v>0.9648771716625555</v>
+        <v>0.9648771716625572</v>
       </c>
       <c r="K9">
         <v>1.038811554622065</v>
       </c>
       <c r="L9">
-        <v>0.9677154628223461</v>
+        <v>0.9677154628223481</v>
       </c>
       <c r="M9">
-        <v>0.9726763997585645</v>
+        <v>0.972676399758566</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9177906573554401</v>
+        <v>0.9177906573554405</v>
       </c>
       <c r="D10">
         <v>1.019065748083379</v>
       </c>
       <c r="E10">
-        <v>0.9377766714920325</v>
+        <v>0.9377766714920329</v>
       </c>
       <c r="F10">
-        <v>0.9409930650945469</v>
+        <v>0.9409930650945474</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.037050916505239</v>
       </c>
       <c r="J10">
-        <v>0.9496935140395294</v>
+        <v>0.9496935140395301</v>
       </c>
       <c r="K10">
-        <v>1.033099090793268</v>
+        <v>1.033099090793269</v>
       </c>
       <c r="L10">
-        <v>0.9533682515956541</v>
+        <v>0.9533682515956544</v>
       </c>
       <c r="M10">
-        <v>0.9565162143987496</v>
+        <v>0.9565162143987501</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9088977080468399</v>
+        <v>0.9088977080468393</v>
       </c>
       <c r="D11">
-        <v>1.015823735035318</v>
+        <v>1.015823735035317</v>
       </c>
       <c r="E11">
-        <v>0.9303235989971329</v>
+        <v>0.9303235989971322</v>
       </c>
       <c r="F11">
-        <v>0.932684172391719</v>
+        <v>0.9326841723917181</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034846700446102</v>
+        <v>1.034846700446101</v>
       </c>
       <c r="J11">
-        <v>0.9426212661040804</v>
+        <v>0.9426212661040798</v>
       </c>
       <c r="K11">
-        <v>1.030453283755794</v>
+        <v>1.030453283755793</v>
       </c>
       <c r="L11">
-        <v>0.9466910642477535</v>
+        <v>0.9466910642477527</v>
       </c>
       <c r="M11">
-        <v>0.948997945092804</v>
+        <v>0.9489979450928031</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9054850455629225</v>
+        <v>0.9054850455629223</v>
       </c>
       <c r="D12">
         <v>1.014588332888129</v>
       </c>
       <c r="E12">
-        <v>0.9274676349008444</v>
+        <v>0.9274676349008443</v>
       </c>
       <c r="F12">
-        <v>0.9294999051639885</v>
+        <v>0.9294999051639887</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>1.034000418160322</v>
       </c>
       <c r="J12">
-        <v>0.9399078617369915</v>
+        <v>0.9399078617369913</v>
       </c>
       <c r="K12">
         <v>1.029441280572451</v>
@@ -828,7 +828,7 @@
         <v>0.9441301415337998</v>
       </c>
       <c r="M12">
-        <v>0.9461150257809752</v>
+        <v>0.9461150257809756</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,7 +839,7 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9062223098859988</v>
+        <v>0.9062223098859992</v>
       </c>
       <c r="D13">
         <v>1.014854807728273</v>
@@ -848,7 +848,7 @@
         <v>0.9280844335628744</v>
       </c>
       <c r="F13">
-        <v>0.9301876215669033</v>
+        <v>0.9301876215669037</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.034183253740921</v>
       </c>
       <c r="J13">
-        <v>0.9404940271327078</v>
+        <v>0.940494027132708</v>
       </c>
       <c r="K13">
         <v>1.029659743764925</v>
       </c>
       <c r="L13">
-        <v>0.9446833243915189</v>
+        <v>0.9446833243915188</v>
       </c>
       <c r="M13">
-        <v>0.9467377330696984</v>
+        <v>0.9467377330696986</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9086179497566301</v>
+        <v>0.9086179497566317</v>
       </c>
       <c r="D14">
-        <v>1.015722275783833</v>
+        <v>1.015722275783834</v>
       </c>
       <c r="E14">
-        <v>0.9300893893355624</v>
+        <v>0.9300893893355638</v>
       </c>
       <c r="F14">
-        <v>0.9324230461862522</v>
+        <v>0.9324230461862537</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034777329229046</v>
+        <v>1.034777329229047</v>
       </c>
       <c r="J14">
-        <v>0.9423988166103064</v>
+        <v>0.942398816610308</v>
       </c>
       <c r="K14">
         <v>1.030370249717303</v>
       </c>
       <c r="L14">
-        <v>0.9464810965343855</v>
+        <v>0.9464810965343867</v>
       </c>
       <c r="M14">
-        <v>0.9487615641381375</v>
+        <v>0.9487615641381388</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -921,7 +921,7 @@
         <v>1.016252500172757</v>
       </c>
       <c r="E15">
-        <v>0.9313127019871218</v>
+        <v>0.931312701987122</v>
       </c>
       <c r="F15">
         <v>0.9337869340844143</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035139602369942</v>
+        <v>1.035139602369941</v>
       </c>
       <c r="J15">
-        <v>0.9435605666920931</v>
+        <v>0.9435605666920932</v>
       </c>
       <c r="K15">
         <v>1.030804029068165</v>
       </c>
       <c r="L15">
-        <v>0.9475776973981845</v>
+        <v>0.9475776973981846</v>
       </c>
       <c r="M15">
         <v>0.9499961386363995</v>
@@ -950,19 +950,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>0.9183664228796172</v>
+        <v>0.9183664228796175</v>
       </c>
       <c r="D16">
-        <v>1.019276751519854</v>
+        <v>1.019276751519853</v>
       </c>
       <c r="E16">
-        <v>0.938259742952983</v>
+        <v>0.9382597429529833</v>
       </c>
       <c r="F16">
-        <v>0.9415315527336837</v>
+        <v>0.9415315527336838</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -977,7 +977,7 @@
         <v>1.033270785376453</v>
       </c>
       <c r="L16">
-        <v>0.9538007293934414</v>
+        <v>0.9538007293934417</v>
       </c>
       <c r="M16">
         <v>0.9570032377297916</v>
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9233873695959197</v>
+        <v>0.9233873695959177</v>
       </c>
       <c r="D17">
         <v>1.021122307108516</v>
       </c>
       <c r="E17">
-        <v>0.942475031945248</v>
+        <v>0.9424750319452463</v>
       </c>
       <c r="F17">
-        <v>0.9462300833475594</v>
+        <v>0.9462300833475578</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038436458279454</v>
+        <v>1.038436458279453</v>
       </c>
       <c r="J17">
-        <v>0.9541450720981269</v>
+        <v>0.9541450720981253</v>
       </c>
       <c r="K17">
-        <v>1.034769851421277</v>
+        <v>1.034769851421276</v>
       </c>
       <c r="L17">
-        <v>0.957572909684089</v>
+        <v>0.9575729096840875</v>
       </c>
       <c r="M17">
-        <v>0.9612514926646325</v>
+        <v>0.9612514926646307</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9262566922423726</v>
+        <v>0.9262566922423716</v>
       </c>
       <c r="D18">
-        <v>1.022181337983317</v>
+        <v>1.022181337983316</v>
       </c>
       <c r="E18">
-        <v>0.944886079555498</v>
+        <v>0.9448860795554971</v>
       </c>
       <c r="F18">
-        <v>0.9489172546023376</v>
+        <v>0.9489172546023363</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039146035069396</v>
+        <v>1.039146035069395</v>
       </c>
       <c r="J18">
-        <v>0.9564273836003676</v>
+        <v>0.9564273836003667</v>
       </c>
       <c r="K18">
-        <v>1.035627870284432</v>
+        <v>1.035627870284431</v>
       </c>
       <c r="L18">
-        <v>0.9597291693384209</v>
+        <v>0.9597291693384201</v>
       </c>
       <c r="M18">
-        <v>0.963680120522362</v>
+        <v>0.9636801205223609</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9272254030923119</v>
+        <v>0.9272254030923112</v>
       </c>
       <c r="D19">
         <v>1.022539576386039</v>
       </c>
       <c r="E19">
-        <v>0.9457004189687843</v>
+        <v>0.9457004189687831</v>
       </c>
       <c r="F19">
-        <v>0.9498248061785596</v>
+        <v>0.9498248061785586</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.039385455214016</v>
       </c>
       <c r="J19">
-        <v>0.9571979167678141</v>
+        <v>0.9571979167678132</v>
       </c>
       <c r="K19">
-        <v>1.035917747529597</v>
+        <v>1.035917747529596</v>
       </c>
       <c r="L19">
-        <v>0.9604572281451359</v>
+        <v>0.9604572281451349</v>
       </c>
       <c r="M19">
-        <v>0.9645001790696737</v>
+        <v>0.9645001790696727</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9228549029872658</v>
+        <v>0.922854902987266</v>
       </c>
       <c r="D20">
         <v>1.020926124775567</v>
       </c>
       <c r="E20">
-        <v>0.9420277782607923</v>
+        <v>0.9420277782607929</v>
       </c>
       <c r="F20">
-        <v>0.9457315849949446</v>
+        <v>0.945731584994945</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.038304717697184</v>
       </c>
       <c r="J20">
-        <v>0.9537215422297656</v>
+        <v>0.9537215422297658</v>
       </c>
       <c r="K20">
         <v>1.034610729984959</v>
       </c>
       <c r="L20">
-        <v>0.9571728112304723</v>
+        <v>0.9571728112304726</v>
       </c>
       <c r="M20">
-        <v>0.9608008735667473</v>
+        <v>0.9608008735667475</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9079156549304481</v>
+        <v>0.9079156549304475</v>
       </c>
       <c r="D21">
         <v>1.015467721341971</v>
       </c>
       <c r="E21">
-        <v>0.9295015067960894</v>
+        <v>0.9295015067960891</v>
       </c>
       <c r="F21">
-        <v>0.9317675958249755</v>
+        <v>0.9317675958249748</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034603178151251</v>
+        <v>1.03460317815125</v>
       </c>
       <c r="J21">
-        <v>0.9418403982060169</v>
+        <v>0.9418403982060165</v>
       </c>
       <c r="K21">
-        <v>1.030161861148618</v>
+        <v>1.030161861148617</v>
       </c>
       <c r="L21">
-        <v>0.9459540262363224</v>
+        <v>0.945954026236322</v>
       </c>
       <c r="M21">
-        <v>0.9481682002378188</v>
+        <v>0.9481682002378182</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.897879149637836</v>
+        <v>0.8978791496378347</v>
       </c>
       <c r="D22">
-        <v>1.01185302773636</v>
+        <v>1.011853027736361</v>
       </c>
       <c r="E22">
-        <v>0.921110962472333</v>
+        <v>0.9211109624723316</v>
       </c>
       <c r="F22">
-        <v>0.9224119614110421</v>
+        <v>0.9224119614110411</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03211438578103</v>
+        <v>1.032114385781031</v>
       </c>
       <c r="J22">
-        <v>0.9338619941051143</v>
+        <v>0.9338619941051132</v>
       </c>
       <c r="K22">
-        <v>1.027193274928027</v>
+        <v>1.027193274928028</v>
       </c>
       <c r="L22">
-        <v>0.938425831113447</v>
+        <v>0.9384258311134459</v>
       </c>
       <c r="M22">
-        <v>0.9396948197251203</v>
+        <v>0.939694819725119</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.903266816311835</v>
+        <v>0.9032668163118346</v>
       </c>
       <c r="D23">
-        <v>1.013787988746059</v>
+        <v>1.013787988746058</v>
       </c>
       <c r="E23">
-        <v>0.9256125163709719</v>
+        <v>0.9256125163709715</v>
       </c>
       <c r="F23">
-        <v>0.9274314456917043</v>
+        <v>0.927431445691704</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033450313740681</v>
+        <v>1.03345031374068</v>
       </c>
       <c r="J23">
-        <v>0.9381443667580652</v>
+        <v>0.9381443667580649</v>
       </c>
       <c r="K23">
-        <v>1.028784559960495</v>
+        <v>1.028784559960494</v>
       </c>
       <c r="L23">
-        <v>0.9424660167454891</v>
+        <v>0.9424660167454885</v>
       </c>
       <c r="M23">
-        <v>0.9442418551874817</v>
+        <v>0.9442418551874815</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1263,28 +1263,28 @@
         <v>1.021014824793188</v>
       </c>
       <c r="E24">
-        <v>0.9422300193589579</v>
+        <v>0.942230019358958</v>
       </c>
       <c r="F24">
-        <v>0.9459569990042969</v>
+        <v>0.9459569990042971</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038364292958592</v>
+        <v>1.038364292958593</v>
       </c>
       <c r="J24">
-        <v>0.9539130618384924</v>
+        <v>0.9539130618384926</v>
       </c>
       <c r="K24">
-        <v>1.034682680427713</v>
+        <v>1.034682680427714</v>
       </c>
       <c r="L24">
-        <v>0.9573537336422333</v>
+        <v>0.9573537336422334</v>
       </c>
       <c r="M24">
-        <v>0.9610046404323757</v>
+        <v>0.9610046404323758</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9438070201924375</v>
+        <v>0.9438070201924372</v>
       </c>
       <c r="D25">
         <v>1.02872350060385</v>
       </c>
       <c r="E25">
-        <v>0.9596660775044225</v>
+        <v>0.9596660775044222</v>
       </c>
       <c r="F25">
-        <v>0.9653844467045684</v>
+        <v>0.9653844467045685</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,13 +1313,13 @@
         <v>1.043468519607723</v>
       </c>
       <c r="J25">
-        <v>0.9703856732814503</v>
+        <v>0.9703856732814502</v>
       </c>
       <c r="K25">
         <v>1.040891703829121</v>
       </c>
       <c r="L25">
-        <v>0.9729245530778491</v>
+        <v>0.9729245530778489</v>
       </c>
       <c r="M25">
         <v>0.9785449952376232</v>

--- a/Code/Results/Cases/Case_1_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9588885739617002</v>
+        <v>0.9589342181831512</v>
       </c>
       <c r="D2">
-        <v>1.034424991390877</v>
+        <v>1.034434478484086</v>
       </c>
       <c r="E2">
-        <v>0.9724100325444928</v>
+        <v>0.9724506677969197</v>
       </c>
       <c r="F2">
-        <v>0.9795734396436987</v>
+        <v>0.9796102318649348</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047145124571443</v>
+        <v>1.047154349684446</v>
       </c>
       <c r="J2">
-        <v>0.9823725232277637</v>
+        <v>0.9824166341289897</v>
       </c>
       <c r="K2">
-        <v>1.045424692573197</v>
+        <v>1.045434058268861</v>
       </c>
       <c r="L2">
-        <v>0.9842676082759337</v>
+        <v>0.9843076358525091</v>
       </c>
       <c r="M2">
-        <v>0.991324879891664</v>
+        <v>0.9913611320736307</v>
+      </c>
+      <c r="N2">
+        <v>0.9896271794725916</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9691582200638348</v>
+        <v>0.9691939778093764</v>
       </c>
       <c r="D3">
-        <v>1.03834298777402</v>
+        <v>1.038350412229721</v>
       </c>
       <c r="E3">
-        <v>0.9811095430854117</v>
+        <v>0.9811415531615513</v>
       </c>
       <c r="F3">
-        <v>0.9892526353255877</v>
+        <v>0.9892814550885181</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049618614709027</v>
+        <v>1.049625848855595</v>
       </c>
       <c r="J3">
-        <v>0.9905264946782993</v>
+        <v>0.9905611904447654</v>
       </c>
       <c r="K3">
-        <v>1.048507687599881</v>
+        <v>1.04851502554294</v>
       </c>
       <c r="L3">
-        <v>0.9919899764013707</v>
+        <v>0.9920215568677975</v>
       </c>
       <c r="M3">
-        <v>1.000024903101243</v>
+        <v>1.000053344012786</v>
+      </c>
+      <c r="N3">
+        <v>0.9952564472521382</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9755283492401429</v>
+        <v>0.9755581583524938</v>
       </c>
       <c r="D4">
-        <v>1.040785533178821</v>
+        <v>1.040791719556149</v>
       </c>
       <c r="E4">
-        <v>0.9865142306415694</v>
+        <v>0.9865410390801763</v>
       </c>
       <c r="F4">
-        <v>0.995262652629525</v>
+        <v>0.995286685637919</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051137076958979</v>
+        <v>1.051143112450085</v>
       </c>
       <c r="J4">
-        <v>0.9955794560633811</v>
+        <v>0.9956084496422909</v>
       </c>
       <c r="K4">
-        <v>1.050415424180544</v>
+        <v>1.05042154291222</v>
       </c>
       <c r="L4">
-        <v>0.9967781889582796</v>
+        <v>0.9968046627384536</v>
       </c>
       <c r="M4">
-        <v>1.00541859154383</v>
+        <v>1.005442331061243</v>
+      </c>
+      <c r="N4">
+        <v>0.9987425770643413</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.978145635697123</v>
+        <v>0.9781730385979684</v>
       </c>
       <c r="D5">
-        <v>1.041791484807954</v>
+        <v>1.041797171034882</v>
       </c>
       <c r="E5">
-        <v>0.9887366926112539</v>
+        <v>0.9887613946404226</v>
       </c>
       <c r="F5">
-        <v>0.997733211414098</v>
+        <v>0.9977553104352342</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051756910420794</v>
+        <v>1.051762460879754</v>
       </c>
       <c r="J5">
-        <v>0.9976542692584096</v>
+        <v>0.9976809483632024</v>
       </c>
       <c r="K5">
-        <v>1.051197760571979</v>
+        <v>1.05120338630941</v>
       </c>
       <c r="L5">
-        <v>0.9987449171761473</v>
+        <v>0.9987693202876012</v>
       </c>
       <c r="M5">
-        <v>1.007633782608534</v>
+        <v>1.007655620151468</v>
+      </c>
+      <c r="N5">
+        <v>1.000173448500849</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9785816664089235</v>
+        <v>0.9786086705115741</v>
       </c>
       <c r="D6">
-        <v>1.041959197965008</v>
+        <v>1.041964801334713</v>
       </c>
       <c r="E6">
-        <v>0.9891070503365389</v>
+        <v>0.9891314031302993</v>
       </c>
       <c r="F6">
-        <v>0.9981448637178149</v>
+        <v>0.9981666423322747</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051859926647004</v>
+        <v>1.051865396707285</v>
       </c>
       <c r="J6">
-        <v>0.9979998464111484</v>
+        <v>0.9980261414796132</v>
       </c>
       <c r="K6">
-        <v>1.051327996539654</v>
+        <v>1.051333540578842</v>
       </c>
       <c r="L6">
-        <v>0.9990725279319497</v>
+        <v>0.9990965875814805</v>
       </c>
       <c r="M6">
-        <v>1.008002766078154</v>
+        <v>1.008024288379308</v>
+      </c>
+      <c r="N6">
+        <v>1.000411736915719</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9755635538225008</v>
+        <v>0.9755933304265336</v>
       </c>
       <c r="D7">
-        <v>1.040799055260748</v>
+        <v>1.040805234878462</v>
       </c>
       <c r="E7">
-        <v>0.9865441174393579</v>
+        <v>0.9865708974288069</v>
       </c>
       <c r="F7">
-        <v>0.9952958790246849</v>
+        <v>0.9953198858958944</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05114543063089</v>
+        <v>1.051151459569861</v>
       </c>
       <c r="J7">
-        <v>0.995607369229107</v>
+        <v>0.9956363315696057</v>
       </c>
       <c r="K7">
-        <v>1.050425953638924</v>
+        <v>1.05043206570952</v>
       </c>
       <c r="L7">
-        <v>0.9968046455746721</v>
+        <v>0.9968310913988674</v>
       </c>
       <c r="M7">
-        <v>1.0054483915061</v>
+        <v>1.005472105328522</v>
+      </c>
+      <c r="N7">
+        <v>0.9987618294025533</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9624194915460182</v>
+        <v>0.962461693256606</v>
       </c>
       <c r="D8">
-        <v>1.035769107953597</v>
+        <v>1.035777876134763</v>
       </c>
       <c r="E8">
-        <v>0.9753991702918263</v>
+        <v>0.9754368051584666</v>
       </c>
       <c r="F8">
-        <v>0.9828998829295457</v>
+        <v>0.982933896752488</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04799875731691</v>
+        <v>1.048007289316964</v>
       </c>
       <c r="J8">
-        <v>0.9851769739464468</v>
+        <v>0.9852178151865556</v>
       </c>
       <c r="K8">
-        <v>1.046485418229184</v>
+        <v>1.046494077643146</v>
       </c>
       <c r="L8">
-        <v>0.9869230193492834</v>
+        <v>0.986960111363864</v>
       </c>
       <c r="M8">
-        <v>0.9943165790015286</v>
+        <v>0.9943501116219778</v>
+      </c>
+      <c r="N8">
+        <v>0.9915637593060733</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9368801584764035</v>
+        <v>0.9369484173049291</v>
       </c>
       <c r="D9">
-        <v>1.026128635141467</v>
+        <v>1.026142861793087</v>
       </c>
       <c r="E9">
-        <v>0.9538260171838776</v>
+        <v>0.9538862776913352</v>
       </c>
       <c r="F9">
-        <v>0.9588789625176832</v>
+        <v>0.958934065067428</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041766846453982</v>
+        <v>1.041780621215667</v>
       </c>
       <c r="J9">
-        <v>0.9648771716625572</v>
+        <v>0.9649425329512498</v>
       </c>
       <c r="K9">
-        <v>1.038811554622065</v>
+        <v>1.038825565201363</v>
       </c>
       <c r="L9">
-        <v>0.9677154628223481</v>
+        <v>0.967774618574754</v>
       </c>
       <c r="M9">
-        <v>0.972676399758566</v>
+        <v>0.9727305059030318</v>
+      </c>
+      <c r="N9">
+        <v>0.9775373204862106</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9177906573554405</v>
+        <v>0.917880446285911</v>
       </c>
       <c r="D10">
-        <v>1.019065748083379</v>
+        <v>1.019084509293477</v>
       </c>
       <c r="E10">
-        <v>0.9377766714920329</v>
+        <v>0.9378554679582515</v>
       </c>
       <c r="F10">
-        <v>0.9409930650945474</v>
+        <v>0.9410656832506196</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037050916505239</v>
+        <v>1.037069016491375</v>
       </c>
       <c r="J10">
-        <v>0.9496935140395301</v>
+        <v>0.949778748725437</v>
       </c>
       <c r="K10">
-        <v>1.033099090793269</v>
+        <v>1.033117529459844</v>
       </c>
       <c r="L10">
-        <v>0.9533682515956544</v>
+        <v>0.9534453641842531</v>
       </c>
       <c r="M10">
-        <v>0.9565162143987501</v>
+        <v>0.9565872947065303</v>
+      </c>
+      <c r="N10">
+        <v>0.9670368337875651</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9088977080468393</v>
+        <v>0.9089982601072355</v>
       </c>
       <c r="D11">
-        <v>1.015823735035317</v>
+        <v>1.015844768946105</v>
       </c>
       <c r="E11">
-        <v>0.9303235989971322</v>
+        <v>0.9304116048283819</v>
       </c>
       <c r="F11">
-        <v>0.9326841723917181</v>
+        <v>0.9327655725025662</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034846700446101</v>
+        <v>1.034866959786694</v>
       </c>
       <c r="J11">
-        <v>0.9426212661040798</v>
+        <v>0.9427163107495993</v>
       </c>
       <c r="K11">
-        <v>1.030453283755793</v>
+        <v>1.030473936915948</v>
       </c>
       <c r="L11">
-        <v>0.9466910642477527</v>
+        <v>0.9467770618094802</v>
       </c>
       <c r="M11">
-        <v>0.9489979450928031</v>
+        <v>0.9490775001796238</v>
+      </c>
+      <c r="N11">
+        <v>0.9621445883148121</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9054850455629223</v>
+        <v>0.9055898675707136</v>
       </c>
       <c r="D12">
-        <v>1.014588332888129</v>
+        <v>1.014610269209911</v>
       </c>
       <c r="E12">
-        <v>0.9274676349008443</v>
+        <v>0.9275592836013706</v>
       </c>
       <c r="F12">
-        <v>0.9294999051639887</v>
+        <v>0.9295847934143373</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034000418160322</v>
+        <v>1.034021533533795</v>
       </c>
       <c r="J12">
-        <v>0.9399078617369913</v>
+        <v>0.9400067759526375</v>
       </c>
       <c r="K12">
-        <v>1.029441280572451</v>
+        <v>1.029462812242996</v>
       </c>
       <c r="L12">
-        <v>0.9441301415337998</v>
+        <v>0.9442196472952015</v>
       </c>
       <c r="M12">
-        <v>0.9461150257809756</v>
+        <v>0.9461979407410492</v>
+      </c>
+      <c r="N12">
+        <v>0.9602674764329753</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9062223098859992</v>
+        <v>0.9063262025613078</v>
       </c>
       <c r="D13">
-        <v>1.014854807728273</v>
+        <v>1.014876547612144</v>
       </c>
       <c r="E13">
-        <v>0.9280844335628744</v>
+        <v>0.9281752899283259</v>
       </c>
       <c r="F13">
-        <v>0.9301876215669037</v>
+        <v>0.9302717504506374</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034183253740921</v>
+        <v>1.034204182835296</v>
       </c>
       <c r="J13">
-        <v>0.940494027132708</v>
+        <v>0.9405921002147641</v>
       </c>
       <c r="K13">
-        <v>1.029659743764925</v>
+        <v>1.029681084236572</v>
       </c>
       <c r="L13">
-        <v>0.9446833243915188</v>
+        <v>0.9447720674085673</v>
       </c>
       <c r="M13">
-        <v>0.9467377330696986</v>
+        <v>0.9468199168829667</v>
+      </c>
+      <c r="N13">
+        <v>0.9606729842148899</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9086179497566317</v>
+        <v>0.9087188488324196</v>
       </c>
       <c r="D14">
-        <v>1.015722275783834</v>
+        <v>1.01574338301805</v>
       </c>
       <c r="E14">
-        <v>0.9300893893355638</v>
+        <v>0.9301776914466992</v>
       </c>
       <c r="F14">
-        <v>0.9324230461862537</v>
+        <v>0.9325047296909624</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034777329229047</v>
+        <v>1.0347976581527</v>
       </c>
       <c r="J14">
-        <v>0.942398816610308</v>
+        <v>0.9424941761987036</v>
       </c>
       <c r="K14">
-        <v>1.030370249717303</v>
+        <v>1.030390974274976</v>
       </c>
       <c r="L14">
-        <v>0.9464810965343867</v>
+        <v>0.9465673795553133</v>
       </c>
       <c r="M14">
-        <v>0.9487615641381388</v>
+        <v>0.9488413923283139</v>
+      </c>
+      <c r="N14">
+        <v>0.9619907010710502</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9100789650525547</v>
+        <v>0.9101780577072545</v>
       </c>
       <c r="D15">
-        <v>1.016252500172757</v>
+        <v>1.016273225745536</v>
       </c>
       <c r="E15">
-        <v>0.931312701987122</v>
+        <v>0.931399461346909</v>
       </c>
       <c r="F15">
-        <v>0.9337869340844143</v>
+        <v>0.9338671425233653</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035139602369941</v>
+        <v>1.035159569046153</v>
       </c>
       <c r="J15">
-        <v>0.9435605666920932</v>
+        <v>0.9436542859079629</v>
       </c>
       <c r="K15">
-        <v>1.030804029068165</v>
+        <v>1.030824381957334</v>
       </c>
       <c r="L15">
-        <v>0.9475776973981846</v>
+        <v>0.9476624937531696</v>
       </c>
       <c r="M15">
-        <v>0.9499961386363995</v>
+        <v>0.9500745450680815</v>
+      </c>
+      <c r="N15">
+        <v>0.9627943787090288</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,40 +992,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9183664228796175</v>
+        <v>0.9184555321857769</v>
       </c>
       <c r="D16">
-        <v>1.019276751519853</v>
+        <v>1.019295369333233</v>
       </c>
       <c r="E16">
-        <v>0.9382597429529833</v>
+        <v>0.9383379566176443</v>
       </c>
       <c r="F16">
-        <v>0.9415315527336838</v>
+        <v>0.9416036168988732</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037193531196632</v>
+        <v>1.037211494762375</v>
       </c>
       <c r="J16">
-        <v>0.9501514541442555</v>
+        <v>0.9502360666532079</v>
       </c>
       <c r="K16">
-        <v>1.033270785376453</v>
+        <v>1.033289084218172</v>
       </c>
       <c r="L16">
-        <v>0.9538007293934417</v>
+        <v>0.9538772789157189</v>
       </c>
       <c r="M16">
-        <v>0.9570032377297916</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9570737826493422</v>
+      </c>
+      <c r="N16">
+        <v>0.9673535950907691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9233873695959177</v>
+        <v>0.9234706361432637</v>
       </c>
       <c r="D17">
-        <v>1.021122307108516</v>
+        <v>1.021139692755789</v>
       </c>
       <c r="E17">
-        <v>0.9424750319452463</v>
+        <v>0.942548228971386</v>
       </c>
       <c r="F17">
-        <v>0.9462300833475578</v>
+        <v>0.9462973876143379</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038436458279453</v>
+        <v>1.038453248714171</v>
       </c>
       <c r="J17">
-        <v>0.9541450720981253</v>
+        <v>0.9542243220645392</v>
       </c>
       <c r="K17">
-        <v>1.034769851421276</v>
+        <v>1.034786948265634</v>
       </c>
       <c r="L17">
-        <v>0.9575729096840875</v>
+        <v>0.9576446084358473</v>
       </c>
       <c r="M17">
-        <v>0.9612514926646307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9613174336298409</v>
+      </c>
+      <c r="N17">
+        <v>0.9701158781622404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9262566922423716</v>
+        <v>0.9263366852381206</v>
       </c>
       <c r="D18">
-        <v>1.022181337983316</v>
+        <v>1.022198033802148</v>
       </c>
       <c r="E18">
-        <v>0.9448860795554971</v>
+        <v>0.9449564610011378</v>
       </c>
       <c r="F18">
-        <v>0.9489172546023363</v>
+        <v>0.9489818942713658</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039146035069395</v>
+        <v>1.039162167989736</v>
       </c>
       <c r="J18">
-        <v>0.9564273836003667</v>
+        <v>0.9565036182691957</v>
       </c>
       <c r="K18">
-        <v>1.035627870284431</v>
+        <v>1.035644293766914</v>
       </c>
       <c r="L18">
-        <v>0.9597291693384201</v>
+        <v>0.9597981424096567</v>
       </c>
       <c r="M18">
-        <v>0.9636801205223609</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9637434811001031</v>
+      </c>
+      <c r="N18">
+        <v>0.971694365432009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9272254030923112</v>
+        <v>0.927304301286406</v>
       </c>
       <c r="D19">
-        <v>1.022539576386039</v>
+        <v>1.022556041589703</v>
       </c>
       <c r="E19">
-        <v>0.9457004189687831</v>
+        <v>0.9457698579983393</v>
       </c>
       <c r="F19">
-        <v>0.9498248061785586</v>
+        <v>0.9498885550771379</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039385455214016</v>
+        <v>1.039401368199893</v>
       </c>
       <c r="J19">
-        <v>0.9571979167678132</v>
+        <v>0.9572731412579294</v>
       </c>
       <c r="K19">
-        <v>1.035917747529596</v>
+        <v>1.035933945831614</v>
       </c>
       <c r="L19">
-        <v>0.9604572281451349</v>
+        <v>0.9605252883706259</v>
       </c>
       <c r="M19">
-        <v>0.9645001790696727</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9645626765266074</v>
+      </c>
+      <c r="N19">
+        <v>0.9722272556399123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.922854902987266</v>
+        <v>0.9229387821578281</v>
       </c>
       <c r="D20">
-        <v>1.020926124775567</v>
+        <v>1.020943639562924</v>
       </c>
       <c r="E20">
-        <v>0.9420277782607929</v>
+        <v>0.9421015018155379</v>
       </c>
       <c r="F20">
-        <v>0.945731584994945</v>
+        <v>0.9457993881062958</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038304717697184</v>
+        <v>1.038321631162767</v>
       </c>
       <c r="J20">
-        <v>0.9537215422297658</v>
+        <v>0.9538013556231086</v>
       </c>
       <c r="K20">
-        <v>1.034610729984959</v>
+        <v>1.034627952852374</v>
       </c>
       <c r="L20">
-        <v>0.9571728112304726</v>
+        <v>0.9572450194422991</v>
       </c>
       <c r="M20">
-        <v>0.9608008735667475</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9608672973631756</v>
+      </c>
+      <c r="N20">
+        <v>0.9698229462929281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9079156549304475</v>
+        <v>0.9080174274943729</v>
       </c>
       <c r="D21">
-        <v>1.015467721341971</v>
+        <v>1.015489013153906</v>
       </c>
       <c r="E21">
-        <v>0.9295015067960891</v>
+        <v>0.9295905545092716</v>
       </c>
       <c r="F21">
-        <v>0.9317675958249748</v>
+        <v>0.931849992740228</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03460317815125</v>
+        <v>1.034623682214813</v>
       </c>
       <c r="J21">
-        <v>0.9418403982060165</v>
+        <v>0.9419365501853092</v>
       </c>
       <c r="K21">
-        <v>1.030161861148617</v>
+        <v>1.030182765423172</v>
       </c>
       <c r="L21">
-        <v>0.945954026236322</v>
+        <v>0.9460410275244685</v>
       </c>
       <c r="M21">
-        <v>0.9481682002378182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9482487158307414</v>
+      </c>
+      <c r="N21">
+        <v>0.9616043941678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8978791496378347</v>
+        <v>0.8979937897979935</v>
       </c>
       <c r="D22">
-        <v>1.011853027736361</v>
+        <v>1.011877040311554</v>
       </c>
       <c r="E22">
-        <v>0.9211109624723316</v>
+        <v>0.9212109644108686</v>
       </c>
       <c r="F22">
-        <v>0.9224119614110411</v>
+        <v>0.9225048782945967</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032114385781031</v>
+        <v>1.032137467988963</v>
       </c>
       <c r="J22">
-        <v>0.9338619941051132</v>
+        <v>0.933969759266812</v>
       </c>
       <c r="K22">
-        <v>1.027193274928028</v>
+        <v>1.027216826302833</v>
       </c>
       <c r="L22">
-        <v>0.9384258311134459</v>
+        <v>0.9385233682421255</v>
       </c>
       <c r="M22">
-        <v>0.939694819725119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9397854550924049</v>
+      </c>
+      <c r="N22">
+        <v>0.9560849147948771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9032668163118346</v>
+        <v>0.9033744577577251</v>
       </c>
       <c r="D23">
-        <v>1.013787988746058</v>
+        <v>1.013810521129908</v>
       </c>
       <c r="E23">
-        <v>0.9256125163709715</v>
+        <v>0.9257065671219104</v>
       </c>
       <c r="F23">
-        <v>0.927431445691704</v>
+        <v>0.9275186383634669</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03345031374068</v>
+        <v>1.033471994140957</v>
       </c>
       <c r="J23">
-        <v>0.9381443667580649</v>
+        <v>0.9382458292555859</v>
       </c>
       <c r="K23">
-        <v>1.028784559960494</v>
+        <v>1.028806671675507</v>
       </c>
       <c r="L23">
-        <v>0.9424660167454885</v>
+        <v>0.9425578338432391</v>
       </c>
       <c r="M23">
-        <v>0.9442418551874815</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9443269879331978</v>
+      </c>
+      <c r="N23">
+        <v>0.9590474874460763</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9230956839024322</v>
+        <v>0.9231792858434896</v>
       </c>
       <c r="D24">
-        <v>1.021014824793188</v>
+        <v>1.021032281139318</v>
       </c>
       <c r="E24">
-        <v>0.942230019358958</v>
+        <v>0.9423035046596722</v>
       </c>
       <c r="F24">
-        <v>0.9459569990042971</v>
+        <v>0.9460245763671685</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038364292958593</v>
+        <v>1.038381150749931</v>
       </c>
       <c r="J24">
-        <v>0.9539130618384926</v>
+        <v>0.9539926202987558</v>
       </c>
       <c r="K24">
-        <v>1.034682680427714</v>
+        <v>1.034699846265811</v>
       </c>
       <c r="L24">
-        <v>0.9573537336422334</v>
+        <v>0.9574257113335064</v>
       </c>
       <c r="M24">
-        <v>0.9610046404323758</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9610708457366953</v>
+      </c>
+      <c r="N24">
+        <v>0.9699554100794675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9438070201924372</v>
+        <v>0.9438679309399062</v>
       </c>
       <c r="D25">
-        <v>1.02872350060385</v>
+        <v>1.028736184242229</v>
       </c>
       <c r="E25">
-        <v>0.9596660775044222</v>
+        <v>0.9597199780562946</v>
       </c>
       <c r="F25">
-        <v>0.9653844467045685</v>
+        <v>0.9654335891102204</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043468519607723</v>
+        <v>1.043480816740875</v>
       </c>
       <c r="J25">
-        <v>0.9703856732814502</v>
+        <v>0.9704441728751576</v>
       </c>
       <c r="K25">
-        <v>1.040891703829121</v>
+        <v>1.04090420426378</v>
       </c>
       <c r="L25">
-        <v>0.9729245530778489</v>
+        <v>0.9729775235370858</v>
       </c>
       <c r="M25">
-        <v>0.9785449952376232</v>
+        <v>0.9785933025706709</v>
+      </c>
+      <c r="N25">
+        <v>0.9813452451167718</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9589342181831512</v>
+        <v>1.002368819967993</v>
       </c>
       <c r="D2">
-        <v>1.034434478484086</v>
+        <v>1.052324449171743</v>
       </c>
       <c r="E2">
-        <v>0.9724506677969197</v>
+        <v>1.022059751388254</v>
       </c>
       <c r="F2">
-        <v>0.9796102318649348</v>
+        <v>1.043421830624346</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047154349684446</v>
+        <v>1.064224685507072</v>
       </c>
       <c r="J2">
-        <v>0.9824166341289897</v>
+        <v>1.024478910146051</v>
       </c>
       <c r="K2">
-        <v>1.045434058268861</v>
+        <v>1.063099952392098</v>
       </c>
       <c r="L2">
-        <v>0.9843076358525091</v>
+        <v>1.033220080920162</v>
       </c>
       <c r="M2">
-        <v>0.9913611320736307</v>
+        <v>1.054307644073046</v>
       </c>
       <c r="N2">
-        <v>0.9896271794725916</v>
+        <v>1.025933787707832</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9691939778093764</v>
+        <v>1.011412956271234</v>
       </c>
       <c r="D3">
-        <v>1.038350412229721</v>
+        <v>1.057570132751585</v>
       </c>
       <c r="E3">
-        <v>0.9811415531615513</v>
+        <v>1.029470018019113</v>
       </c>
       <c r="F3">
-        <v>0.9892814550885181</v>
+        <v>1.050290934479919</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049625848855595</v>
+        <v>1.066611805977038</v>
       </c>
       <c r="J3">
-        <v>0.9905611904447654</v>
+        <v>1.031597255085427</v>
       </c>
       <c r="K3">
-        <v>1.04851502554294</v>
+        <v>1.067515802504859</v>
       </c>
       <c r="L3">
-        <v>0.9920215568677975</v>
+        <v>1.039739214402805</v>
       </c>
       <c r="M3">
-        <v>1.000053344012786</v>
+        <v>1.060318363881598</v>
       </c>
       <c r="N3">
-        <v>0.9952564472521382</v>
+        <v>1.033062241513508</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9755581583524938</v>
+        <v>1.017068650273132</v>
       </c>
       <c r="D4">
-        <v>1.040791719556149</v>
+        <v>1.060851738177778</v>
       </c>
       <c r="E4">
-        <v>0.9865410390801763</v>
+        <v>1.034109841058203</v>
       </c>
       <c r="F4">
-        <v>0.995286685637919</v>
+        <v>1.054590267619964</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051143112450085</v>
+        <v>1.06808800456394</v>
       </c>
       <c r="J4">
-        <v>0.9956084496422909</v>
+        <v>1.036045591350251</v>
       </c>
       <c r="K4">
-        <v>1.05042154291222</v>
+        <v>1.070267283822785</v>
       </c>
       <c r="L4">
-        <v>0.9968046627384536</v>
+        <v>1.043813308202449</v>
       </c>
       <c r="M4">
-        <v>1.005442331061243</v>
+        <v>1.064071626472492</v>
       </c>
       <c r="N4">
-        <v>0.9987425770643413</v>
+        <v>1.037516894926059</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9781730385979684</v>
+        <v>1.019402339311664</v>
       </c>
       <c r="D5">
-        <v>1.041797171034882</v>
+        <v>1.062205780422775</v>
       </c>
       <c r="E5">
-        <v>0.9887613946404226</v>
+        <v>1.036025585585837</v>
       </c>
       <c r="F5">
-        <v>0.9977553104352342</v>
+        <v>1.05636492188295</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051762460879754</v>
+        <v>1.068692979355967</v>
       </c>
       <c r="J5">
-        <v>0.9976809483632024</v>
+        <v>1.037880253573013</v>
       </c>
       <c r="K5">
-        <v>1.05120338630941</v>
+        <v>1.071399974890576</v>
       </c>
       <c r="L5">
-        <v>0.9987693202876012</v>
+        <v>1.045493617212755</v>
       </c>
       <c r="M5">
-        <v>1.007655620151468</v>
+        <v>1.065618775238196</v>
       </c>
       <c r="N5">
-        <v>1.000173448500849</v>
+        <v>1.039354162579616</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9786086705115741</v>
+        <v>1.019791681476682</v>
       </c>
       <c r="D6">
-        <v>1.041964801334713</v>
+        <v>1.062431671402024</v>
       </c>
       <c r="E6">
-        <v>0.9891314031302993</v>
+        <v>1.036345267355272</v>
       </c>
       <c r="F6">
-        <v>0.9981666423322747</v>
+        <v>1.056661027098278</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051865396707285</v>
+        <v>1.068793662206532</v>
       </c>
       <c r="J6">
-        <v>0.9980261414796132</v>
+        <v>1.038186288216179</v>
       </c>
       <c r="K6">
-        <v>1.051333540578842</v>
+        <v>1.071588785362294</v>
       </c>
       <c r="L6">
-        <v>0.9990965875814805</v>
+        <v>1.045773903118986</v>
       </c>
       <c r="M6">
-        <v>1.008024288379308</v>
+        <v>1.065876797329999</v>
       </c>
       <c r="N6">
-        <v>1.000411736915719</v>
+        <v>1.039660631827078</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9755933304265336</v>
+        <v>1.017100002059713</v>
       </c>
       <c r="D7">
-        <v>1.040805234878462</v>
+        <v>1.060869929529249</v>
       </c>
       <c r="E7">
-        <v>0.9865708974288069</v>
+        <v>1.034135573343273</v>
       </c>
       <c r="F7">
-        <v>0.9953198858958944</v>
+        <v>1.054614106917575</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051151459569861</v>
+        <v>1.068096148683837</v>
       </c>
       <c r="J7">
-        <v>0.9956363315696057</v>
+        <v>1.036070242445965</v>
       </c>
       <c r="K7">
-        <v>1.05043206570952</v>
+        <v>1.070282511679296</v>
       </c>
       <c r="L7">
-        <v>0.9968310913988674</v>
+        <v>1.043835885431972</v>
       </c>
       <c r="M7">
-        <v>1.005472105328522</v>
+        <v>1.064092417950341</v>
       </c>
       <c r="N7">
-        <v>0.9987618294025533</v>
+        <v>1.037541581029156</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.962461693256606</v>
+        <v>1.005467956804477</v>
       </c>
       <c r="D8">
-        <v>1.035777876134763</v>
+        <v>1.054121497484874</v>
       </c>
       <c r="E8">
-        <v>0.9754368051584666</v>
+        <v>1.024597659952976</v>
       </c>
       <c r="F8">
-        <v>0.982933896752488</v>
+        <v>1.045774677462939</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048007289316964</v>
+        <v>1.065046075603048</v>
       </c>
       <c r="J8">
-        <v>0.9852178151865556</v>
+        <v>1.026918725573355</v>
       </c>
       <c r="K8">
-        <v>1.046494077643146</v>
+        <v>1.064615062368786</v>
       </c>
       <c r="L8">
-        <v>0.986960111363864</v>
+        <v>1.035454437869814</v>
       </c>
       <c r="M8">
-        <v>0.9943501116219778</v>
+        <v>1.056368344965912</v>
       </c>
       <c r="N8">
-        <v>0.9915637593060733</v>
+        <v>1.028377067952892</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9369484173049291</v>
+        <v>0.9833094817689033</v>
       </c>
       <c r="D9">
-        <v>1.026142861793087</v>
+        <v>1.041294039353561</v>
       </c>
       <c r="E9">
-        <v>0.9538862776913352</v>
+        <v>1.006485838096121</v>
       </c>
       <c r="F9">
-        <v>0.958934065067428</v>
+        <v>1.028981500618985</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041780621215667</v>
+        <v>1.059108711859025</v>
       </c>
       <c r="J9">
-        <v>0.9649425329512498</v>
+        <v>1.009465712018363</v>
       </c>
       <c r="K9">
-        <v>1.038825565201363</v>
+        <v>1.053750882822899</v>
       </c>
       <c r="L9">
-        <v>0.967774618574754</v>
+        <v>1.019474556303244</v>
       </c>
       <c r="M9">
-        <v>0.9727305059030318</v>
+        <v>1.041621243416783</v>
       </c>
       <c r="N9">
-        <v>0.9775373204862106</v>
+        <v>1.010899269116765</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.917880446285911</v>
+        <v>0.9671654589371511</v>
       </c>
       <c r="D10">
-        <v>1.019084509293477</v>
+        <v>1.031996190895138</v>
       </c>
       <c r="E10">
-        <v>0.9378554679582515</v>
+        <v>0.9933449083306745</v>
       </c>
       <c r="F10">
-        <v>0.9410656832506196</v>
+        <v>1.016801338192959</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037069016491375</v>
+        <v>1.054709755978235</v>
       </c>
       <c r="J10">
-        <v>0.949778748725437</v>
+        <v>0.9967452136939166</v>
       </c>
       <c r="K10">
-        <v>1.033117529459844</v>
+        <v>1.045810815277584</v>
       </c>
       <c r="L10">
-        <v>0.9534453641842531</v>
+        <v>1.007835371216948</v>
       </c>
       <c r="M10">
-        <v>0.9565872947065303</v>
+        <v>1.030873723816962</v>
       </c>
       <c r="N10">
-        <v>0.9670368337875651</v>
+        <v>0.9981607062256359</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9089982601072355</v>
+        <v>0.959779520609071</v>
       </c>
       <c r="D11">
-        <v>1.015844768946105</v>
+        <v>1.027761420850444</v>
       </c>
       <c r="E11">
-        <v>0.9304116048283819</v>
+        <v>0.9873501256792298</v>
       </c>
       <c r="F11">
-        <v>0.9327655725025662</v>
+        <v>1.011248300293628</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034866959786694</v>
+        <v>1.05268349132415</v>
       </c>
       <c r="J11">
-        <v>0.9427163107495993</v>
+        <v>0.9909268210247751</v>
       </c>
       <c r="K11">
-        <v>1.030473936915948</v>
+        <v>1.042178123598905</v>
       </c>
       <c r="L11">
-        <v>0.9467770618094802</v>
+        <v>1.002514609099446</v>
       </c>
       <c r="M11">
-        <v>0.9490775001796238</v>
+        <v>1.02596116263584</v>
       </c>
       <c r="N11">
-        <v>0.9621445883148121</v>
+        <v>0.9923340507715254</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C12">
-        <v>0.9055898675707136</v>
+        <v>0.9569694159056895</v>
       </c>
       <c r="D12">
-        <v>1.014610269209911</v>
+        <v>1.026153848453654</v>
       </c>
       <c r="E12">
-        <v>0.9275592836013706</v>
+        <v>0.9850723209510076</v>
       </c>
       <c r="F12">
-        <v>0.9295847934143373</v>
+        <v>1.009139110684495</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034021533533795</v>
+        <v>1.051910866576485</v>
       </c>
       <c r="J12">
-        <v>0.9400067759526375</v>
+        <v>0.9887135496357276</v>
       </c>
       <c r="K12">
-        <v>1.029462812242996</v>
+        <v>1.040796568586808</v>
       </c>
       <c r="L12">
-        <v>0.9442196472952015</v>
+        <v>1.000491210841504</v>
       </c>
       <c r="M12">
-        <v>0.9461979407410492</v>
+        <v>1.024093289578959</v>
       </c>
       <c r="N12">
-        <v>0.9602674764329753</v>
+        <v>0.9901176362832397</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9063262025613078</v>
+        <v>0.9575753381767858</v>
       </c>
       <c r="D13">
-        <v>1.014876547612144</v>
+        <v>1.026500301076777</v>
       </c>
       <c r="E13">
-        <v>0.9281752899283259</v>
+        <v>0.9855633240285306</v>
       </c>
       <c r="F13">
-        <v>0.9302717504506374</v>
+        <v>1.009593728104417</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034204182835296</v>
+        <v>1.052077532176438</v>
       </c>
       <c r="J13">
-        <v>0.9405921002147641</v>
+        <v>0.9891907572385409</v>
       </c>
       <c r="K13">
-        <v>1.029681084236572</v>
+        <v>1.041094427619476</v>
       </c>
       <c r="L13">
-        <v>0.9447720674085673</v>
+        <v>1.000927451303844</v>
       </c>
       <c r="M13">
-        <v>0.9468199168829667</v>
+        <v>1.024495982306427</v>
       </c>
       <c r="N13">
-        <v>0.9606729842148899</v>
+        <v>0.9905955215755856</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9087188488324196</v>
+        <v>0.9595486421340337</v>
       </c>
       <c r="D14">
-        <v>1.01574338301805</v>
+        <v>1.027629264592302</v>
       </c>
       <c r="E14">
-        <v>0.9301776914466992</v>
+        <v>0.9871629174140726</v>
       </c>
       <c r="F14">
-        <v>0.9325047296909624</v>
+        <v>1.011074933061725</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0347976581527</v>
+        <v>1.052620044503416</v>
       </c>
       <c r="J14">
-        <v>0.9424941761987036</v>
+        <v>0.9907449681165545</v>
       </c>
       <c r="K14">
-        <v>1.030390974274976</v>
+        <v>1.042064599893811</v>
       </c>
       <c r="L14">
-        <v>0.9465673795553133</v>
+        <v>1.00234834459645</v>
       </c>
       <c r="M14">
-        <v>0.9488413923283139</v>
+        <v>1.02580767056557</v>
       </c>
       <c r="N14">
-        <v>0.9619907010710502</v>
+        <v>0.9921519396113162</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9101780577072545</v>
+        <v>0.9607553922656186</v>
       </c>
       <c r="D15">
-        <v>1.016273225745536</v>
+        <v>1.028320167245637</v>
       </c>
       <c r="E15">
-        <v>0.931399461346909</v>
+        <v>0.9881415379161785</v>
       </c>
       <c r="F15">
-        <v>0.9338671425233653</v>
+        <v>1.011981233079686</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035159569046153</v>
+        <v>1.052951600264984</v>
       </c>
       <c r="J15">
-        <v>0.9436542859079629</v>
+        <v>0.9916954917228545</v>
       </c>
       <c r="K15">
-        <v>1.030824381957334</v>
+        <v>1.042657989391575</v>
       </c>
       <c r="L15">
-        <v>0.9476624937531696</v>
+        <v>1.003217413682968</v>
       </c>
       <c r="M15">
-        <v>0.9500745450680815</v>
+        <v>1.026609990980076</v>
       </c>
       <c r="N15">
-        <v>0.9627943787090288</v>
+        <v>0.9931038130701635</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9184555321857769</v>
+        <v>0.9676467182746867</v>
       </c>
       <c r="D16">
-        <v>1.019295369333233</v>
+        <v>1.032272576623657</v>
       </c>
       <c r="E16">
-        <v>0.9383379566176443</v>
+        <v>0.9937359103710961</v>
       </c>
       <c r="F16">
-        <v>0.9416036168988732</v>
+        <v>1.01716361921816</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037211494762375</v>
+        <v>1.054841531638298</v>
       </c>
       <c r="J16">
-        <v>0.9502360666532079</v>
+        <v>0.9971243792317502</v>
       </c>
       <c r="K16">
-        <v>1.033289084218172</v>
+        <v>1.046047561955125</v>
       </c>
       <c r="L16">
-        <v>0.9538772789157189</v>
+        <v>1.008182180154392</v>
       </c>
       <c r="M16">
-        <v>0.9570737826493422</v>
+        <v>1.031193954648347</v>
       </c>
       <c r="N16">
-        <v>0.9673535950907691</v>
+        <v>0.998540410222024</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9234706361432637</v>
+        <v>0.9718588588047093</v>
       </c>
       <c r="D17">
-        <v>1.021139692755789</v>
+        <v>1.034693808885192</v>
       </c>
       <c r="E17">
-        <v>0.942548228971386</v>
+        <v>0.9971600655842506</v>
       </c>
       <c r="F17">
-        <v>0.9462973876143379</v>
+        <v>1.020336667077543</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038453248714171</v>
+        <v>1.055993374190341</v>
       </c>
       <c r="J17">
-        <v>0.9542243220645392</v>
+        <v>1.000443128946977</v>
       </c>
       <c r="K17">
-        <v>1.034786948265634</v>
+        <v>1.048119697654409</v>
       </c>
       <c r="L17">
-        <v>0.9576446084358473</v>
+        <v>1.011218073044016</v>
       </c>
       <c r="M17">
-        <v>0.9613174336298409</v>
+        <v>1.03399727533464</v>
       </c>
       <c r="N17">
-        <v>0.9701158781622404</v>
+        <v>1.001863872942512</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9263366852381206</v>
+        <v>0.9742781195213852</v>
       </c>
       <c r="D18">
-        <v>1.022198033802148</v>
+        <v>1.036086175485291</v>
       </c>
       <c r="E18">
-        <v>0.9449564610011378</v>
+        <v>0.9991283216102372</v>
       </c>
       <c r="F18">
-        <v>0.9489818942713658</v>
+        <v>1.022160887671524</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039162167989736</v>
+        <v>1.056653632862028</v>
       </c>
       <c r="J18">
-        <v>0.9565036182691957</v>
+        <v>1.002349368343628</v>
       </c>
       <c r="K18">
-        <v>1.035644293766914</v>
+        <v>1.049309788621436</v>
       </c>
       <c r="L18">
-        <v>0.9597981424096567</v>
+        <v>1.012962118341003</v>
       </c>
       <c r="M18">
-        <v>0.9637434811001031</v>
+        <v>1.035607753566538</v>
       </c>
       <c r="N18">
-        <v>0.971694365432009</v>
+        <v>1.003772819417756</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.927304301286406</v>
+        <v>0.9750968455764376</v>
       </c>
       <c r="D19">
-        <v>1.022556041589703</v>
+        <v>1.036557651518426</v>
       </c>
       <c r="E19">
-        <v>0.9457698579983393</v>
+        <v>0.9997946749644955</v>
       </c>
       <c r="F19">
-        <v>0.9498885550771379</v>
+        <v>1.022778522759851</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039401368199893</v>
+        <v>1.056876845944509</v>
       </c>
       <c r="J19">
-        <v>0.9572731412579294</v>
+        <v>1.002994488425236</v>
       </c>
       <c r="K19">
-        <v>1.035933945831614</v>
+        <v>1.049712515165845</v>
       </c>
       <c r="L19">
-        <v>0.9605252883706259</v>
+        <v>1.013552391062287</v>
       </c>
       <c r="M19">
-        <v>0.9645626765266074</v>
+        <v>1.03615282165444</v>
       </c>
       <c r="N19">
-        <v>0.9722272556399123</v>
+        <v>1.004418855643876</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9229387821578281</v>
+        <v>0.9714108744368798</v>
       </c>
       <c r="D20">
-        <v>1.020943639562924</v>
+        <v>1.034436113349685</v>
       </c>
       <c r="E20">
-        <v>0.9421015018155379</v>
+        <v>0.9967957208402536</v>
       </c>
       <c r="F20">
-        <v>0.9457993881062958</v>
+        <v>1.019999007876752</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038321631162767</v>
+        <v>1.055871002967702</v>
       </c>
       <c r="J20">
-        <v>0.9538013556231086</v>
+        <v>1.000090149469747</v>
       </c>
       <c r="K20">
-        <v>1.034627952852374</v>
+        <v>1.04789931588862</v>
       </c>
       <c r="L20">
-        <v>0.9572450194422991</v>
+        <v>1.010895148613923</v>
       </c>
       <c r="M20">
-        <v>0.9608672973631756</v>
+        <v>1.033699083834996</v>
       </c>
       <c r="N20">
-        <v>0.9698229462929281</v>
+        <v>1.001510392193937</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9080174274943729</v>
+        <v>0.9589694571573386</v>
       </c>
       <c r="D21">
-        <v>1.015489013153906</v>
+        <v>1.027297796403892</v>
       </c>
       <c r="E21">
-        <v>0.9295905545092716</v>
+        <v>0.9866933340419877</v>
       </c>
       <c r="F21">
-        <v>0.931849992740228</v>
+        <v>1.010640081055371</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034623682214813</v>
+        <v>1.052460854979356</v>
       </c>
       <c r="J21">
-        <v>0.9419365501853092</v>
+        <v>0.9902887772274855</v>
       </c>
       <c r="K21">
-        <v>1.030182765423172</v>
+        <v>1.041779823894114</v>
       </c>
       <c r="L21">
-        <v>0.9460410275244685</v>
+        <v>1.001931268060448</v>
       </c>
       <c r="M21">
-        <v>0.9482487158307414</v>
+        <v>1.025422639290021</v>
       </c>
       <c r="N21">
-        <v>0.9616043941678</v>
+        <v>0.9916951008788591</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8979937897979935</v>
+        <v>0.9507569369366885</v>
       </c>
       <c r="D22">
-        <v>1.011877040311554</v>
+        <v>1.022607516673038</v>
       </c>
       <c r="E22">
-        <v>0.9212109644108686</v>
+        <v>0.9800427300089012</v>
       </c>
       <c r="F22">
-        <v>0.9225048782945967</v>
+        <v>1.004483566506513</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032137467988963</v>
+        <v>1.050200086632004</v>
       </c>
       <c r="J22">
-        <v>0.933969759266812</v>
+        <v>0.983821636410213</v>
       </c>
       <c r="K22">
-        <v>1.027216826302833</v>
+        <v>1.037744035262669</v>
       </c>
       <c r="L22">
-        <v>0.9385233682421255</v>
+        <v>0.9960201896558147</v>
       </c>
       <c r="M22">
-        <v>0.9397854550924049</v>
+        <v>1.019966723269636</v>
       </c>
       <c r="N22">
-        <v>0.9560849147948771</v>
+        <v>0.9852187759798344</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9033744577577251</v>
+        <v>0.9551502845682949</v>
       </c>
       <c r="D23">
-        <v>1.013810521129908</v>
+        <v>1.025114305353099</v>
       </c>
       <c r="E23">
-        <v>0.9257065671219104</v>
+        <v>0.9835986837645433</v>
       </c>
       <c r="F23">
-        <v>0.9275186383634669</v>
+        <v>1.007774810897537</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033471994140957</v>
+        <v>1.051410276481639</v>
       </c>
       <c r="J23">
-        <v>0.9382458292555859</v>
+        <v>0.9872809367288933</v>
       </c>
       <c r="K23">
-        <v>1.028806671675507</v>
+        <v>1.039902452529301</v>
       </c>
       <c r="L23">
-        <v>0.9425578338432391</v>
+        <v>0.9991816796314535</v>
       </c>
       <c r="M23">
-        <v>0.9443269879331978</v>
+        <v>1.022884524336165</v>
       </c>
       <c r="N23">
-        <v>0.9590474874460763</v>
+        <v>0.9886829889017543</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9231792858434896</v>
+        <v>0.97161341498364</v>
       </c>
       <c r="D24">
-        <v>1.021032281139318</v>
+        <v>1.034552616120625</v>
       </c>
       <c r="E24">
-        <v>0.9423035046596722</v>
+        <v>0.9969604417628871</v>
       </c>
       <c r="F24">
-        <v>0.9460245763671685</v>
+        <v>1.020151663286682</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038381150749931</v>
+        <v>1.055926332950066</v>
       </c>
       <c r="J24">
-        <v>0.9539926202987558</v>
+        <v>1.000249736562128</v>
       </c>
       <c r="K24">
-        <v>1.034699846265811</v>
+        <v>1.047998954030617</v>
       </c>
       <c r="L24">
-        <v>0.9574257113335064</v>
+        <v>1.011041146542514</v>
       </c>
       <c r="M24">
-        <v>0.9610708457366953</v>
+        <v>1.033833899605805</v>
       </c>
       <c r="N24">
-        <v>0.9699554100794675</v>
+        <v>1.001670205918295</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9438679309399062</v>
+        <v>0.9892588669687454</v>
       </c>
       <c r="D25">
-        <v>1.028736184242229</v>
+        <v>1.044732241860268</v>
       </c>
       <c r="E25">
-        <v>0.9597199780562946</v>
+        <v>1.011340675201045</v>
       </c>
       <c r="F25">
-        <v>0.9654335891102204</v>
+        <v>1.033482913901335</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043480816740875</v>
+        <v>1.060716257804053</v>
       </c>
       <c r="J25">
-        <v>0.9704441728751576</v>
+        <v>1.014153200115933</v>
       </c>
       <c r="K25">
-        <v>1.04090420426378</v>
+        <v>1.056673680778452</v>
       </c>
       <c r="L25">
-        <v>0.9729775235370858</v>
+        <v>1.023765456173069</v>
       </c>
       <c r="M25">
-        <v>0.9785933025706709</v>
+        <v>1.045582771292056</v>
       </c>
       <c r="N25">
-        <v>0.9813452451167718</v>
+        <v>1.015593413985096</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002368819967993</v>
+        <v>1.016881452417757</v>
       </c>
       <c r="D2">
-        <v>1.052324449171743</v>
+        <v>1.050998105934357</v>
       </c>
       <c r="E2">
-        <v>1.022059751388254</v>
+        <v>1.033266616040408</v>
       </c>
       <c r="F2">
-        <v>1.043421830624346</v>
+        <v>1.04954616698585</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.064224685507072</v>
+        <v>1.05619114537544</v>
       </c>
       <c r="J2">
-        <v>1.024478910146051</v>
+        <v>1.038568704960273</v>
       </c>
       <c r="K2">
-        <v>1.063099952392098</v>
+        <v>1.061789896152446</v>
       </c>
       <c r="L2">
-        <v>1.033220080920162</v>
+        <v>1.044281160823425</v>
       </c>
       <c r="M2">
-        <v>1.054307644073046</v>
+        <v>1.060355845209386</v>
       </c>
       <c r="N2">
-        <v>1.025933787707832</v>
+        <v>1.040043591646812</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011412956271234</v>
+        <v>1.020931244099339</v>
       </c>
       <c r="D3">
-        <v>1.057570132751585</v>
+        <v>1.053940012813324</v>
       </c>
       <c r="E3">
-        <v>1.029470018019113</v>
+        <v>1.036540462556408</v>
       </c>
       <c r="F3">
-        <v>1.050290934479919</v>
+        <v>1.052950743969929</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.066611805977038</v>
+        <v>1.057353332901533</v>
       </c>
       <c r="J3">
-        <v>1.031597255085427</v>
+        <v>1.040867122036889</v>
       </c>
       <c r="K3">
-        <v>1.067515802504859</v>
+        <v>1.063926282070696</v>
       </c>
       <c r="L3">
-        <v>1.039739214402805</v>
+        <v>1.046726211478865</v>
       </c>
       <c r="M3">
-        <v>1.060318363881598</v>
+        <v>1.062948137062263</v>
       </c>
       <c r="N3">
-        <v>1.033062241513508</v>
+        <v>1.042345272739309</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017068650273132</v>
+        <v>1.02350464407115</v>
       </c>
       <c r="D4">
-        <v>1.060851738177778</v>
+        <v>1.055812295337816</v>
       </c>
       <c r="E4">
-        <v>1.034109841058203</v>
+        <v>1.038626362006989</v>
       </c>
       <c r="F4">
-        <v>1.054590267619964</v>
+        <v>1.055119353836044</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.06808800456394</v>
+        <v>1.058084178064201</v>
       </c>
       <c r="J4">
-        <v>1.036045591350251</v>
+        <v>1.042325627403661</v>
       </c>
       <c r="K4">
-        <v>1.070267283822785</v>
+        <v>1.065280734697831</v>
       </c>
       <c r="L4">
-        <v>1.043813308202449</v>
+        <v>1.048279923179265</v>
       </c>
       <c r="M4">
-        <v>1.064071626472492</v>
+        <v>1.0645951146022</v>
       </c>
       <c r="N4">
-        <v>1.037516894926059</v>
+        <v>1.043805849350994</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019402339311664</v>
+        <v>1.024575584556777</v>
       </c>
       <c r="D5">
-        <v>1.062205780422775</v>
+        <v>1.05659209423563</v>
       </c>
       <c r="E5">
-        <v>1.036025585585837</v>
+        <v>1.03949572199482</v>
       </c>
       <c r="F5">
-        <v>1.05636492188295</v>
+        <v>1.056023040044605</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.068692979355967</v>
+        <v>1.058386453757057</v>
       </c>
       <c r="J5">
-        <v>1.037880253573013</v>
+        <v>1.042932087907029</v>
       </c>
       <c r="K5">
-        <v>1.071399974890576</v>
+        <v>1.065843612207153</v>
       </c>
       <c r="L5">
-        <v>1.045493617212755</v>
+        <v>1.048926486067714</v>
       </c>
       <c r="M5">
-        <v>1.065618775238196</v>
+        <v>1.06528041033302</v>
       </c>
       <c r="N5">
-        <v>1.039354162579616</v>
+        <v>1.044413171097839</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019791681476682</v>
+        <v>1.024754770064575</v>
       </c>
       <c r="D6">
-        <v>1.062431671402024</v>
+        <v>1.056722602739928</v>
       </c>
       <c r="E6">
-        <v>1.036345267355272</v>
+        <v>1.039641254960477</v>
       </c>
       <c r="F6">
-        <v>1.056661027098278</v>
+        <v>1.056174310570063</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068793662206532</v>
+        <v>1.058436918353509</v>
       </c>
       <c r="J6">
-        <v>1.038186288216179</v>
+        <v>1.043033527821668</v>
       </c>
       <c r="K6">
-        <v>1.071588785362294</v>
+        <v>1.065937742959254</v>
       </c>
       <c r="L6">
-        <v>1.045773903118986</v>
+        <v>1.049034663903241</v>
       </c>
       <c r="M6">
-        <v>1.065876797329999</v>
+        <v>1.065395063802822</v>
       </c>
       <c r="N6">
-        <v>1.039660631827078</v>
+        <v>1.044514755068793</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017100002059713</v>
+        <v>1.023518996465504</v>
       </c>
       <c r="D7">
-        <v>1.060869929529249</v>
+        <v>1.05582274351811</v>
       </c>
       <c r="E7">
-        <v>1.034135573343273</v>
+        <v>1.038638007816311</v>
       </c>
       <c r="F7">
-        <v>1.054614106917575</v>
+        <v>1.055131460056763</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.068096148683837</v>
+        <v>1.058088236497055</v>
       </c>
       <c r="J7">
-        <v>1.036070242445965</v>
+        <v>1.042333757030506</v>
       </c>
       <c r="K7">
-        <v>1.070282511679296</v>
+        <v>1.065288281371925</v>
       </c>
       <c r="L7">
-        <v>1.043835885431972</v>
+        <v>1.048288588350992</v>
       </c>
       <c r="M7">
-        <v>1.064092417950341</v>
+        <v>1.064604299188407</v>
       </c>
       <c r="N7">
-        <v>1.037541581029156</v>
+        <v>1.043813990522842</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005467956804477</v>
+        <v>1.018260067003174</v>
       </c>
       <c r="D8">
-        <v>1.054121497484874</v>
+        <v>1.051998941419702</v>
       </c>
       <c r="E8">
-        <v>1.024597659952976</v>
+        <v>1.034379896983344</v>
       </c>
       <c r="F8">
-        <v>1.045774677462939</v>
+        <v>1.050704021445911</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065046075603048</v>
+        <v>1.056588354188195</v>
       </c>
       <c r="J8">
-        <v>1.026918725573355</v>
+        <v>1.03935152504122</v>
       </c>
       <c r="K8">
-        <v>1.064615062368786</v>
+        <v>1.062517775159822</v>
       </c>
       <c r="L8">
-        <v>1.035454437869814</v>
+        <v>1.045113469106144</v>
       </c>
       <c r="M8">
-        <v>1.056368344965912</v>
+        <v>1.061238333291683</v>
       </c>
       <c r="N8">
-        <v>1.028377067952892</v>
+        <v>1.040827523422065</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9833094817689033</v>
+        <v>1.0086157703915</v>
       </c>
       <c r="D9">
-        <v>1.041294039353561</v>
+        <v>1.045011998493862</v>
       </c>
       <c r="E9">
-        <v>1.006485838096121</v>
+        <v>1.026616952834362</v>
       </c>
       <c r="F9">
-        <v>1.028981500618985</v>
+        <v>1.0426280625836</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059108711859025</v>
+        <v>1.053778721776632</v>
       </c>
       <c r="J9">
-        <v>1.009465712018363</v>
+        <v>1.033867909533722</v>
       </c>
       <c r="K9">
-        <v>1.053750882822899</v>
+        <v>1.057414686920246</v>
       </c>
       <c r="L9">
-        <v>1.019474556303244</v>
+        <v>1.039292460181164</v>
       </c>
       <c r="M9">
-        <v>1.041621243416783</v>
+        <v>1.055065418578566</v>
       </c>
       <c r="N9">
-        <v>1.010899269116765</v>
+        <v>1.035336120551567</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9671654589371511</v>
+        <v>1.001907797448738</v>
       </c>
       <c r="D10">
-        <v>1.031996190895138</v>
+        <v>1.040173516142024</v>
       </c>
       <c r="E10">
-        <v>0.9933449083306745</v>
+        <v>1.021251391575196</v>
       </c>
       <c r="F10">
-        <v>1.016801338192959</v>
+        <v>1.037043653964621</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054709755978235</v>
+        <v>1.051786920894576</v>
       </c>
       <c r="J10">
-        <v>0.9967452136939166</v>
+        <v>1.030045926433254</v>
       </c>
       <c r="K10">
-        <v>1.045810815277584</v>
+        <v>1.053853428135208</v>
       </c>
       <c r="L10">
-        <v>1.007835371216948</v>
+        <v>1.035247261615373</v>
       </c>
       <c r="M10">
-        <v>1.030873723816962</v>
+        <v>1.050774804217497</v>
       </c>
       <c r="N10">
-        <v>0.9981607062256359</v>
+        <v>1.031508709796708</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.959779520609071</v>
+        <v>0.998931227807033</v>
       </c>
       <c r="D11">
-        <v>1.027761420850444</v>
+        <v>1.038032461570362</v>
       </c>
       <c r="E11">
-        <v>0.9873501256792298</v>
+        <v>1.018879182513269</v>
       </c>
       <c r="F11">
-        <v>1.011248300293628</v>
+        <v>1.034574194604544</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05268349132415</v>
+        <v>1.050894701831586</v>
       </c>
       <c r="J11">
-        <v>0.9909268210247751</v>
+        <v>1.028348536643733</v>
       </c>
       <c r="K11">
-        <v>1.042178123598905</v>
+        <v>1.052271096981951</v>
       </c>
       <c r="L11">
-        <v>1.002514609099446</v>
+        <v>1.033453636301969</v>
       </c>
       <c r="M11">
-        <v>1.02596116263584</v>
+        <v>1.048872274767155</v>
       </c>
       <c r="N11">
-        <v>0.9923340507715254</v>
+        <v>1.029808909518992</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.050000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9569694159056895</v>
+        <v>0.9978142472463845</v>
       </c>
       <c r="D12">
-        <v>1.026153848453654</v>
+        <v>1.037229991273709</v>
       </c>
       <c r="E12">
-        <v>0.9850723209510076</v>
+        <v>1.017990355729813</v>
       </c>
       <c r="F12">
-        <v>1.009139110684495</v>
+        <v>1.033648864459579</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051910866576485</v>
+        <v>1.050558676862282</v>
       </c>
       <c r="J12">
-        <v>0.9887135496357276</v>
+        <v>1.027711400992473</v>
       </c>
       <c r="K12">
-        <v>1.040796568586808</v>
+        <v>1.051677069462856</v>
       </c>
       <c r="L12">
-        <v>1.000491210841504</v>
+        <v>1.032780818846232</v>
       </c>
       <c r="M12">
-        <v>1.024093289578959</v>
+        <v>1.04815860293838</v>
       </c>
       <c r="N12">
-        <v>0.9901176362832397</v>
+        <v>1.029170869062027</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9575753381767858</v>
+        <v>0.9980543659624769</v>
       </c>
       <c r="D13">
-        <v>1.026500301076777</v>
+        <v>1.037402453821957</v>
       </c>
       <c r="E13">
-        <v>0.9855633240285306</v>
+        <v>1.018181365392704</v>
       </c>
       <c r="F13">
-        <v>1.009593728104417</v>
+        <v>1.033847721530823</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052077532176438</v>
+        <v>1.050630966614811</v>
       </c>
       <c r="J13">
-        <v>0.9891907572385409</v>
+        <v>1.027848374208645</v>
       </c>
       <c r="K13">
-        <v>1.041094427619476</v>
+        <v>1.051804778323548</v>
       </c>
       <c r="L13">
-        <v>1.000927451303844</v>
+        <v>1.032925442989955</v>
       </c>
       <c r="M13">
-        <v>1.024495982306427</v>
+        <v>1.048312008801116</v>
       </c>
       <c r="N13">
-        <v>0.9905955215755856</v>
+        <v>1.029308036795878</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9595486421340337</v>
+        <v>0.9988391326023495</v>
       </c>
       <c r="D14">
-        <v>1.027629264592302</v>
+        <v>1.037966277431068</v>
       </c>
       <c r="E14">
-        <v>0.9871629174140726</v>
+        <v>1.018805870561836</v>
       </c>
       <c r="F14">
-        <v>1.011074933061725</v>
+        <v>1.034497873069102</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052620044503416</v>
+        <v>1.050867020914401</v>
       </c>
       <c r="J14">
-        <v>0.9907449681165545</v>
+        <v>1.028296008091833</v>
       </c>
       <c r="K14">
-        <v>1.042064599893811</v>
+        <v>1.052222123936374</v>
       </c>
       <c r="L14">
-        <v>1.00234834459645</v>
+        <v>1.033398156958043</v>
       </c>
       <c r="M14">
-        <v>1.02580767056557</v>
+        <v>1.048813426636109</v>
       </c>
       <c r="N14">
-        <v>0.9921519396113162</v>
+        <v>1.029756306370524</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9607553922656186</v>
+        <v>0.9993211326295747</v>
       </c>
       <c r="D15">
-        <v>1.028320167245637</v>
+        <v>1.038312706672662</v>
       </c>
       <c r="E15">
-        <v>0.9881415379161785</v>
+        <v>1.019189620336601</v>
       </c>
       <c r="F15">
-        <v>1.011981233079686</v>
+        <v>1.034897373833158</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052951600264984</v>
+        <v>1.051011845751219</v>
       </c>
       <c r="J15">
-        <v>0.9916954917228545</v>
+        <v>1.028570920557492</v>
       </c>
       <c r="K15">
-        <v>1.042657989391575</v>
+        <v>1.052478425264523</v>
       </c>
       <c r="L15">
-        <v>1.003217413682968</v>
+        <v>1.033688530671139</v>
       </c>
       <c r="M15">
-        <v>1.026609990980076</v>
+        <v>1.049121432220606</v>
       </c>
       <c r="N15">
-        <v>0.9931038130701635</v>
+        <v>1.030031609243417</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9676467182746867</v>
+        <v>1.002103781083743</v>
       </c>
       <c r="D16">
-        <v>1.032272576623657</v>
+        <v>1.040314618810138</v>
       </c>
       <c r="E16">
-        <v>0.9937359103710961</v>
+        <v>1.021407768876028</v>
       </c>
       <c r="F16">
-        <v>1.01716361921816</v>
+        <v>1.037206432478143</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054841531638298</v>
+        <v>1.051845495457112</v>
       </c>
       <c r="J16">
-        <v>0.9971243792317502</v>
+        <v>1.030157659418124</v>
       </c>
       <c r="K16">
-        <v>1.046047561955125</v>
+        <v>1.053957574423991</v>
       </c>
       <c r="L16">
-        <v>1.008182180154392</v>
+        <v>1.035365390367965</v>
       </c>
       <c r="M16">
-        <v>1.031193954648347</v>
+        <v>1.050900104477208</v>
       </c>
       <c r="N16">
-        <v>0.998540410222024</v>
+        <v>1.031620601455233</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9718588588047093</v>
+        <v>1.00382962466727</v>
       </c>
       <c r="D17">
-        <v>1.034693808885192</v>
+        <v>1.041557866108286</v>
       </c>
       <c r="E17">
-        <v>0.9971600655842506</v>
+        <v>1.022785833912567</v>
       </c>
       <c r="F17">
-        <v>1.020336667077543</v>
+        <v>1.038640852383482</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055993374190341</v>
+        <v>1.052360355859856</v>
       </c>
       <c r="J17">
-        <v>1.000443128946977</v>
+        <v>1.031141427375236</v>
       </c>
       <c r="K17">
-        <v>1.048119697654409</v>
+        <v>1.054874464326931</v>
       </c>
       <c r="L17">
-        <v>1.011218073044016</v>
+        <v>1.036405801675765</v>
       </c>
       <c r="M17">
-        <v>1.03399727533464</v>
+        <v>1.052003669591151</v>
       </c>
       <c r="N17">
-        <v>1.001863872942512</v>
+        <v>1.032605766475684</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9742781195213852</v>
+        <v>1.004829373594855</v>
       </c>
       <c r="D18">
-        <v>1.036086175485291</v>
+        <v>1.04227861663288</v>
       </c>
       <c r="E18">
-        <v>0.9991283216102372</v>
+        <v>1.02358494299633</v>
       </c>
       <c r="F18">
-        <v>1.022160887671524</v>
+        <v>1.0394725927013</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056653632862028</v>
+        <v>1.052657804380296</v>
       </c>
       <c r="J18">
-        <v>1.002349368343628</v>
+        <v>1.031711166390589</v>
       </c>
       <c r="K18">
-        <v>1.049309788621436</v>
+        <v>1.055405400014538</v>
       </c>
       <c r="L18">
-        <v>1.012962118341003</v>
+        <v>1.037008620031479</v>
       </c>
       <c r="M18">
-        <v>1.035607753566538</v>
+        <v>1.052643070444861</v>
       </c>
       <c r="N18">
-        <v>1.003772819417756</v>
+        <v>1.033176314585789</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9750968455764376</v>
+        <v>1.005169106471111</v>
       </c>
       <c r="D19">
-        <v>1.036557651518426</v>
+        <v>1.042523633467496</v>
       </c>
       <c r="E19">
-        <v>0.9997946749644955</v>
+        <v>1.023856632499901</v>
       </c>
       <c r="F19">
-        <v>1.022778522759851</v>
+        <v>1.039755368165872</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056876845944509</v>
+        <v>1.052758745644391</v>
       </c>
       <c r="J19">
-        <v>1.002994488425236</v>
+        <v>1.031904749294535</v>
       </c>
       <c r="K19">
-        <v>1.049712515165845</v>
+        <v>1.055585785522205</v>
       </c>
       <c r="L19">
-        <v>1.013552391062287</v>
+        <v>1.037213488919656</v>
       </c>
       <c r="M19">
-        <v>1.03615282165444</v>
+        <v>1.052860370116991</v>
       </c>
       <c r="N19">
-        <v>1.004418855643876</v>
+        <v>1.033370172399662</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9714108744368798</v>
+        <v>1.003645176126993</v>
       </c>
       <c r="D20">
-        <v>1.034436113349685</v>
+        <v>1.041424936053115</v>
       </c>
       <c r="E20">
-        <v>0.9967957208402536</v>
+        <v>1.022638468372765</v>
       </c>
       <c r="F20">
-        <v>1.019999007876752</v>
+        <v>1.038487465329904</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055871002967702</v>
+        <v>1.052305413140076</v>
       </c>
       <c r="J20">
-        <v>1.000090149469747</v>
+        <v>1.03103630192228</v>
       </c>
       <c r="K20">
-        <v>1.04789931588862</v>
+        <v>1.05477649268271</v>
       </c>
       <c r="L20">
-        <v>1.010895148613923</v>
+        <v>1.036294594756201</v>
       </c>
       <c r="M20">
-        <v>1.033699083834996</v>
+        <v>1.051885713188373</v>
       </c>
       <c r="N20">
-        <v>1.001510392193937</v>
+        <v>1.032500491732526</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9589694571573386</v>
+        <v>0.9986083561795617</v>
       </c>
       <c r="D21">
-        <v>1.027297796403892</v>
+        <v>1.037800446181374</v>
       </c>
       <c r="E21">
-        <v>0.9866933340419877</v>
+        <v>1.018622184247726</v>
       </c>
       <c r="F21">
-        <v>1.010640081055371</v>
+        <v>1.034306645088442</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052460854979356</v>
+        <v>1.050797637408674</v>
       </c>
       <c r="J21">
-        <v>0.9902887772274855</v>
+        <v>1.02816437689803</v>
       </c>
       <c r="K21">
-        <v>1.041779823894114</v>
+        <v>1.052099401283934</v>
       </c>
       <c r="L21">
-        <v>1.001931268060448</v>
+        <v>1.033259138513771</v>
       </c>
       <c r="M21">
-        <v>1.025422639290021</v>
+        <v>1.048665966781172</v>
       </c>
       <c r="N21">
-        <v>0.9916951008788591</v>
+        <v>1.029624488245328</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9507569369366885</v>
+        <v>0.9953755496354429</v>
       </c>
       <c r="D22">
-        <v>1.022607516673038</v>
+        <v>1.035479850791883</v>
       </c>
       <c r="E22">
-        <v>0.9800427300089012</v>
+        <v>1.016052355591847</v>
       </c>
       <c r="F22">
-        <v>1.004483566506513</v>
+        <v>1.031631162636419</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050200086632004</v>
+        <v>1.04982285974388</v>
       </c>
       <c r="J22">
-        <v>0.983821636410213</v>
+        <v>1.026320064883587</v>
       </c>
       <c r="K22">
-        <v>1.037744035262669</v>
+        <v>1.05037975570827</v>
       </c>
       <c r="L22">
-        <v>0.9960201896558147</v>
+        <v>1.031312381302216</v>
       </c>
       <c r="M22">
-        <v>1.019966723269636</v>
+        <v>1.046601006943842</v>
       </c>
       <c r="N22">
-        <v>0.9852187759798344</v>
+        <v>1.027777557096278</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9551502845682949</v>
+        <v>0.9970957614947231</v>
       </c>
       <c r="D23">
-        <v>1.025114305353099</v>
+        <v>1.036714096661991</v>
       </c>
       <c r="E23">
-        <v>0.9835986837645433</v>
+        <v>1.017419018908919</v>
       </c>
       <c r="F23">
-        <v>1.007774810897537</v>
+        <v>1.033054046078192</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051410276481639</v>
+        <v>1.050342196670853</v>
       </c>
       <c r="J23">
-        <v>0.9872809367288933</v>
+        <v>1.027301525410002</v>
       </c>
       <c r="K23">
-        <v>1.039902452529301</v>
+        <v>1.051294906863503</v>
       </c>
       <c r="L23">
-        <v>0.9991816796314535</v>
+        <v>1.032348113965921</v>
       </c>
       <c r="M23">
-        <v>1.022884524336165</v>
+        <v>1.047699624234015</v>
       </c>
       <c r="N23">
-        <v>0.9886829889017543</v>
+        <v>1.028760411409216</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.97161341498364</v>
+        <v>1.003728541787094</v>
       </c>
       <c r="D24">
-        <v>1.034552616120625</v>
+        <v>1.041485015045638</v>
       </c>
       <c r="E24">
-        <v>0.9969604417628871</v>
+        <v>1.022705070995521</v>
       </c>
       <c r="F24">
-        <v>1.020151663286682</v>
+        <v>1.038556789555578</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055926332950066</v>
+        <v>1.052330248220643</v>
       </c>
       <c r="J24">
-        <v>1.000249736562128</v>
+        <v>1.031083816166538</v>
       </c>
       <c r="K24">
-        <v>1.047998954030617</v>
+        <v>1.054820773797007</v>
       </c>
       <c r="L24">
-        <v>1.011041146542514</v>
+        <v>1.036344856829311</v>
       </c>
       <c r="M24">
-        <v>1.033833899605805</v>
+        <v>1.051939025847108</v>
       </c>
       <c r="N24">
-        <v>1.001670205918295</v>
+        <v>1.032548073452461</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9892588669687454</v>
+        <v>1.011156233538606</v>
       </c>
       <c r="D25">
-        <v>1.044732241860268</v>
+        <v>1.046849102252147</v>
       </c>
       <c r="E25">
-        <v>1.011340675201045</v>
+        <v>1.028656192661271</v>
       </c>
       <c r="F25">
-        <v>1.033482913901335</v>
+        <v>1.0447499923023</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060716257804053</v>
+        <v>1.054525491750713</v>
       </c>
       <c r="J25">
-        <v>1.014153200115933</v>
+        <v>1.035313891892158</v>
       </c>
       <c r="K25">
-        <v>1.056673680778452</v>
+        <v>1.058761210469219</v>
       </c>
       <c r="L25">
-        <v>1.023765456173069</v>
+        <v>1.040825368184882</v>
       </c>
       <c r="M25">
-        <v>1.045582771292056</v>
+        <v>1.056691184651363</v>
       </c>
       <c r="N25">
-        <v>1.015593413985096</v>
+        <v>1.036784156370808</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.016881452417757</v>
+        <v>1.043223783353333</v>
       </c>
       <c r="D2">
-        <v>1.050998105934357</v>
+        <v>1.060727274847082</v>
       </c>
       <c r="E2">
-        <v>1.033266616040408</v>
+        <v>1.052570876203394</v>
       </c>
       <c r="F2">
-        <v>1.04954616698585</v>
+        <v>1.066570462432922</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05619114537544</v>
+        <v>1.047100223531295</v>
       </c>
       <c r="J2">
-        <v>1.038568704960273</v>
+        <v>1.048295382303557</v>
       </c>
       <c r="K2">
-        <v>1.061789896152446</v>
+        <v>1.063453267685271</v>
       </c>
       <c r="L2">
-        <v>1.044281160823425</v>
+        <v>1.055319241431795</v>
       </c>
       <c r="M2">
-        <v>1.060355845209386</v>
+        <v>1.069280655484768</v>
       </c>
       <c r="N2">
-        <v>1.040043591646812</v>
+        <v>1.049784081987589</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.020931244099339</v>
+        <v>1.044095537052812</v>
       </c>
       <c r="D3">
-        <v>1.053940012813324</v>
+        <v>1.061377552746086</v>
       </c>
       <c r="E3">
-        <v>1.036540462556408</v>
+        <v>1.053322690009107</v>
       </c>
       <c r="F3">
-        <v>1.052950743969929</v>
+        <v>1.067348580945874</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057353332901533</v>
+        <v>1.047305106140834</v>
       </c>
       <c r="J3">
-        <v>1.040867122036889</v>
+        <v>1.048814281470229</v>
       </c>
       <c r="K3">
-        <v>1.063926282070696</v>
+        <v>1.063918442096931</v>
       </c>
       <c r="L3">
-        <v>1.046726211478865</v>
+        <v>1.055884084050483</v>
       </c>
       <c r="M3">
-        <v>1.062948137062263</v>
+        <v>1.069874485409708</v>
       </c>
       <c r="N3">
-        <v>1.042345272739309</v>
+        <v>1.050303718050597</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.02350464407115</v>
+        <v>1.044660387418126</v>
       </c>
       <c r="D4">
-        <v>1.055812295337816</v>
+        <v>1.061798862677965</v>
       </c>
       <c r="E4">
-        <v>1.038626362006989</v>
+        <v>1.053810173338565</v>
       </c>
       <c r="F4">
-        <v>1.055119353836044</v>
+        <v>1.067853034147533</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058084178064201</v>
+        <v>1.047436871028215</v>
       </c>
       <c r="J4">
-        <v>1.042325627403661</v>
+        <v>1.049150146716186</v>
       </c>
       <c r="K4">
-        <v>1.065280734697831</v>
+        <v>1.064219288982384</v>
       </c>
       <c r="L4">
-        <v>1.048279923179265</v>
+        <v>1.056249916892596</v>
       </c>
       <c r="M4">
-        <v>1.0645951146022</v>
+        <v>1.07025902772874</v>
       </c>
       <c r="N4">
-        <v>1.043805849350994</v>
+        <v>1.050640060263726</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024575584556777</v>
+        <v>1.04489803263324</v>
       </c>
       <c r="D5">
-        <v>1.05659209423563</v>
+        <v>1.061976107930683</v>
       </c>
       <c r="E5">
-        <v>1.03949572199482</v>
+        <v>1.054015351154475</v>
       </c>
       <c r="F5">
-        <v>1.056023040044605</v>
+        <v>1.068065333739147</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058386453757057</v>
+        <v>1.047492070815651</v>
       </c>
       <c r="J5">
-        <v>1.042932087907029</v>
+        <v>1.049291367783087</v>
       </c>
       <c r="K5">
-        <v>1.065843612207153</v>
+        <v>1.064345727165944</v>
       </c>
       <c r="L5">
-        <v>1.048926486067714</v>
+        <v>1.05640379341938</v>
       </c>
       <c r="M5">
-        <v>1.06528041033302</v>
+        <v>1.070420758240235</v>
       </c>
       <c r="N5">
-        <v>1.044413171097839</v>
+        <v>1.050781481880741</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024754770064575</v>
+        <v>1.044937944943742</v>
       </c>
       <c r="D6">
-        <v>1.056722602739928</v>
+        <v>1.062005875554129</v>
       </c>
       <c r="E6">
-        <v>1.039641254960477</v>
+        <v>1.054049815421962</v>
       </c>
       <c r="F6">
-        <v>1.056174310570063</v>
+        <v>1.068100993055287</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058436918353509</v>
+        <v>1.047501327694278</v>
       </c>
       <c r="J6">
-        <v>1.043033527821668</v>
+        <v>1.049315080751489</v>
       </c>
       <c r="K6">
-        <v>1.065937742959254</v>
+        <v>1.064366954432001</v>
       </c>
       <c r="L6">
-        <v>1.049034663903241</v>
+        <v>1.056429634637823</v>
       </c>
       <c r="M6">
-        <v>1.065395063802822</v>
+        <v>1.070447917499224</v>
       </c>
       <c r="N6">
-        <v>1.044514755068793</v>
+        <v>1.050805228524278</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.023518996465504</v>
+        <v>1.044663562131508</v>
       </c>
       <c r="D7">
-        <v>1.05582274351811</v>
+        <v>1.061801230542835</v>
       </c>
       <c r="E7">
-        <v>1.038638007816311</v>
+        <v>1.053812913994573</v>
       </c>
       <c r="F7">
-        <v>1.055131460056763</v>
+        <v>1.067855870013795</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058088236497055</v>
+        <v>1.047437609374393</v>
       </c>
       <c r="J7">
-        <v>1.042333757030506</v>
+        <v>1.049152033628988</v>
       </c>
       <c r="K7">
-        <v>1.065288281371925</v>
+        <v>1.064220978606104</v>
       </c>
       <c r="L7">
-        <v>1.048288588350992</v>
+        <v>1.056251972684182</v>
       </c>
       <c r="M7">
-        <v>1.064604299188407</v>
+        <v>1.070261188510972</v>
       </c>
       <c r="N7">
-        <v>1.043813990522842</v>
+        <v>1.050641949856161</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.018260067003174</v>
+        <v>1.043518236731487</v>
       </c>
       <c r="D8">
-        <v>1.051998941419702</v>
+        <v>1.060946927038815</v>
       </c>
       <c r="E8">
-        <v>1.034379896983344</v>
+        <v>1.052824745053279</v>
       </c>
       <c r="F8">
-        <v>1.050704021445911</v>
+        <v>1.066833231563413</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056588354188195</v>
+        <v>1.047169631379358</v>
       </c>
       <c r="J8">
-        <v>1.03935152504122</v>
+        <v>1.04847072464771</v>
       </c>
       <c r="K8">
-        <v>1.062517775159822</v>
+        <v>1.063610506174207</v>
       </c>
       <c r="L8">
-        <v>1.045113469106144</v>
+        <v>1.05551006097464</v>
       </c>
       <c r="M8">
-        <v>1.061238333291683</v>
+        <v>1.06948128110568</v>
       </c>
       <c r="N8">
-        <v>1.040827523422065</v>
+        <v>1.049959673337983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.0086157703915</v>
+        <v>1.041505975644019</v>
       </c>
       <c r="D9">
-        <v>1.045011998493862</v>
+        <v>1.059445729963601</v>
       </c>
       <c r="E9">
-        <v>1.026616952834362</v>
+        <v>1.051091279055752</v>
       </c>
       <c r="F9">
-        <v>1.0426280625836</v>
+        <v>1.065038641294987</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053778721776632</v>
+        <v>1.046691266683192</v>
       </c>
       <c r="J9">
-        <v>1.033867909533722</v>
+        <v>1.047271015490797</v>
       </c>
       <c r="K9">
-        <v>1.057414686920246</v>
+        <v>1.062533674936896</v>
       </c>
       <c r="L9">
-        <v>1.039292460181164</v>
+        <v>1.054205400473549</v>
       </c>
       <c r="M9">
-        <v>1.055065418578566</v>
+        <v>1.068109312895829</v>
       </c>
       <c r="N9">
-        <v>1.035336120551567</v>
+        <v>1.048758260456458</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.001907797448738</v>
+        <v>1.040168563314678</v>
       </c>
       <c r="D10">
-        <v>1.040173516142024</v>
+        <v>1.058447866865425</v>
       </c>
       <c r="E10">
-        <v>1.021251391575196</v>
+        <v>1.049940999689803</v>
       </c>
       <c r="F10">
-        <v>1.037043653964621</v>
+        <v>1.063847362325732</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051786920894576</v>
+        <v>1.046368265744039</v>
       </c>
       <c r="J10">
-        <v>1.030045926433254</v>
+        <v>1.046471854047092</v>
       </c>
       <c r="K10">
-        <v>1.053853428135208</v>
+        <v>1.061815133530938</v>
       </c>
       <c r="L10">
-        <v>1.035247261615373</v>
+        <v>1.053337517160908</v>
       </c>
       <c r="M10">
-        <v>1.050774804217497</v>
+        <v>1.067196329555817</v>
       </c>
       <c r="N10">
-        <v>1.031508709796708</v>
+        <v>1.047957964111839</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.998931227807033</v>
+        <v>1.03959044039557</v>
       </c>
       <c r="D11">
-        <v>1.038032461570362</v>
+        <v>1.058016501524154</v>
       </c>
       <c r="E11">
-        <v>1.018879182513269</v>
+        <v>1.049444211924151</v>
       </c>
       <c r="F11">
-        <v>1.034574194604544</v>
+        <v>1.063332763769041</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050894701831586</v>
+        <v>1.046227442105494</v>
       </c>
       <c r="J11">
-        <v>1.028348536643733</v>
+        <v>1.04612597746504</v>
       </c>
       <c r="K11">
-        <v>1.052271096981951</v>
+        <v>1.061503860303767</v>
       </c>
       <c r="L11">
-        <v>1.033453636301969</v>
+        <v>1.052962180777694</v>
       </c>
       <c r="M11">
-        <v>1.048872274767155</v>
+        <v>1.066801412379607</v>
       </c>
       <c r="N11">
-        <v>1.029808909518992</v>
+        <v>1.047611596345368</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9978142472463845</v>
+        <v>1.03937584946521</v>
       </c>
       <c r="D12">
-        <v>1.037229991273709</v>
+        <v>1.057856382766944</v>
       </c>
       <c r="E12">
-        <v>1.017990355729813</v>
+        <v>1.049259878663453</v>
       </c>
       <c r="F12">
-        <v>1.033648864459579</v>
+        <v>1.063141806266966</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050558676862282</v>
+        <v>1.046174990161497</v>
       </c>
       <c r="J12">
-        <v>1.027711400992473</v>
+        <v>1.045997529687504</v>
       </c>
       <c r="K12">
-        <v>1.051677069462856</v>
+        <v>1.06138821999681</v>
       </c>
       <c r="L12">
-        <v>1.032780818846232</v>
+        <v>1.052822835145573</v>
       </c>
       <c r="M12">
-        <v>1.04815860293838</v>
+        <v>1.066654785904265</v>
       </c>
       <c r="N12">
-        <v>1.029170869062027</v>
+        <v>1.047482966157254</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9980543659624769</v>
+        <v>1.039421873149756</v>
       </c>
       <c r="D13">
-        <v>1.037402453821957</v>
+        <v>1.057890723795492</v>
       </c>
       <c r="E13">
-        <v>1.018181365392704</v>
+        <v>1.049299409881038</v>
       </c>
       <c r="F13">
-        <v>1.033847721530823</v>
+        <v>1.063182758790026</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050630966614811</v>
+        <v>1.046186247775248</v>
       </c>
       <c r="J13">
-        <v>1.027848374208645</v>
+        <v>1.046025080965895</v>
       </c>
       <c r="K13">
-        <v>1.051804778323548</v>
+        <v>1.061413026097215</v>
       </c>
       <c r="L13">
-        <v>1.032925442989955</v>
+        <v>1.05285272201947</v>
       </c>
       <c r="M13">
-        <v>1.048312008801116</v>
+        <v>1.066686234887791</v>
       </c>
       <c r="N13">
-        <v>1.029308036795878</v>
+        <v>1.04751055656162</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9988391326023495</v>
+        <v>1.039572699179917</v>
       </c>
       <c r="D14">
-        <v>1.037966277431068</v>
+        <v>1.058003263811819</v>
       </c>
       <c r="E14">
-        <v>1.018805870561836</v>
+        <v>1.049428970873314</v>
       </c>
       <c r="F14">
-        <v>1.034497873069102</v>
+        <v>1.063316975329312</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050867020914401</v>
+        <v>1.046223109339934</v>
       </c>
       <c r="J14">
-        <v>1.028296008091833</v>
+        <v>1.046115359389952</v>
       </c>
       <c r="K14">
-        <v>1.052222123936374</v>
+        <v>1.061494301830654</v>
       </c>
       <c r="L14">
-        <v>1.033398156958043</v>
+        <v>1.052950660967086</v>
       </c>
       <c r="M14">
-        <v>1.048813426636109</v>
+        <v>1.066789290887577</v>
       </c>
       <c r="N14">
-        <v>1.029756306370524</v>
+        <v>1.047600963191395</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9993211326295747</v>
+        <v>1.039665647955014</v>
       </c>
       <c r="D15">
-        <v>1.038312706672662</v>
+        <v>1.058072618003815</v>
       </c>
       <c r="E15">
-        <v>1.019189620336601</v>
+        <v>1.049508823683795</v>
       </c>
       <c r="F15">
-        <v>1.034897373833158</v>
+        <v>1.063399695451297</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051011845751219</v>
+        <v>1.046245801938083</v>
       </c>
       <c r="J15">
-        <v>1.028570920557492</v>
+        <v>1.046170986415457</v>
       </c>
       <c r="K15">
-        <v>1.052478425264523</v>
+        <v>1.061544375943117</v>
       </c>
       <c r="L15">
-        <v>1.033688530671139</v>
+        <v>1.053011013839191</v>
       </c>
       <c r="M15">
-        <v>1.049121432220606</v>
+        <v>1.06685279553397</v>
       </c>
       <c r="N15">
-        <v>1.030031609243417</v>
+        <v>1.047656669213656</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.002103781083743</v>
+        <v>1.040206952328395</v>
       </c>
       <c r="D16">
-        <v>1.040314618810138</v>
+        <v>1.058476510415356</v>
       </c>
       <c r="E16">
-        <v>1.021407768876028</v>
+        <v>1.049973997216066</v>
       </c>
       <c r="F16">
-        <v>1.037206432478143</v>
+        <v>1.063881540692583</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051845495457112</v>
+        <v>1.04637759154049</v>
       </c>
       <c r="J16">
-        <v>1.030157659418124</v>
+        <v>1.046494812337126</v>
       </c>
       <c r="K16">
-        <v>1.053957574423991</v>
+        <v>1.061835788884608</v>
       </c>
       <c r="L16">
-        <v>1.035365390367965</v>
+        <v>1.053362436877838</v>
       </c>
       <c r="M16">
-        <v>1.050900104477208</v>
+        <v>1.067222547700999</v>
       </c>
       <c r="N16">
-        <v>1.031620601455233</v>
+        <v>1.047980955005278</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.00382962466727</v>
+        <v>1.040546763227963</v>
       </c>
       <c r="D17">
-        <v>1.041557866108286</v>
+        <v>1.058730054531083</v>
       </c>
       <c r="E17">
-        <v>1.022785833912567</v>
+        <v>1.050266135211875</v>
       </c>
       <c r="F17">
-        <v>1.038640852383482</v>
+        <v>1.064184121068992</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052360355859856</v>
+        <v>1.046460002637761</v>
       </c>
       <c r="J17">
-        <v>1.031141427375236</v>
+        <v>1.046697985039093</v>
       </c>
       <c r="K17">
-        <v>1.054874464326931</v>
+        <v>1.062018548065127</v>
       </c>
       <c r="L17">
-        <v>1.036405801675765</v>
+        <v>1.05358300021935</v>
       </c>
       <c r="M17">
-        <v>1.052003669591151</v>
+        <v>1.067454594573212</v>
       </c>
       <c r="N17">
-        <v>1.032605766475684</v>
+        <v>1.048184416235785</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.004829373594855</v>
+        <v>1.04074506414942</v>
       </c>
       <c r="D18">
-        <v>1.04227861663288</v>
+        <v>1.058878011472336</v>
       </c>
       <c r="E18">
-        <v>1.02358494299633</v>
+        <v>1.050436658776901</v>
       </c>
       <c r="F18">
-        <v>1.0394725927013</v>
+        <v>1.064360729921629</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052657804380296</v>
+        <v>1.046507978756012</v>
       </c>
       <c r="J18">
-        <v>1.031711166390589</v>
+        <v>1.046816508128769</v>
       </c>
       <c r="K18">
-        <v>1.055405400014538</v>
+        <v>1.062125134791002</v>
       </c>
       <c r="L18">
-        <v>1.037008620031479</v>
+        <v>1.053711695640868</v>
       </c>
       <c r="M18">
-        <v>1.052643070444861</v>
+        <v>1.067589983097221</v>
       </c>
       <c r="N18">
-        <v>1.033176314585789</v>
+        <v>1.048303107641844</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.005169106471111</v>
+        <v>1.040812695699196</v>
       </c>
       <c r="D19">
-        <v>1.042523633467496</v>
+        <v>1.058928472600549</v>
       </c>
       <c r="E19">
-        <v>1.023856632499901</v>
+        <v>1.050494823950662</v>
       </c>
       <c r="F19">
-        <v>1.039755368165872</v>
+        <v>1.064420969070892</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052758745644391</v>
+        <v>1.046524321594973</v>
       </c>
       <c r="J19">
-        <v>1.031904749294535</v>
+        <v>1.046856924094941</v>
       </c>
       <c r="K19">
-        <v>1.055585785522205</v>
+        <v>1.062161475756477</v>
       </c>
       <c r="L19">
-        <v>1.037213488919656</v>
+        <v>1.053755584966295</v>
       </c>
       <c r="M19">
-        <v>1.052860370116991</v>
+        <v>1.067636153736296</v>
       </c>
       <c r="N19">
-        <v>1.033370172399662</v>
+        <v>1.048343581003323</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.003645176126993</v>
+        <v>1.040510294899265</v>
       </c>
       <c r="D20">
-        <v>1.041424936053115</v>
+        <v>1.05870284450113</v>
       </c>
       <c r="E20">
-        <v>1.022638468372765</v>
+        <v>1.050234778687135</v>
       </c>
       <c r="F20">
-        <v>1.038487465329904</v>
+        <v>1.064151644751365</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052305413140076</v>
+        <v>1.046451170308469</v>
       </c>
       <c r="J20">
-        <v>1.03103630192228</v>
+        <v>1.046676184877976</v>
       </c>
       <c r="K20">
-        <v>1.05477649268271</v>
+        <v>1.061998941132025</v>
       </c>
       <c r="L20">
-        <v>1.036294594756201</v>
+        <v>1.053559331240884</v>
       </c>
       <c r="M20">
-        <v>1.051885713188373</v>
+        <v>1.067429694041321</v>
       </c>
       <c r="N20">
-        <v>1.032500491732526</v>
+        <v>1.048162585115939</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9986083561795617</v>
+        <v>1.039528280528893</v>
       </c>
       <c r="D21">
-        <v>1.037800446181374</v>
+        <v>1.057970120542418</v>
       </c>
       <c r="E21">
-        <v>1.018622184247726</v>
+        <v>1.04939081296899</v>
       </c>
       <c r="F21">
-        <v>1.034306645088442</v>
+        <v>1.063277446716459</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050797637408674</v>
+        <v>1.046212258490568</v>
       </c>
       <c r="J21">
-        <v>1.02816437689803</v>
+        <v>1.046088773910864</v>
       </c>
       <c r="K21">
-        <v>1.052099401283934</v>
+        <v>1.061470368681343</v>
       </c>
       <c r="L21">
-        <v>1.033259138513771</v>
+        <v>1.052921818415907</v>
       </c>
       <c r="M21">
-        <v>1.048665966781172</v>
+        <v>1.066758941702256</v>
       </c>
       <c r="N21">
-        <v>1.029624488245328</v>
+        <v>1.047574339957877</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9953755496354429</v>
+        <v>1.038911715821351</v>
       </c>
       <c r="D22">
-        <v>1.035479850791883</v>
+        <v>1.057510062629597</v>
       </c>
       <c r="E22">
-        <v>1.016052355591847</v>
+        <v>1.048861312209377</v>
       </c>
       <c r="F22">
-        <v>1.031631162636419</v>
+        <v>1.062728888474736</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04982285974388</v>
+        <v>1.046061213696234</v>
       </c>
       <c r="J22">
-        <v>1.026320064883587</v>
+        <v>1.045719597468348</v>
       </c>
       <c r="K22">
-        <v>1.05037975570827</v>
+        <v>1.061137921699077</v>
       </c>
       <c r="L22">
-        <v>1.031312381302216</v>
+        <v>1.052521400388441</v>
       </c>
       <c r="M22">
-        <v>1.046601006943842</v>
+        <v>1.066337580412876</v>
       </c>
       <c r="N22">
-        <v>1.027777557096278</v>
+        <v>1.047204639242467</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9970957614947231</v>
+        <v>1.039238485746059</v>
       </c>
       <c r="D23">
-        <v>1.036714096661991</v>
+        <v>1.057753887211866</v>
       </c>
       <c r="E23">
-        <v>1.017419018908919</v>
+        <v>1.049141902455045</v>
       </c>
       <c r="F23">
-        <v>1.033054046078192</v>
+        <v>1.063019586069113</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050342196670853</v>
+        <v>1.046141363953908</v>
       </c>
       <c r="J23">
-        <v>1.027301525410002</v>
+        <v>1.045915290027392</v>
       </c>
       <c r="K23">
-        <v>1.051294906863503</v>
+        <v>1.061314168307416</v>
       </c>
       <c r="L23">
-        <v>1.032348113965921</v>
+        <v>1.052733630053195</v>
       </c>
       <c r="M23">
-        <v>1.047699624234015</v>
+        <v>1.066560916633999</v>
       </c>
       <c r="N23">
-        <v>1.028760411409216</v>
+        <v>1.047400609707392</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.003728541787094</v>
+        <v>1.040526773073983</v>
       </c>
       <c r="D24">
-        <v>1.041485015045638</v>
+        <v>1.058715139329646</v>
       </c>
       <c r="E24">
-        <v>1.022705070995521</v>
+        <v>1.050248946966767</v>
       </c>
       <c r="F24">
-        <v>1.038556789555578</v>
+        <v>1.064166319034452</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052330248220643</v>
+        <v>1.046455161544974</v>
       </c>
       <c r="J24">
-        <v>1.031083816166538</v>
+        <v>1.046686035383472</v>
       </c>
       <c r="K24">
-        <v>1.054820773797007</v>
+        <v>1.062007800703372</v>
       </c>
       <c r="L24">
-        <v>1.036344856829311</v>
+        <v>1.05357002609595</v>
       </c>
       <c r="M24">
-        <v>1.051939025847108</v>
+        <v>1.067440945397987</v>
       </c>
       <c r="N24">
-        <v>1.032548073452461</v>
+        <v>1.048172449610283</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.011156233538606</v>
+        <v>1.042025478599619</v>
       </c>
       <c r="D25">
-        <v>1.046849102252147</v>
+        <v>1.059833316466239</v>
       </c>
       <c r="E25">
-        <v>1.028656192661271</v>
+        <v>1.051538484136583</v>
       </c>
       <c r="F25">
-        <v>1.0447499923023</v>
+        <v>1.065501693166069</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054525491750713</v>
+        <v>1.046815659886417</v>
       </c>
       <c r="J25">
-        <v>1.035313891892158</v>
+        <v>1.047581061079967</v>
       </c>
       <c r="K25">
-        <v>1.058761210469219</v>
+        <v>1.062812183191791</v>
       </c>
       <c r="L25">
-        <v>1.040825368184882</v>
+        <v>1.054542359642004</v>
       </c>
       <c r="M25">
-        <v>1.056691184651363</v>
+        <v>1.068463713683119</v>
       </c>
       <c r="N25">
-        <v>1.036784156370808</v>
+        <v>1.049068746345928</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043223783353333</v>
+        <v>1.016881452417756</v>
       </c>
       <c r="D2">
-        <v>1.060727274847082</v>
+        <v>1.050998105934357</v>
       </c>
       <c r="E2">
-        <v>1.052570876203394</v>
+        <v>1.033266616040407</v>
       </c>
       <c r="F2">
-        <v>1.066570462432922</v>
+        <v>1.049546166985849</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047100223531295</v>
+        <v>1.05619114537544</v>
       </c>
       <c r="J2">
-        <v>1.048295382303557</v>
+        <v>1.038568704960272</v>
       </c>
       <c r="K2">
-        <v>1.063453267685271</v>
+        <v>1.061789896152446</v>
       </c>
       <c r="L2">
-        <v>1.055319241431795</v>
+        <v>1.044281160823424</v>
       </c>
       <c r="M2">
-        <v>1.069280655484768</v>
+        <v>1.060355845209386</v>
       </c>
       <c r="N2">
-        <v>1.049784081987589</v>
+        <v>1.040043591646811</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044095537052812</v>
+        <v>1.020931244099339</v>
       </c>
       <c r="D3">
-        <v>1.061377552746086</v>
+        <v>1.053940012813323</v>
       </c>
       <c r="E3">
-        <v>1.053322690009107</v>
+        <v>1.036540462556407</v>
       </c>
       <c r="F3">
-        <v>1.067348580945874</v>
+        <v>1.052950743969928</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047305106140834</v>
+        <v>1.057353332901533</v>
       </c>
       <c r="J3">
-        <v>1.048814281470229</v>
+        <v>1.040867122036888</v>
       </c>
       <c r="K3">
-        <v>1.063918442096931</v>
+        <v>1.063926282070696</v>
       </c>
       <c r="L3">
-        <v>1.055884084050483</v>
+        <v>1.046726211478864</v>
       </c>
       <c r="M3">
-        <v>1.069874485409708</v>
+        <v>1.062948137062262</v>
       </c>
       <c r="N3">
-        <v>1.050303718050597</v>
+        <v>1.042345272739308</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044660387418126</v>
+        <v>1.02350464407115</v>
       </c>
       <c r="D4">
-        <v>1.061798862677965</v>
+        <v>1.055812295337816</v>
       </c>
       <c r="E4">
-        <v>1.053810173338565</v>
+        <v>1.038626362006988</v>
       </c>
       <c r="F4">
-        <v>1.067853034147533</v>
+        <v>1.055119353836043</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047436871028215</v>
+        <v>1.058084178064201</v>
       </c>
       <c r="J4">
-        <v>1.049150146716186</v>
+        <v>1.04232562740366</v>
       </c>
       <c r="K4">
-        <v>1.064219288982384</v>
+        <v>1.065280734697831</v>
       </c>
       <c r="L4">
-        <v>1.056249916892596</v>
+        <v>1.048279923179265</v>
       </c>
       <c r="M4">
-        <v>1.07025902772874</v>
+        <v>1.0645951146022</v>
       </c>
       <c r="N4">
-        <v>1.050640060263726</v>
+        <v>1.043805849350994</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04489803263324</v>
+        <v>1.024575584556777</v>
       </c>
       <c r="D5">
-        <v>1.061976107930683</v>
+        <v>1.05659209423563</v>
       </c>
       <c r="E5">
-        <v>1.054015351154475</v>
+        <v>1.03949572199482</v>
       </c>
       <c r="F5">
-        <v>1.068065333739147</v>
+        <v>1.056023040044604</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047492070815651</v>
+        <v>1.058386453757056</v>
       </c>
       <c r="J5">
-        <v>1.049291367783087</v>
+        <v>1.042932087907028</v>
       </c>
       <c r="K5">
-        <v>1.064345727165944</v>
+        <v>1.065843612207153</v>
       </c>
       <c r="L5">
-        <v>1.05640379341938</v>
+        <v>1.048926486067714</v>
       </c>
       <c r="M5">
-        <v>1.070420758240235</v>
+        <v>1.065280410333021</v>
       </c>
       <c r="N5">
-        <v>1.050781481880741</v>
+        <v>1.044413171097839</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044937944943742</v>
+        <v>1.024754770064574</v>
       </c>
       <c r="D6">
-        <v>1.062005875554129</v>
+        <v>1.056722602739928</v>
       </c>
       <c r="E6">
-        <v>1.054049815421962</v>
+        <v>1.039641254960477</v>
       </c>
       <c r="F6">
-        <v>1.068100993055287</v>
+        <v>1.056174310570063</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047501327694278</v>
+        <v>1.058436918353509</v>
       </c>
       <c r="J6">
-        <v>1.049315080751489</v>
+        <v>1.043033527821667</v>
       </c>
       <c r="K6">
-        <v>1.064366954432001</v>
+        <v>1.065937742959254</v>
       </c>
       <c r="L6">
-        <v>1.056429634637823</v>
+        <v>1.04903466390324</v>
       </c>
       <c r="M6">
-        <v>1.070447917499224</v>
+        <v>1.065395063802822</v>
       </c>
       <c r="N6">
-        <v>1.050805228524278</v>
+        <v>1.044514755068792</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044663562131508</v>
+        <v>1.023518996465503</v>
       </c>
       <c r="D7">
-        <v>1.061801230542835</v>
+        <v>1.05582274351811</v>
       </c>
       <c r="E7">
-        <v>1.053812913994573</v>
+        <v>1.03863800781631</v>
       </c>
       <c r="F7">
-        <v>1.067855870013795</v>
+        <v>1.055131460056763</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047437609374393</v>
+        <v>1.058088236497055</v>
       </c>
       <c r="J7">
-        <v>1.049152033628988</v>
+        <v>1.042333757030505</v>
       </c>
       <c r="K7">
-        <v>1.064220978606104</v>
+        <v>1.065288281371925</v>
       </c>
       <c r="L7">
-        <v>1.056251972684182</v>
+        <v>1.048288588350991</v>
       </c>
       <c r="M7">
-        <v>1.070261188510972</v>
+        <v>1.064604299188406</v>
       </c>
       <c r="N7">
-        <v>1.050641949856161</v>
+        <v>1.043813990522841</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.043518236731487</v>
+        <v>1.018260067003174</v>
       </c>
       <c r="D8">
-        <v>1.060946927038815</v>
+        <v>1.051998941419702</v>
       </c>
       <c r="E8">
-        <v>1.052824745053279</v>
+        <v>1.034379896983344</v>
       </c>
       <c r="F8">
-        <v>1.066833231563413</v>
+        <v>1.050704021445911</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047169631379358</v>
+        <v>1.056588354188196</v>
       </c>
       <c r="J8">
-        <v>1.04847072464771</v>
+        <v>1.03935152504122</v>
       </c>
       <c r="K8">
-        <v>1.063610506174207</v>
+        <v>1.062517775159822</v>
       </c>
       <c r="L8">
-        <v>1.05551006097464</v>
+        <v>1.045113469106143</v>
       </c>
       <c r="M8">
-        <v>1.06948128110568</v>
+        <v>1.061238333291683</v>
       </c>
       <c r="N8">
-        <v>1.049959673337983</v>
+        <v>1.040827523422065</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.041505975644019</v>
+        <v>1.008615770391501</v>
       </c>
       <c r="D9">
-        <v>1.059445729963601</v>
+        <v>1.045011998493862</v>
       </c>
       <c r="E9">
-        <v>1.051091279055752</v>
+        <v>1.026616952834362</v>
       </c>
       <c r="F9">
-        <v>1.065038641294987</v>
+        <v>1.0426280625836</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046691266683192</v>
+        <v>1.053778721776633</v>
       </c>
       <c r="J9">
-        <v>1.047271015490797</v>
+        <v>1.033867909533722</v>
       </c>
       <c r="K9">
-        <v>1.062533674936896</v>
+        <v>1.057414686920246</v>
       </c>
       <c r="L9">
-        <v>1.054205400473549</v>
+        <v>1.039292460181164</v>
       </c>
       <c r="M9">
-        <v>1.068109312895829</v>
+        <v>1.055065418578567</v>
       </c>
       <c r="N9">
-        <v>1.048758260456458</v>
+        <v>1.035336120551567</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040168563314678</v>
+        <v>1.001907797448736</v>
       </c>
       <c r="D10">
-        <v>1.058447866865425</v>
+        <v>1.040173516142023</v>
       </c>
       <c r="E10">
-        <v>1.049940999689803</v>
+        <v>1.021251391575195</v>
       </c>
       <c r="F10">
-        <v>1.063847362325732</v>
+        <v>1.03704365396462</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046368265744039</v>
+        <v>1.051786920894576</v>
       </c>
       <c r="J10">
-        <v>1.046471854047092</v>
+        <v>1.030045926433253</v>
       </c>
       <c r="K10">
-        <v>1.061815133530938</v>
+        <v>1.053853428135207</v>
       </c>
       <c r="L10">
-        <v>1.053337517160908</v>
+        <v>1.035247261615371</v>
       </c>
       <c r="M10">
-        <v>1.067196329555817</v>
+        <v>1.050774804217496</v>
       </c>
       <c r="N10">
-        <v>1.047957964111839</v>
+        <v>1.031508709796707</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.03959044039557</v>
+        <v>0.9989312278070323</v>
       </c>
       <c r="D11">
-        <v>1.058016501524154</v>
+        <v>1.038032461570361</v>
       </c>
       <c r="E11">
-        <v>1.049444211924151</v>
+        <v>1.018879182513268</v>
       </c>
       <c r="F11">
-        <v>1.063332763769041</v>
+        <v>1.034574194604544</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046227442105494</v>
+        <v>1.050894701831586</v>
       </c>
       <c r="J11">
-        <v>1.04612597746504</v>
+        <v>1.028348536643731</v>
       </c>
       <c r="K11">
-        <v>1.061503860303767</v>
+        <v>1.05227109698195</v>
       </c>
       <c r="L11">
-        <v>1.052962180777694</v>
+        <v>1.033453636301968</v>
       </c>
       <c r="M11">
-        <v>1.066801412379607</v>
+        <v>1.048872274767154</v>
       </c>
       <c r="N11">
-        <v>1.047611596345368</v>
+        <v>1.029808909518992</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03937584946521</v>
+        <v>0.9978142472463839</v>
       </c>
       <c r="D12">
-        <v>1.057856382766944</v>
+        <v>1.037229991273709</v>
       </c>
       <c r="E12">
-        <v>1.049259878663453</v>
+        <v>1.017990355729812</v>
       </c>
       <c r="F12">
-        <v>1.063141806266966</v>
+        <v>1.033648864459579</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046174990161497</v>
+        <v>1.050558676862281</v>
       </c>
       <c r="J12">
-        <v>1.045997529687504</v>
+        <v>1.027711400992473</v>
       </c>
       <c r="K12">
-        <v>1.06138821999681</v>
+        <v>1.051677069462856</v>
       </c>
       <c r="L12">
-        <v>1.052822835145573</v>
+        <v>1.032780818846232</v>
       </c>
       <c r="M12">
-        <v>1.066654785904265</v>
+        <v>1.04815860293838</v>
       </c>
       <c r="N12">
-        <v>1.047482966157254</v>
+        <v>1.029170869062027</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.039421873149756</v>
+        <v>0.9980543659624764</v>
       </c>
       <c r="D13">
-        <v>1.057890723795492</v>
+        <v>1.037402453821957</v>
       </c>
       <c r="E13">
-        <v>1.049299409881038</v>
+        <v>1.018181365392704</v>
       </c>
       <c r="F13">
-        <v>1.063182758790026</v>
+        <v>1.033847721530822</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046186247775248</v>
+        <v>1.050630966614811</v>
       </c>
       <c r="J13">
-        <v>1.046025080965895</v>
+        <v>1.027848374208645</v>
       </c>
       <c r="K13">
-        <v>1.061413026097215</v>
+        <v>1.051804778323548</v>
       </c>
       <c r="L13">
-        <v>1.05285272201947</v>
+        <v>1.032925442989954</v>
       </c>
       <c r="M13">
-        <v>1.066686234887791</v>
+        <v>1.048312008801116</v>
       </c>
       <c r="N13">
-        <v>1.04751055656162</v>
+        <v>1.029308036795877</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.039572699179917</v>
+        <v>0.9988391326023494</v>
       </c>
       <c r="D14">
-        <v>1.058003263811819</v>
+        <v>1.037966277431068</v>
       </c>
       <c r="E14">
-        <v>1.049428970873314</v>
+        <v>1.018805870561836</v>
       </c>
       <c r="F14">
-        <v>1.063316975329312</v>
+        <v>1.034497873069103</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046223109339934</v>
+        <v>1.050867020914401</v>
       </c>
       <c r="J14">
-        <v>1.046115359389952</v>
+        <v>1.028296008091833</v>
       </c>
       <c r="K14">
-        <v>1.061494301830654</v>
+        <v>1.052222123936374</v>
       </c>
       <c r="L14">
-        <v>1.052950660967086</v>
+        <v>1.033398156958043</v>
       </c>
       <c r="M14">
-        <v>1.066789290887577</v>
+        <v>1.048813426636109</v>
       </c>
       <c r="N14">
-        <v>1.047600963191395</v>
+        <v>1.029756306370524</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.039665647955014</v>
+        <v>0.9993211326295736</v>
       </c>
       <c r="D15">
-        <v>1.058072618003815</v>
+        <v>1.038312706672661</v>
       </c>
       <c r="E15">
-        <v>1.049508823683795</v>
+        <v>1.0191896203366</v>
       </c>
       <c r="F15">
-        <v>1.063399695451297</v>
+        <v>1.034897373833157</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046245801938083</v>
+        <v>1.051011845751219</v>
       </c>
       <c r="J15">
-        <v>1.046170986415457</v>
+        <v>1.028570920557491</v>
       </c>
       <c r="K15">
-        <v>1.061544375943117</v>
+        <v>1.052478425264522</v>
       </c>
       <c r="L15">
-        <v>1.053011013839191</v>
+        <v>1.033688530671138</v>
       </c>
       <c r="M15">
-        <v>1.06685279553397</v>
+        <v>1.049121432220605</v>
       </c>
       <c r="N15">
-        <v>1.047656669213656</v>
+        <v>1.030031609243417</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040206952328395</v>
+        <v>1.002103781083743</v>
       </c>
       <c r="D16">
-        <v>1.058476510415356</v>
+        <v>1.040314618810138</v>
       </c>
       <c r="E16">
-        <v>1.049973997216066</v>
+        <v>1.021407768876029</v>
       </c>
       <c r="F16">
-        <v>1.063881540692583</v>
+        <v>1.037206432478143</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04637759154049</v>
+        <v>1.051845495457112</v>
       </c>
       <c r="J16">
-        <v>1.046494812337126</v>
+        <v>1.030157659418124</v>
       </c>
       <c r="K16">
-        <v>1.061835788884608</v>
+        <v>1.053957574423991</v>
       </c>
       <c r="L16">
-        <v>1.053362436877838</v>
+        <v>1.035365390367965</v>
       </c>
       <c r="M16">
-        <v>1.067222547700999</v>
+        <v>1.050900104477208</v>
       </c>
       <c r="N16">
-        <v>1.047980955005278</v>
+        <v>1.031620601455232</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.040546763227963</v>
+        <v>1.003829624667269</v>
       </c>
       <c r="D17">
-        <v>1.058730054531083</v>
+        <v>1.041557866108285</v>
       </c>
       <c r="E17">
-        <v>1.050266135211875</v>
+        <v>1.022785833912566</v>
       </c>
       <c r="F17">
-        <v>1.064184121068992</v>
+        <v>1.038640852383481</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046460002637761</v>
+        <v>1.052360355859855</v>
       </c>
       <c r="J17">
-        <v>1.046697985039093</v>
+        <v>1.031141427375235</v>
       </c>
       <c r="K17">
-        <v>1.062018548065127</v>
+        <v>1.05487446432693</v>
       </c>
       <c r="L17">
-        <v>1.05358300021935</v>
+        <v>1.036405801675764</v>
       </c>
       <c r="M17">
-        <v>1.067454594573212</v>
+        <v>1.052003669591149</v>
       </c>
       <c r="N17">
-        <v>1.048184416235785</v>
+        <v>1.032605766475683</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.04074506414942</v>
+        <v>1.004829373594854</v>
       </c>
       <c r="D18">
-        <v>1.058878011472336</v>
+        <v>1.042278616632879</v>
       </c>
       <c r="E18">
-        <v>1.050436658776901</v>
+        <v>1.023584942996329</v>
       </c>
       <c r="F18">
-        <v>1.064360729921629</v>
+        <v>1.039472592701299</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046507978756012</v>
+        <v>1.052657804380296</v>
       </c>
       <c r="J18">
-        <v>1.046816508128769</v>
+        <v>1.031711166390588</v>
       </c>
       <c r="K18">
-        <v>1.062125134791002</v>
+        <v>1.055405400014537</v>
       </c>
       <c r="L18">
-        <v>1.053711695640868</v>
+        <v>1.037008620031478</v>
       </c>
       <c r="M18">
-        <v>1.067589983097221</v>
+        <v>1.05264307044486</v>
       </c>
       <c r="N18">
-        <v>1.048303107641844</v>
+        <v>1.033176314585788</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.040812695699196</v>
+        <v>1.005169106471111</v>
       </c>
       <c r="D19">
-        <v>1.058928472600549</v>
+        <v>1.042523633467496</v>
       </c>
       <c r="E19">
-        <v>1.050494823950662</v>
+        <v>1.023856632499901</v>
       </c>
       <c r="F19">
-        <v>1.064420969070892</v>
+        <v>1.039755368165872</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046524321594973</v>
+        <v>1.052758745644391</v>
       </c>
       <c r="J19">
-        <v>1.046856924094941</v>
+        <v>1.031904749294535</v>
       </c>
       <c r="K19">
-        <v>1.062161475756477</v>
+        <v>1.055585785522205</v>
       </c>
       <c r="L19">
-        <v>1.053755584966295</v>
+        <v>1.037213488919655</v>
       </c>
       <c r="M19">
-        <v>1.067636153736296</v>
+        <v>1.052860370116991</v>
       </c>
       <c r="N19">
-        <v>1.048343581003323</v>
+        <v>1.033370172399662</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040510294899265</v>
+        <v>1.003645176126992</v>
       </c>
       <c r="D20">
-        <v>1.05870284450113</v>
+        <v>1.041424936053114</v>
       </c>
       <c r="E20">
-        <v>1.050234778687135</v>
+        <v>1.022638468372765</v>
       </c>
       <c r="F20">
-        <v>1.064151644751365</v>
+        <v>1.038487465329903</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046451170308469</v>
+        <v>1.052305413140075</v>
       </c>
       <c r="J20">
-        <v>1.046676184877976</v>
+        <v>1.031036301922279</v>
       </c>
       <c r="K20">
-        <v>1.061998941132025</v>
+        <v>1.054776492682709</v>
       </c>
       <c r="L20">
-        <v>1.053559331240884</v>
+        <v>1.0362945947562</v>
       </c>
       <c r="M20">
-        <v>1.067429694041321</v>
+        <v>1.051885713188372</v>
       </c>
       <c r="N20">
-        <v>1.048162585115939</v>
+        <v>1.032500491732525</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.039528280528893</v>
+        <v>0.9986083561795616</v>
       </c>
       <c r="D21">
-        <v>1.057970120542418</v>
+        <v>1.037800446181374</v>
       </c>
       <c r="E21">
-        <v>1.04939081296899</v>
+        <v>1.018622184247726</v>
       </c>
       <c r="F21">
-        <v>1.063277446716459</v>
+        <v>1.034306645088443</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046212258490568</v>
+        <v>1.050797637408674</v>
       </c>
       <c r="J21">
-        <v>1.046088773910864</v>
+        <v>1.02816437689803</v>
       </c>
       <c r="K21">
-        <v>1.061470368681343</v>
+        <v>1.052099401283934</v>
       </c>
       <c r="L21">
-        <v>1.052921818415907</v>
+        <v>1.03325913851377</v>
       </c>
       <c r="M21">
-        <v>1.066758941702256</v>
+        <v>1.048665966781172</v>
       </c>
       <c r="N21">
-        <v>1.047574339957877</v>
+        <v>1.029624488245328</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.038911715821351</v>
+        <v>0.9953755496354418</v>
       </c>
       <c r="D22">
-        <v>1.057510062629597</v>
+        <v>1.035479850791883</v>
       </c>
       <c r="E22">
-        <v>1.048861312209377</v>
+        <v>1.016052355591846</v>
       </c>
       <c r="F22">
-        <v>1.062728888474736</v>
+        <v>1.031631162636418</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046061213696234</v>
+        <v>1.04982285974388</v>
       </c>
       <c r="J22">
-        <v>1.045719597468348</v>
+        <v>1.026320064883586</v>
       </c>
       <c r="K22">
-        <v>1.061137921699077</v>
+        <v>1.05037975570827</v>
       </c>
       <c r="L22">
-        <v>1.052521400388441</v>
+        <v>1.031312381302215</v>
       </c>
       <c r="M22">
-        <v>1.066337580412876</v>
+        <v>1.046601006943841</v>
       </c>
       <c r="N22">
-        <v>1.047204639242467</v>
+        <v>1.027777557096277</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039238485746059</v>
+        <v>0.9970957614947231</v>
       </c>
       <c r="D23">
-        <v>1.057753887211866</v>
+        <v>1.036714096661991</v>
       </c>
       <c r="E23">
-        <v>1.049141902455045</v>
+        <v>1.017419018908918</v>
       </c>
       <c r="F23">
-        <v>1.063019586069113</v>
+        <v>1.033054046078192</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046141363953908</v>
+        <v>1.050342196670853</v>
       </c>
       <c r="J23">
-        <v>1.045915290027392</v>
+        <v>1.027301525410002</v>
       </c>
       <c r="K23">
-        <v>1.061314168307416</v>
+        <v>1.051294906863503</v>
       </c>
       <c r="L23">
-        <v>1.052733630053195</v>
+        <v>1.032348113965921</v>
       </c>
       <c r="M23">
-        <v>1.066560916633999</v>
+        <v>1.047699624234015</v>
       </c>
       <c r="N23">
-        <v>1.047400609707392</v>
+        <v>1.028760411409216</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040526773073983</v>
+        <v>1.003728541787094</v>
       </c>
       <c r="D24">
-        <v>1.058715139329646</v>
+        <v>1.041485015045637</v>
       </c>
       <c r="E24">
-        <v>1.050248946966767</v>
+        <v>1.022705070995521</v>
       </c>
       <c r="F24">
-        <v>1.064166319034452</v>
+        <v>1.038556789555578</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046455161544974</v>
+        <v>1.052330248220643</v>
       </c>
       <c r="J24">
-        <v>1.046686035383472</v>
+        <v>1.031083816166538</v>
       </c>
       <c r="K24">
-        <v>1.062007800703372</v>
+        <v>1.054820773797006</v>
       </c>
       <c r="L24">
-        <v>1.05357002609595</v>
+        <v>1.036344856829311</v>
       </c>
       <c r="M24">
-        <v>1.067440945397987</v>
+        <v>1.051939025847108</v>
       </c>
       <c r="N24">
-        <v>1.048172449610283</v>
+        <v>1.032548073452461</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042025478599619</v>
+        <v>1.011156233538606</v>
       </c>
       <c r="D25">
-        <v>1.059833316466239</v>
+        <v>1.046849102252148</v>
       </c>
       <c r="E25">
-        <v>1.051538484136583</v>
+        <v>1.028656192661271</v>
       </c>
       <c r="F25">
-        <v>1.065501693166069</v>
+        <v>1.044749992302301</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046815659886417</v>
+        <v>1.054525491750713</v>
       </c>
       <c r="J25">
-        <v>1.047581061079967</v>
+        <v>1.035313891892158</v>
       </c>
       <c r="K25">
-        <v>1.062812183191791</v>
+        <v>1.05876121046922</v>
       </c>
       <c r="L25">
-        <v>1.054542359642004</v>
+        <v>1.040825368184882</v>
       </c>
       <c r="M25">
-        <v>1.068463713683119</v>
+        <v>1.056691184651364</v>
       </c>
       <c r="N25">
-        <v>1.049068746345928</v>
+        <v>1.036784156370808</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016881452417756</v>
+        <v>0.9934995295034872</v>
       </c>
       <c r="D2">
-        <v>1.050998105934357</v>
+        <v>1.045153113060202</v>
       </c>
       <c r="E2">
-        <v>1.033266616040407</v>
+        <v>1.015508648206692</v>
       </c>
       <c r="F2">
-        <v>1.049546166985849</v>
+        <v>1.037783024904491</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05619114537544</v>
+        <v>1.060485884264879</v>
       </c>
       <c r="J2">
-        <v>1.038568704960272</v>
+        <v>1.015876422258968</v>
       </c>
       <c r="K2">
-        <v>1.061789896152446</v>
+        <v>1.056017291192878</v>
       </c>
       <c r="L2">
-        <v>1.044281160823424</v>
+        <v>1.026756069715729</v>
       </c>
       <c r="M2">
-        <v>1.060355845209386</v>
+        <v>1.048739929571913</v>
       </c>
       <c r="N2">
-        <v>1.040043591646811</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.00924223318204</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.047146745260281</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.050679237292517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020931244099339</v>
+        <v>0.9973187141005473</v>
       </c>
       <c r="D3">
-        <v>1.053940012813323</v>
+        <v>1.047248682055315</v>
       </c>
       <c r="E3">
-        <v>1.036540462556407</v>
+        <v>1.018388168069539</v>
       </c>
       <c r="F3">
-        <v>1.052950743969928</v>
+        <v>1.040382307936626</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057353332901533</v>
+        <v>1.061125463654172</v>
       </c>
       <c r="J3">
-        <v>1.040867122036888</v>
+        <v>1.01788274151819</v>
       </c>
       <c r="K3">
-        <v>1.063926282070696</v>
+        <v>1.057310697298915</v>
       </c>
       <c r="L3">
-        <v>1.046726211478864</v>
+        <v>1.028791053176163</v>
       </c>
       <c r="M3">
-        <v>1.062948137062262</v>
+        <v>1.050523302173238</v>
       </c>
       <c r="N3">
-        <v>1.042345272739308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009920190521513</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.048558150896808</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.051591134871338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02350464407115</v>
+        <v>0.9997472700884759</v>
       </c>
       <c r="D4">
-        <v>1.055812295337816</v>
+        <v>1.048579131454614</v>
       </c>
       <c r="E4">
-        <v>1.038626362006988</v>
+        <v>1.020223827015989</v>
       </c>
       <c r="F4">
-        <v>1.055119353836043</v>
+        <v>1.04203629964641</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058084178064201</v>
+        <v>1.061517182000869</v>
       </c>
       <c r="J4">
-        <v>1.04232562740366</v>
+        <v>1.019157442933109</v>
       </c>
       <c r="K4">
-        <v>1.065280734697831</v>
+        <v>1.058124578137291</v>
       </c>
       <c r="L4">
-        <v>1.048279923179265</v>
+        <v>1.030084145038878</v>
       </c>
       <c r="M4">
-        <v>1.0645951146022</v>
+        <v>1.051652534049291</v>
       </c>
       <c r="N4">
-        <v>1.043805849350994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.010350796461515</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049451851830091</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.052167480304401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024575584556777</v>
+        <v>1.000758673732933</v>
       </c>
       <c r="D5">
-        <v>1.05659209423563</v>
+        <v>1.049134961646741</v>
       </c>
       <c r="E5">
-        <v>1.03949572199482</v>
+        <v>1.020989220200706</v>
       </c>
       <c r="F5">
-        <v>1.056023040044604</v>
+        <v>1.042725114513626</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058386453757056</v>
+        <v>1.061677745557487</v>
       </c>
       <c r="J5">
-        <v>1.042932087907028</v>
+        <v>1.019688180178327</v>
       </c>
       <c r="K5">
-        <v>1.065843612207153</v>
+        <v>1.058463785930488</v>
       </c>
       <c r="L5">
-        <v>1.048926486067714</v>
+        <v>1.030622335887229</v>
       </c>
       <c r="M5">
-        <v>1.065280410333021</v>
+        <v>1.052121469237493</v>
       </c>
       <c r="N5">
-        <v>1.044413171097839</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010530293625107</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.049822977962866</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.052414373231743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024754770064574</v>
+        <v>1.000928335564184</v>
       </c>
       <c r="D6">
-        <v>1.056722602739928</v>
+        <v>1.0492309819916</v>
       </c>
       <c r="E6">
-        <v>1.039641254960477</v>
+        <v>1.021117481711584</v>
       </c>
       <c r="F6">
-        <v>1.056174310570063</v>
+        <v>1.042840387326707</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058436918353509</v>
+        <v>1.061705770454455</v>
       </c>
       <c r="J6">
-        <v>1.043033527821667</v>
+        <v>1.019777380304647</v>
       </c>
       <c r="K6">
-        <v>1.065937742959254</v>
+        <v>1.058523435537231</v>
       </c>
       <c r="L6">
-        <v>1.04903466390324</v>
+        <v>1.030712499063872</v>
       </c>
       <c r="M6">
-        <v>1.065395063802822</v>
+        <v>1.052199865129851</v>
       </c>
       <c r="N6">
-        <v>1.044514755068792</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01056075594779</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.049885022263727</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.052465149933336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023518996465503</v>
+        <v>0.9997618711954522</v>
       </c>
       <c r="D7">
-        <v>1.05582274351811</v>
+        <v>1.048594534857301</v>
       </c>
       <c r="E7">
-        <v>1.03863800781631</v>
+        <v>1.02023429140214</v>
       </c>
       <c r="F7">
-        <v>1.055131460056763</v>
+        <v>1.042045315625056</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058088236497055</v>
+        <v>1.061522910283544</v>
       </c>
       <c r="J7">
-        <v>1.042333757030505</v>
+        <v>1.019165577373109</v>
       </c>
       <c r="K7">
-        <v>1.065288281371925</v>
+        <v>1.058136999452958</v>
       </c>
       <c r="L7">
-        <v>1.048288588350991</v>
+        <v>1.030091567640102</v>
       </c>
       <c r="M7">
-        <v>1.064604299188406</v>
+        <v>1.051658611489527</v>
       </c>
       <c r="N7">
-        <v>1.043813990522841</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.010354355063437</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.049456661657768</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.052196044207239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018260067003174</v>
+        <v>0.9948002736399821</v>
       </c>
       <c r="D8">
-        <v>1.051998941419702</v>
+        <v>1.045875573586039</v>
       </c>
       <c r="E8">
-        <v>1.034379896983344</v>
+        <v>1.016487365044111</v>
       </c>
       <c r="F8">
-        <v>1.050704021445911</v>
+        <v>1.038666140332514</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056588354188196</v>
+        <v>1.060710525605695</v>
       </c>
       <c r="J8">
-        <v>1.03935152504122</v>
+        <v>1.016560391673007</v>
       </c>
       <c r="K8">
-        <v>1.062517775159822</v>
+        <v>1.056468019204008</v>
       </c>
       <c r="L8">
-        <v>1.045113469106143</v>
+        <v>1.027448541434065</v>
       </c>
       <c r="M8">
-        <v>1.061238333291683</v>
+        <v>1.049346637971477</v>
       </c>
       <c r="N8">
-        <v>1.040827523422065</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.009474432934263</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.04762690974917</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.051020463548188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008615770391501</v>
+        <v>0.9857141103697696</v>
       </c>
       <c r="D9">
-        <v>1.045011998493862</v>
+        <v>1.040872921703801</v>
       </c>
       <c r="E9">
-        <v>1.026616952834362</v>
+        <v>1.009665773090582</v>
       </c>
       <c r="F9">
-        <v>1.0426280625836</v>
+        <v>1.032492754629084</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053778721776633</v>
+        <v>1.059102413463632</v>
       </c>
       <c r="J9">
-        <v>1.033867909533722</v>
+        <v>1.011781625978686</v>
       </c>
       <c r="K9">
-        <v>1.057414686920246</v>
+        <v>1.053335930045113</v>
       </c>
       <c r="L9">
-        <v>1.039292460181164</v>
+        <v>1.022603952521173</v>
       </c>
       <c r="M9">
-        <v>1.055065418578567</v>
+        <v>1.045079773104804</v>
       </c>
       <c r="N9">
-        <v>1.035336120551567</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.007858072443329</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.044249997512939</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.048802818367684</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001907797448736</v>
+        <v>0.9794335225119961</v>
       </c>
       <c r="D10">
-        <v>1.040173516142023</v>
+        <v>1.037425645016968</v>
       </c>
       <c r="E10">
-        <v>1.021251391575195</v>
+        <v>1.004990340913883</v>
       </c>
       <c r="F10">
-        <v>1.03704365396462</v>
+        <v>1.028277177246945</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051786920894576</v>
+        <v>1.057929064415809</v>
       </c>
       <c r="J10">
-        <v>1.030045926433253</v>
+        <v>1.008487575233548</v>
       </c>
       <c r="K10">
-        <v>1.053853428135207</v>
+        <v>1.051150520481044</v>
       </c>
       <c r="L10">
-        <v>1.035247261615371</v>
+        <v>1.01927007401423</v>
       </c>
       <c r="M10">
-        <v>1.050774804217496</v>
+        <v>1.042153982122812</v>
       </c>
       <c r="N10">
-        <v>1.031508709796707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.006747877122421</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.04198565880287</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.047274192211087</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9989312278070323</v>
+        <v>0.9768603149428614</v>
       </c>
       <c r="D11">
-        <v>1.038032461570361</v>
+        <v>1.03611167345727</v>
       </c>
       <c r="E11">
-        <v>1.018879182513268</v>
+        <v>1.003155029467338</v>
       </c>
       <c r="F11">
-        <v>1.034574194604544</v>
+        <v>1.026853365586944</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050894701831586</v>
+        <v>1.057520847210144</v>
       </c>
       <c r="J11">
-        <v>1.028348536643731</v>
+        <v>1.007228453769227</v>
       </c>
       <c r="K11">
-        <v>1.05227109698195</v>
+        <v>1.050383262289007</v>
       </c>
       <c r="L11">
-        <v>1.033453636301968</v>
+        <v>1.018017690821851</v>
       </c>
       <c r="M11">
-        <v>1.048872274767154</v>
+        <v>1.041286033305368</v>
       </c>
       <c r="N11">
-        <v>1.029808909518992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006360055961321</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.041733354008557</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.046764053108559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9978142472463839</v>
+        <v>0.9759498160843314</v>
       </c>
       <c r="D12">
-        <v>1.037229991273709</v>
+        <v>1.035670852275288</v>
       </c>
       <c r="E12">
-        <v>1.017990355729812</v>
+        <v>1.002519643286565</v>
       </c>
       <c r="F12">
-        <v>1.033648864459579</v>
+        <v>1.026451341251301</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050558676862281</v>
+        <v>1.057398956934974</v>
       </c>
       <c r="J12">
-        <v>1.027711400992473</v>
+        <v>1.006808089332929</v>
       </c>
       <c r="K12">
-        <v>1.051677069462856</v>
+        <v>1.050145142300933</v>
       </c>
       <c r="L12">
-        <v>1.032780818846232</v>
+        <v>1.017598729590799</v>
       </c>
       <c r="M12">
-        <v>1.04815860293838</v>
+        <v>1.041088734995841</v>
       </c>
       <c r="N12">
-        <v>1.029170869062027</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006247857146739</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.041902628381095</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.046595699437139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9980543659624764</v>
+        <v>0.9762643849428413</v>
       </c>
       <c r="D13">
-        <v>1.037402453821957</v>
+        <v>1.035886734240229</v>
       </c>
       <c r="E13">
-        <v>1.018181365392704</v>
+        <v>1.002770801753716</v>
       </c>
       <c r="F13">
-        <v>1.033847721530822</v>
+        <v>1.02682051576105</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050630966614811</v>
+        <v>1.0575017137105</v>
       </c>
       <c r="J13">
-        <v>1.027848374208645</v>
+        <v>1.007011955526156</v>
       </c>
       <c r="K13">
-        <v>1.051804778323548</v>
+        <v>1.050315412014245</v>
       </c>
       <c r="L13">
-        <v>1.032925442989954</v>
+        <v>1.01780125320453</v>
       </c>
       <c r="M13">
-        <v>1.048312008801116</v>
+        <v>1.041408933387989</v>
       </c>
       <c r="N13">
-        <v>1.029308036795877</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.006343560942002</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.042431694849523</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.04671362802103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9988391326023494</v>
+        <v>0.9770385137420324</v>
       </c>
       <c r="D14">
-        <v>1.037966277431068</v>
+        <v>1.036335685073627</v>
       </c>
       <c r="E14">
-        <v>1.018805870561836</v>
+        <v>1.003346206411501</v>
       </c>
       <c r="F14">
-        <v>1.034497873069103</v>
+        <v>1.027426406626976</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050867020914401</v>
+        <v>1.057675027338577</v>
       </c>
       <c r="J14">
-        <v>1.028296008091833</v>
+        <v>1.007435798979308</v>
       </c>
       <c r="K14">
-        <v>1.052222123936374</v>
+        <v>1.050619537151375</v>
       </c>
       <c r="L14">
-        <v>1.033398156958043</v>
+        <v>1.018222179298725</v>
       </c>
       <c r="M14">
-        <v>1.048813426636109</v>
+        <v>1.041865311132616</v>
       </c>
       <c r="N14">
-        <v>1.029756306370524</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.006504266199296</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042965346305051</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.046930050863916</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9993211326295736</v>
+        <v>0.977495812798991</v>
       </c>
       <c r="D15">
-        <v>1.038312706672661</v>
+        <v>1.036593694589062</v>
       </c>
       <c r="E15">
-        <v>1.0191896203366</v>
+        <v>1.003684330230169</v>
       </c>
       <c r="F15">
-        <v>1.034897373833157</v>
+        <v>1.027750646288342</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051011845751219</v>
+        <v>1.057769276521451</v>
       </c>
       <c r="J15">
-        <v>1.028570920557491</v>
+        <v>1.007678752614347</v>
       </c>
       <c r="K15">
-        <v>1.052478425264522</v>
+        <v>1.050788714807301</v>
       </c>
       <c r="L15">
-        <v>1.033688530671138</v>
+        <v>1.018465555097254</v>
       </c>
       <c r="M15">
-        <v>1.049121432220605</v>
+        <v>1.04209840796466</v>
       </c>
       <c r="N15">
-        <v>1.030031609243417</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.006590227984324</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.043187037118386</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.047055442053672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.002103781083743</v>
+        <v>0.9801000606557658</v>
       </c>
       <c r="D16">
-        <v>1.040314618810138</v>
+        <v>1.038031312544548</v>
       </c>
       <c r="E16">
-        <v>1.021407768876029</v>
+        <v>1.005625916157505</v>
       </c>
       <c r="F16">
-        <v>1.037206432478143</v>
+        <v>1.029498494711314</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051845495457112</v>
+        <v>1.058274329216846</v>
       </c>
       <c r="J16">
-        <v>1.030157659418124</v>
+        <v>1.009046693790539</v>
       </c>
       <c r="K16">
-        <v>1.053957574423991</v>
+        <v>1.051711486893312</v>
       </c>
       <c r="L16">
-        <v>1.035365390367965</v>
+        <v>1.019857949033812</v>
       </c>
       <c r="M16">
-        <v>1.050900104477208</v>
+        <v>1.043319639844121</v>
       </c>
       <c r="N16">
-        <v>1.031620601455232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007046146528012</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.044113674934615</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.047710974925647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003829624667269</v>
+        <v>0.9816933341831924</v>
       </c>
       <c r="D17">
-        <v>1.041557866108285</v>
+        <v>1.038897778360345</v>
       </c>
       <c r="E17">
-        <v>1.022785833912566</v>
+        <v>1.006814868161106</v>
       </c>
       <c r="F17">
-        <v>1.038640852383481</v>
+        <v>1.030517655187231</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052360355859855</v>
+        <v>1.058566394751797</v>
       </c>
       <c r="J17">
-        <v>1.031141427375235</v>
+        <v>1.009873654154739</v>
       </c>
       <c r="K17">
-        <v>1.05487446432693</v>
+        <v>1.052256511318281</v>
       </c>
       <c r="L17">
-        <v>1.036405801675764</v>
+        <v>1.020704453914992</v>
       </c>
       <c r="M17">
-        <v>1.052003669591149</v>
+        <v>1.044010952074929</v>
       </c>
       <c r="N17">
-        <v>1.032605766475683</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.007311489737206</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.044531421008728</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.04809886447867</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.004829373594854</v>
+        <v>0.9825643138543195</v>
       </c>
       <c r="D18">
-        <v>1.042278616632879</v>
+        <v>1.039340191123991</v>
       </c>
       <c r="E18">
-        <v>1.023584942996329</v>
+        <v>1.007453774258538</v>
       </c>
       <c r="F18">
-        <v>1.039472592701299</v>
+        <v>1.030979616173603</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052657804380296</v>
+        <v>1.058697314350318</v>
       </c>
       <c r="J18">
-        <v>1.031711166390588</v>
+        <v>1.010302597570854</v>
       </c>
       <c r="K18">
-        <v>1.055405400014537</v>
+        <v>1.052512738029062</v>
       </c>
       <c r="L18">
-        <v>1.037008620031478</v>
+        <v>1.021145074369378</v>
       </c>
       <c r="M18">
-        <v>1.05264307044486</v>
+        <v>1.044284200988408</v>
       </c>
       <c r="N18">
-        <v>1.033176314585788</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.007433254449384</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.044510510244476</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.048268565371575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005169106471111</v>
+        <v>0.9827561255978873</v>
       </c>
       <c r="D19">
-        <v>1.042523633467496</v>
+        <v>1.03938658450749</v>
       </c>
       <c r="E19">
-        <v>1.023856632499901</v>
+        <v>1.007558097249605</v>
       </c>
       <c r="F19">
-        <v>1.039755368165872</v>
+        <v>1.030899847845224</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052758745644391</v>
+        <v>1.058676940172655</v>
       </c>
       <c r="J19">
-        <v>1.031904749294535</v>
+        <v>1.010348254402809</v>
       </c>
       <c r="K19">
-        <v>1.055585785522205</v>
+        <v>1.052497316866667</v>
       </c>
       <c r="L19">
-        <v>1.037213488919655</v>
+        <v>1.02118378059372</v>
       </c>
       <c r="M19">
-        <v>1.052860370116991</v>
+        <v>1.044143903814152</v>
       </c>
       <c r="N19">
-        <v>1.033370172399662</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.007420802498661</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.044075327940065</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.048263956250127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003645176126992</v>
+        <v>0.9810609740990855</v>
       </c>
       <c r="D20">
-        <v>1.041424936053114</v>
+        <v>1.038332424454852</v>
       </c>
       <c r="E20">
-        <v>1.022638468372765</v>
+        <v>1.00619659734191</v>
       </c>
       <c r="F20">
-        <v>1.038487465329903</v>
+        <v>1.029362889801981</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052305413140075</v>
+        <v>1.058243912658229</v>
       </c>
       <c r="J20">
-        <v>1.031036301922279</v>
+        <v>1.009342003453337</v>
       </c>
       <c r="K20">
-        <v>1.054776492682709</v>
+        <v>1.05173314610279</v>
       </c>
       <c r="L20">
-        <v>1.0362945947562</v>
+        <v>1.02013135520362</v>
       </c>
       <c r="M20">
-        <v>1.051885713188372</v>
+        <v>1.042908357012761</v>
       </c>
       <c r="N20">
-        <v>1.032500491732525</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007038433022484</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.042572159821408</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.047727529039436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9986083561795616</v>
+        <v>0.9763040874248975</v>
       </c>
       <c r="D21">
-        <v>1.037800446181374</v>
+        <v>1.035697550315012</v>
       </c>
       <c r="E21">
-        <v>1.018622184247726</v>
+        <v>1.002649795410947</v>
       </c>
       <c r="F21">
-        <v>1.034306645088443</v>
+        <v>1.026114195657225</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050797637408674</v>
+        <v>1.057310441056909</v>
       </c>
       <c r="J21">
-        <v>1.02816437689803</v>
+        <v>1.006827054783865</v>
       </c>
       <c r="K21">
-        <v>1.052099401283934</v>
+        <v>1.050032776545758</v>
       </c>
       <c r="L21">
-        <v>1.03325913851377</v>
+        <v>1.017581139903315</v>
       </c>
       <c r="M21">
-        <v>1.048665966781172</v>
+        <v>1.040617159379198</v>
       </c>
       <c r="N21">
-        <v>1.029624488245328</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006183875486894</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.04071814763624</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.046528512133192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9953755496354418</v>
+        <v>0.9732682379779604</v>
       </c>
       <c r="D22">
-        <v>1.035479850791883</v>
+        <v>1.034019215746268</v>
       </c>
       <c r="E22">
-        <v>1.016052355591846</v>
+        <v>1.000400780793615</v>
       </c>
       <c r="F22">
-        <v>1.031631162636418</v>
+        <v>1.024069206181818</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04982285974388</v>
+        <v>1.056704952730253</v>
       </c>
       <c r="J22">
-        <v>1.026320064883586</v>
+        <v>1.005228263774973</v>
       </c>
       <c r="K22">
-        <v>1.05037975570827</v>
+        <v>1.048945583969656</v>
       </c>
       <c r="L22">
-        <v>1.031312381302215</v>
+        <v>1.01596430231707</v>
       </c>
       <c r="M22">
-        <v>1.046601006943841</v>
+        <v>1.039178466047078</v>
       </c>
       <c r="N22">
-        <v>1.027777557096277</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005641603986056</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.039579517770061</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.045746543387218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,81 +1546,105 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9970957614947231</v>
+        <v>0.9748835500176747</v>
       </c>
       <c r="D23">
-        <v>1.036714096661991</v>
+        <v>1.034908072842377</v>
       </c>
       <c r="E23">
-        <v>1.017419018908918</v>
+        <v>1.001598221456941</v>
       </c>
       <c r="F23">
-        <v>1.033054046078192</v>
+        <v>1.0251601585357</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050342196670853</v>
+        <v>1.057026998654291</v>
       </c>
       <c r="J23">
-        <v>1.027301525410002</v>
+        <v>1.006079008071879</v>
       </c>
       <c r="K23">
-        <v>1.051294906863503</v>
+        <v>1.049520768029655</v>
       </c>
       <c r="L23">
-        <v>1.032348113965921</v>
+        <v>1.016826004510905</v>
       </c>
       <c r="M23">
-        <v>1.047699624234015</v>
+        <v>1.039947474107966</v>
       </c>
       <c r="N23">
-        <v>1.028760411409216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005929260797699</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.040188136610665</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.046143725372978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>1.003728541787094</v>
+        <v>0.9811166413392971</v>
       </c>
       <c r="D24">
-        <v>1.041485015045637</v>
+        <v>1.038345803795508</v>
       </c>
       <c r="E24">
-        <v>1.022705070995521</v>
+        <v>1.006231320210255</v>
       </c>
       <c r="F24">
-        <v>1.038556789555578</v>
+        <v>1.029373134871959</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052330248220643</v>
+        <v>1.058242477302819</v>
       </c>
       <c r="J24">
-        <v>1.031083816166538</v>
+        <v>1.009361480734363</v>
       </c>
       <c r="K24">
-        <v>1.054820773797006</v>
+        <v>1.0517314018818</v>
       </c>
       <c r="L24">
-        <v>1.036344856829311</v>
+        <v>1.020149883486586</v>
       </c>
       <c r="M24">
-        <v>1.051939025847108</v>
+        <v>1.042903339983115</v>
       </c>
       <c r="N24">
-        <v>1.032548073452461</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007040455268484</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.042527503488748</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.047699319719931</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011156233538606</v>
+        <v>0.9881064958159097</v>
       </c>
       <c r="D25">
-        <v>1.046849102252148</v>
+        <v>1.042200258319242</v>
       </c>
       <c r="E25">
-        <v>1.028656192661271</v>
+        <v>1.011455274696324</v>
       </c>
       <c r="F25">
-        <v>1.044749992302301</v>
+        <v>1.034112675631049</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054525491750713</v>
+        <v>1.059542799041652</v>
       </c>
       <c r="J25">
-        <v>1.035313891892158</v>
+        <v>1.013040862055451</v>
       </c>
       <c r="K25">
-        <v>1.05876121046922</v>
+        <v>1.054176977325634</v>
       </c>
       <c r="L25">
-        <v>1.040825368184882</v>
+        <v>1.023878327360366</v>
       </c>
       <c r="M25">
-        <v>1.056691184651364</v>
+        <v>1.046203549189724</v>
       </c>
       <c r="N25">
-        <v>1.036784156370808</v>
+        <v>1.008285503566402</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.045139385800793</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.049425599356822</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_41/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9934995295034872</v>
+        <v>0.9936399403633038</v>
       </c>
       <c r="D2">
-        <v>1.045153113060202</v>
+        <v>1.041974526123896</v>
       </c>
       <c r="E2">
-        <v>1.015508648206692</v>
+        <v>1.015236167314573</v>
       </c>
       <c r="F2">
-        <v>1.037783024904491</v>
+        <v>1.03653904095094</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.060485884264879</v>
+        <v>1.058894240806351</v>
       </c>
       <c r="J2">
-        <v>1.015876422258968</v>
+        <v>1.016012558190344</v>
       </c>
       <c r="K2">
-        <v>1.056017291192878</v>
+        <v>1.052878494910143</v>
       </c>
       <c r="L2">
-        <v>1.026756069715729</v>
+        <v>1.026487241840591</v>
       </c>
       <c r="M2">
-        <v>1.048739929571913</v>
+        <v>1.047511759205257</v>
       </c>
       <c r="N2">
-        <v>1.00924223318204</v>
+        <v>1.01145229933804</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047146745260281</v>
+        <v>1.04617473897682</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.050679237292517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.048468543079972</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026066961694399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9973187141005473</v>
+        <v>0.9973789550742311</v>
       </c>
       <c r="D3">
-        <v>1.047248682055315</v>
+        <v>1.043895765896851</v>
       </c>
       <c r="E3">
-        <v>1.018388168069539</v>
+        <v>1.018034065675602</v>
       </c>
       <c r="F3">
-        <v>1.040382307936626</v>
+        <v>1.039029030696479</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.061125463654172</v>
+        <v>1.059442058858591</v>
       </c>
       <c r="J3">
-        <v>1.01788274151819</v>
+        <v>1.017941328341217</v>
       </c>
       <c r="K3">
-        <v>1.057310697298915</v>
+        <v>1.053996187062506</v>
       </c>
       <c r="L3">
-        <v>1.028791053176163</v>
+        <v>1.028441282247027</v>
       </c>
       <c r="M3">
-        <v>1.050523302173238</v>
+        <v>1.049185742938982</v>
       </c>
       <c r="N3">
-        <v>1.009920190521513</v>
+        <v>1.011972941560854</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048558150896808</v>
+        <v>1.047499573350565</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.051591134871338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.049255926614183</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026269746446968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9997472700884759</v>
+        <v>0.999757292845477</v>
       </c>
       <c r="D4">
-        <v>1.048579131454614</v>
+        <v>1.045116496860995</v>
       </c>
       <c r="E4">
-        <v>1.020223827015989</v>
+        <v>1.019818481962607</v>
       </c>
       <c r="F4">
-        <v>1.04203629964641</v>
+        <v>1.040614354793432</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.061517182000869</v>
+        <v>1.059775892636761</v>
       </c>
       <c r="J4">
-        <v>1.019157442933109</v>
+        <v>1.019167209135113</v>
       </c>
       <c r="K4">
-        <v>1.058124578137291</v>
+        <v>1.054699270813931</v>
       </c>
       <c r="L4">
-        <v>1.030084145038878</v>
+        <v>1.029683457808557</v>
       </c>
       <c r="M4">
-        <v>1.051652534049291</v>
+        <v>1.050246117956547</v>
       </c>
       <c r="N4">
-        <v>1.010350796461515</v>
+        <v>1.012303743753341</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049451851830091</v>
+        <v>1.048338780558432</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.052167480304401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.049754017799201</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026394029601596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000758673732933</v>
+        <v>1.000748127698282</v>
       </c>
       <c r="D5">
-        <v>1.049134961646741</v>
+        <v>1.045627244528568</v>
       </c>
       <c r="E5">
-        <v>1.020989220200706</v>
+        <v>1.020562963762108</v>
       </c>
       <c r="F5">
-        <v>1.042725114513626</v>
+        <v>1.041275201939877</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.061677745557487</v>
+        <v>1.059912660521013</v>
       </c>
       <c r="J5">
-        <v>1.019688180178327</v>
+        <v>1.019677896012402</v>
       </c>
       <c r="K5">
-        <v>1.058463785930488</v>
+        <v>1.054992898666587</v>
       </c>
       <c r="L5">
-        <v>1.030622335887229</v>
+        <v>1.030200846574263</v>
       </c>
       <c r="M5">
-        <v>1.052121469237493</v>
+        <v>1.050686973238255</v>
       </c>
       <c r="N5">
-        <v>1.010530293625107</v>
+        <v>1.012441699639934</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.049822977962866</v>
+        <v>1.048687684132514</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.052414373231743</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.049969401061348</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026445187146904</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000928335564184</v>
+        <v>1.000914559901105</v>
       </c>
       <c r="D6">
-        <v>1.0492309819916</v>
+        <v>1.045716134352007</v>
       </c>
       <c r="E6">
-        <v>1.021117481711584</v>
+        <v>1.020688065309423</v>
       </c>
       <c r="F6">
-        <v>1.042840387326707</v>
+        <v>1.041386327724674</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.061705770454455</v>
+        <v>1.059936945103006</v>
       </c>
       <c r="J6">
-        <v>1.019777380304647</v>
+        <v>1.019763944945517</v>
       </c>
       <c r="K6">
-        <v>1.058523435537231</v>
+        <v>1.055045327552452</v>
       </c>
       <c r="L6">
-        <v>1.030712499063872</v>
+        <v>1.030287863074274</v>
       </c>
       <c r="M6">
-        <v>1.052199865129851</v>
+        <v>1.050761196180724</v>
       </c>
       <c r="N6">
-        <v>1.01056075594779</v>
+        <v>1.012465156814023</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049885022263727</v>
+        <v>1.048746425955217</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.052465149933336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.05001594834798</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026454343297517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9997618711954522</v>
+        <v>0.9997819749945013</v>
       </c>
       <c r="D7">
-        <v>1.048594534857301</v>
+        <v>1.045134514016966</v>
       </c>
       <c r="E7">
-        <v>1.02023429140214</v>
+        <v>1.019837236957092</v>
       </c>
       <c r="F7">
-        <v>1.042045315625056</v>
+        <v>1.040629257748694</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.061522910283544</v>
+        <v>1.059783249864536</v>
       </c>
       <c r="J7">
-        <v>1.019165577373109</v>
+        <v>1.019185166786005</v>
       </c>
       <c r="K7">
-        <v>1.058136999452958</v>
+        <v>1.054714263865671</v>
       </c>
       <c r="L7">
-        <v>1.030091567640102</v>
+        <v>1.029699074063949</v>
       </c>
       <c r="M7">
-        <v>1.051658611489527</v>
+        <v>1.050258012506081</v>
       </c>
       <c r="N7">
-        <v>1.010354355063437</v>
+        <v>1.012335185860509</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049456661657768</v>
+        <v>1.048348194195892</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.052196044207239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.049786414941588</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026396880879308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9948002736399821</v>
+        <v>0.9949442023991665</v>
       </c>
       <c r="D8">
-        <v>1.045875573586039</v>
+        <v>1.042645538579492</v>
       </c>
       <c r="E8">
-        <v>1.016487365044111</v>
+        <v>1.016211887870578</v>
       </c>
       <c r="F8">
-        <v>1.038666140332514</v>
+        <v>1.037401750516324</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.060710525605695</v>
+        <v>1.059092491569321</v>
       </c>
       <c r="J8">
-        <v>1.016560391673007</v>
+        <v>1.016700086052561</v>
       </c>
       <c r="K8">
-        <v>1.056468019204008</v>
+        <v>1.053277246892772</v>
       </c>
       <c r="L8">
-        <v>1.027448541434065</v>
+        <v>1.027176646932277</v>
       </c>
       <c r="M8">
-        <v>1.049346637971477</v>
+        <v>1.048097847713137</v>
       </c>
       <c r="N8">
-        <v>1.009474432934263</v>
+        <v>1.011717784773896</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04762690974917</v>
+        <v>1.046638584974219</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.051020463548188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.048775305249191</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026140083525551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9857141103697696</v>
+        <v>0.9860574583572917</v>
       </c>
       <c r="D9">
-        <v>1.040872921703801</v>
+        <v>1.038063999136259</v>
       </c>
       <c r="E9">
-        <v>1.009665773090582</v>
+        <v>1.009591162936781</v>
       </c>
       <c r="F9">
-        <v>1.032492754629084</v>
+        <v>1.031494229828688</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.059102413463632</v>
+        <v>1.057705298640033</v>
       </c>
       <c r="J9">
-        <v>1.011781625978686</v>
+        <v>1.012112356327099</v>
       </c>
       <c r="K9">
-        <v>1.053335930045113</v>
+        <v>1.050568290684478</v>
       </c>
       <c r="L9">
-        <v>1.022603952521173</v>
+        <v>1.02253052347745</v>
       </c>
       <c r="M9">
-        <v>1.045079773104804</v>
+        <v>1.044096195482407</v>
       </c>
       <c r="N9">
-        <v>1.007858072443329</v>
+        <v>1.010487876269705</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044249997512939</v>
+        <v>1.043471565379074</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.048802818367684</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.046856539921929</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025630035125986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9794335225119961</v>
+        <v>0.9799661714482868</v>
       </c>
       <c r="D10">
-        <v>1.037425645016968</v>
+        <v>1.034925794777264</v>
       </c>
       <c r="E10">
-        <v>1.004990340913883</v>
+        <v>1.005097365077088</v>
       </c>
       <c r="F10">
-        <v>1.028277177246945</v>
+        <v>1.027495258048723</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.057929064415809</v>
+        <v>1.056694634465576</v>
       </c>
       <c r="J10">
-        <v>1.008487575233548</v>
+        <v>1.008997823681704</v>
       </c>
       <c r="K10">
-        <v>1.051150520481044</v>
+        <v>1.048691842253719</v>
       </c>
       <c r="L10">
-        <v>1.01927007401423</v>
+        <v>1.019375190918483</v>
       </c>
       <c r="M10">
-        <v>1.042153982122812</v>
+        <v>1.041385210169765</v>
       </c>
       <c r="N10">
-        <v>1.006747877122421</v>
+        <v>1.009767283817601</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.04198565880287</v>
+        <v>1.041377265978259</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.047274192211087</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.045548044157163</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.025259210082686</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9768603149428614</v>
+        <v>0.977565102494431</v>
       </c>
       <c r="D11">
-        <v>1.03611167345727</v>
+        <v>1.033772097923533</v>
       </c>
       <c r="E11">
-        <v>1.003155029467338</v>
+        <v>1.003429046451798</v>
       </c>
       <c r="F11">
-        <v>1.026853365586944</v>
+        <v>1.026244997767263</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.057520847210144</v>
+        <v>1.056375077582569</v>
       </c>
       <c r="J11">
-        <v>1.007228453769227</v>
+        <v>1.007901927791905</v>
       </c>
       <c r="K11">
-        <v>1.050383262289007</v>
+        <v>1.048084038973127</v>
       </c>
       <c r="L11">
-        <v>1.018017690821851</v>
+        <v>1.018286584416926</v>
       </c>
       <c r="M11">
-        <v>1.041286033305368</v>
+        <v>1.040688381993297</v>
       </c>
       <c r="N11">
-        <v>1.006360055961321</v>
+        <v>1.009728998596859</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.041733354008557</v>
+        <v>1.041260619100686</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.046764053108559</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.045153877859839</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.025120582074067</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9759498160843314</v>
+        <v>0.976739306534267</v>
       </c>
       <c r="D12">
-        <v>1.035670852275288</v>
+        <v>1.033400317432559</v>
       </c>
       <c r="E12">
-        <v>1.002519643286565</v>
+        <v>1.002881792451536</v>
       </c>
       <c r="F12">
-        <v>1.026451341251301</v>
+        <v>1.025935638751549</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.057398956934974</v>
+        <v>1.056292655393807</v>
       </c>
       <c r="J12">
-        <v>1.006808089332929</v>
+        <v>1.007561800419975</v>
       </c>
       <c r="K12">
-        <v>1.050145142300933</v>
+        <v>1.047914425719577</v>
       </c>
       <c r="L12">
-        <v>1.017598729590799</v>
+        <v>1.017953989344727</v>
       </c>
       <c r="M12">
-        <v>1.041088734995841</v>
+        <v>1.040582268319076</v>
       </c>
       <c r="N12">
-        <v>1.006247857146739</v>
+        <v>1.009761185335845</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041902628381095</v>
+        <v>1.041502154182579</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.046595699437139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.045033961248542</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.025066529494479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9762643849428413</v>
+        <v>0.9770621464079184</v>
       </c>
       <c r="D13">
-        <v>1.035886734240229</v>
+        <v>1.033616531117149</v>
       </c>
       <c r="E13">
-        <v>1.002770801753716</v>
+        <v>1.003154690562523</v>
       </c>
       <c r="F13">
-        <v>1.02682051576105</v>
+        <v>1.026333990077657</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.0575017137105</v>
+        <v>1.056397836641408</v>
       </c>
       <c r="J13">
-        <v>1.007011955526156</v>
+        <v>1.007773729584365</v>
       </c>
       <c r="K13">
-        <v>1.050315412014245</v>
+        <v>1.048084867406148</v>
       </c>
       <c r="L13">
-        <v>1.01780125320453</v>
+        <v>1.018177868532023</v>
       </c>
       <c r="M13">
-        <v>1.041408933387989</v>
+        <v>1.040931083504443</v>
       </c>
       <c r="N13">
-        <v>1.006343560942002</v>
+        <v>1.009814688269215</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042431694849523</v>
+        <v>1.042053943104732</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.04671362802103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.045151765598353</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.025079246764603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9770385137420324</v>
+        <v>0.9778086143889467</v>
       </c>
       <c r="D14">
-        <v>1.036335685073627</v>
+        <v>1.034035449038098</v>
       </c>
       <c r="E14">
-        <v>1.003346206411501</v>
+        <v>1.003716583104211</v>
       </c>
       <c r="F14">
-        <v>1.027426406626976</v>
+        <v>1.026932741457102</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.057675027338577</v>
+        <v>1.056556553984648</v>
       </c>
       <c r="J14">
-        <v>1.007435798979308</v>
+        <v>1.008171656200744</v>
       </c>
       <c r="K14">
-        <v>1.050619537151375</v>
+        <v>1.048359002183691</v>
       </c>
       <c r="L14">
-        <v>1.018222179298725</v>
+        <v>1.018585626166368</v>
       </c>
       <c r="M14">
-        <v>1.041865311132616</v>
+        <v>1.041380339440084</v>
       </c>
       <c r="N14">
-        <v>1.006504266199296</v>
+        <v>1.009862855144264</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042965346305051</v>
+        <v>1.04258201620827</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.046930050863916</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.045347121054467</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025118092570324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.977495812798991</v>
+        <v>0.9782431748627437</v>
       </c>
       <c r="D15">
-        <v>1.036593694589062</v>
+        <v>1.034271294685136</v>
       </c>
       <c r="E15">
-        <v>1.003684330230169</v>
+        <v>1.004037421563712</v>
       </c>
       <c r="F15">
-        <v>1.027750646288342</v>
+        <v>1.027241834991345</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.057769276521451</v>
+        <v>1.056639285529249</v>
       </c>
       <c r="J15">
-        <v>1.007678752614347</v>
+        <v>1.008393175191534</v>
       </c>
       <c r="K15">
-        <v>1.050788714807301</v>
+        <v>1.048506101607707</v>
       </c>
       <c r="L15">
-        <v>1.018465555097254</v>
+        <v>1.018812090941168</v>
       </c>
       <c r="M15">
-        <v>1.04209840796466</v>
+        <v>1.041598488741003</v>
       </c>
       <c r="N15">
-        <v>1.006590227984324</v>
+        <v>1.009883364261674</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043187037118386</v>
+        <v>1.042791902613054</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.047055442053672</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.045457475176507</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025143879953694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9801000606557658</v>
+        <v>0.9806970714399091</v>
       </c>
       <c r="D16">
-        <v>1.038031312544548</v>
+        <v>1.035559932328169</v>
       </c>
       <c r="E16">
-        <v>1.005625916157505</v>
+        <v>1.005843144737477</v>
       </c>
       <c r="F16">
-        <v>1.029498494711314</v>
+        <v>1.028854998871953</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.058274329216846</v>
+        <v>1.057064343349367</v>
       </c>
       <c r="J16">
-        <v>1.009046693790539</v>
+        <v>1.009618728941051</v>
       </c>
       <c r="K16">
-        <v>1.051711486893312</v>
+        <v>1.049280628983788</v>
       </c>
       <c r="L16">
-        <v>1.019857949033812</v>
+        <v>1.020071324662251</v>
       </c>
       <c r="M16">
-        <v>1.043319639844121</v>
+        <v>1.04268689739707</v>
       </c>
       <c r="N16">
-        <v>1.007046146528012</v>
+        <v>1.01000119131387</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044113674934615</v>
+        <v>1.043613543133524</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.047710974925647</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.04600849961771</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025308978289487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9816933341831924</v>
+        <v>0.9822008199836626</v>
       </c>
       <c r="D17">
-        <v>1.038897778360345</v>
+        <v>1.036330584127525</v>
       </c>
       <c r="E17">
-        <v>1.006814868161106</v>
+        <v>1.006943754304961</v>
       </c>
       <c r="F17">
-        <v>1.030517655187231</v>
+        <v>1.029780556803741</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.058566394751797</v>
+        <v>1.057304307454537</v>
       </c>
       <c r="J17">
-        <v>1.009873654154739</v>
+        <v>1.010360606190525</v>
       </c>
       <c r="K17">
-        <v>1.052256511318281</v>
+        <v>1.049730243384608</v>
       </c>
       <c r="L17">
-        <v>1.020704453914992</v>
+        <v>1.020831119971813</v>
       </c>
       <c r="M17">
-        <v>1.044010952074929</v>
+        <v>1.043285824254696</v>
       </c>
       <c r="N17">
-        <v>1.007311489737206</v>
+        <v>1.010096241392131</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044531421008728</v>
+        <v>1.043958209093531</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.04809886447867</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.046329182705582</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025413811066345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9825643138543195</v>
+        <v>0.983012776249322</v>
       </c>
       <c r="D18">
-        <v>1.039340191123991</v>
+        <v>1.036711068314808</v>
       </c>
       <c r="E18">
-        <v>1.007453774258538</v>
+        <v>1.007516435304356</v>
       </c>
       <c r="F18">
-        <v>1.030979616173603</v>
+        <v>1.030168045279398</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.058697314350318</v>
+        <v>1.057400396056011</v>
       </c>
       <c r="J18">
-        <v>1.010302597570854</v>
+        <v>1.010733265952318</v>
       </c>
       <c r="K18">
-        <v>1.052512738029062</v>
+        <v>1.04992484299789</v>
       </c>
       <c r="L18">
-        <v>1.021145074369378</v>
+        <v>1.021206674445735</v>
       </c>
       <c r="M18">
-        <v>1.044284200988408</v>
+        <v>1.043485593468789</v>
       </c>
       <c r="N18">
-        <v>1.007433254449384</v>
+        <v>1.010138576860034</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.044510510244476</v>
+        <v>1.043879081804857</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.048268565371575</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.046454170471115</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025472484536201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9827561255978873</v>
+        <v>0.9831738156609969</v>
       </c>
       <c r="D19">
-        <v>1.03938658450749</v>
+        <v>1.03673264259026</v>
       </c>
       <c r="E19">
-        <v>1.007558097249605</v>
+        <v>1.007579399090655</v>
       </c>
       <c r="F19">
-        <v>1.030899847845224</v>
+        <v>1.03003929600276</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.058676940172655</v>
+        <v>1.057364490960423</v>
       </c>
       <c r="J19">
-        <v>1.010348254402809</v>
+        <v>1.010749477191767</v>
       </c>
       <c r="K19">
-        <v>1.052497316866667</v>
+        <v>1.049884767444141</v>
       </c>
       <c r="L19">
-        <v>1.02118378059372</v>
+        <v>1.021204723763682</v>
       </c>
       <c r="M19">
-        <v>1.044143903814152</v>
+        <v>1.043297028119881</v>
       </c>
       <c r="N19">
-        <v>1.007420802498661</v>
+        <v>1.010111004424023</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044075327940065</v>
+        <v>1.043405518302247</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.048263956250127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.046432758189878</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025481161883332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9810609740990855</v>
+        <v>0.9815186177130123</v>
       </c>
       <c r="D20">
-        <v>1.038332424454852</v>
+        <v>1.03574950939864</v>
       </c>
       <c r="E20">
-        <v>1.00619659734191</v>
+        <v>1.006237479928049</v>
       </c>
       <c r="F20">
-        <v>1.029362889801981</v>
+        <v>1.028515077943397</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.058243912658229</v>
+        <v>1.05696548758291</v>
       </c>
       <c r="J20">
-        <v>1.009342003453337</v>
+        <v>1.009781036651661</v>
       </c>
       <c r="K20">
-        <v>1.05173314610279</v>
+        <v>1.049191583066863</v>
       </c>
       <c r="L20">
-        <v>1.02013135520362</v>
+        <v>1.020171530365645</v>
       </c>
       <c r="M20">
-        <v>1.042908357012761</v>
+        <v>1.042074394543139</v>
       </c>
       <c r="N20">
-        <v>1.007038433022484</v>
+        <v>1.009880818838894</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.042572159821408</v>
+        <v>1.041912168473028</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.047727529039436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.045946909392778</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025357516859017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9763040874248975</v>
+        <v>0.9770377539391225</v>
       </c>
       <c r="D21">
-        <v>1.035697550315012</v>
+        <v>1.033379373134993</v>
       </c>
       <c r="E21">
-        <v>1.002649795410947</v>
+        <v>1.00293096353894</v>
       </c>
       <c r="F21">
-        <v>1.026114195657225</v>
+        <v>1.025494369536558</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.057310441056909</v>
+        <v>1.056173229642798</v>
       </c>
       <c r="J21">
-        <v>1.006827054783865</v>
+        <v>1.007527908275623</v>
       </c>
       <c r="K21">
-        <v>1.050032776545758</v>
+        <v>1.047754805148953</v>
       </c>
       <c r="L21">
-        <v>1.017581139903315</v>
+        <v>1.017857019865454</v>
       </c>
       <c r="M21">
-        <v>1.040617159379198</v>
+        <v>1.040008322126971</v>
       </c>
       <c r="N21">
-        <v>1.006183875486894</v>
+        <v>1.009690460309889</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.04071814763624</v>
+        <v>1.040236293757204</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.046528512133192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.044934582398203</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.025068823238773</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9732682379779604</v>
+        <v>0.9741778456674007</v>
       </c>
       <c r="D22">
-        <v>1.034019215746268</v>
+        <v>1.031870731399462</v>
       </c>
       <c r="E22">
-        <v>1.000400780793615</v>
+        <v>1.000836211306715</v>
       </c>
       <c r="F22">
-        <v>1.024069206181818</v>
+        <v>1.02359702403564</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.056704952730253</v>
+        <v>1.055658236607032</v>
       </c>
       <c r="J22">
-        <v>1.005228263774973</v>
+        <v>1.006094777741842</v>
       </c>
       <c r="K22">
-        <v>1.048945583969656</v>
+        <v>1.046836202378569</v>
       </c>
       <c r="L22">
-        <v>1.01596430231707</v>
+        <v>1.016391120869117</v>
       </c>
       <c r="M22">
-        <v>1.039178466047078</v>
+        <v>1.038715078414366</v>
       </c>
       <c r="N22">
-        <v>1.005641603986056</v>
+        <v>1.00956275533746</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.039579517770061</v>
+        <v>1.039212776965231</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.045746543387218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.04427049885604</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024881039298255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,105 +1741,123 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9748835500176747</v>
+        <v>0.9756827703755303</v>
       </c>
       <c r="D23">
-        <v>1.034908072842377</v>
+        <v>1.032663943651946</v>
       </c>
       <c r="E23">
-        <v>1.001598221456941</v>
+        <v>1.001937518170182</v>
       </c>
       <c r="F23">
-        <v>1.0251601585357</v>
+        <v>1.024598956420951</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.057026998654291</v>
+        <v>1.055928917388976</v>
       </c>
       <c r="J23">
-        <v>1.006079008071879</v>
+        <v>1.006841494821132</v>
       </c>
       <c r="K23">
-        <v>1.049520768029655</v>
+        <v>1.047316460168768</v>
       </c>
       <c r="L23">
-        <v>1.016826004510905</v>
+        <v>1.017158765852678</v>
       </c>
       <c r="M23">
-        <v>1.039947474107966</v>
+        <v>1.03939645674469</v>
       </c>
       <c r="N23">
-        <v>1.005929260797699</v>
+        <v>1.009586349069378</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.040188136610665</v>
+        <v>1.039752042991346</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.046143725372978</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.044599618311256</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024980460429521</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9811166413392971</v>
+        <v>0.9815691524193464</v>
       </c>
       <c r="D24">
-        <v>1.038345803795508</v>
+        <v>1.035756911883501</v>
       </c>
       <c r="E24">
-        <v>1.006231320210255</v>
+        <v>1.006265713764442</v>
       </c>
       <c r="F24">
-        <v>1.029373134871959</v>
+        <v>1.028516841719997</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.058242477302819</v>
+        <v>1.056960519198248</v>
       </c>
       <c r="J24">
-        <v>1.009361480734363</v>
+        <v>1.009795618920365</v>
       </c>
       <c r="K24">
-        <v>1.0517314018818</v>
+        <v>1.049183903742253</v>
       </c>
       <c r="L24">
-        <v>1.020149883486586</v>
+        <v>1.020183682715679</v>
       </c>
       <c r="M24">
-        <v>1.042903339983115</v>
+        <v>1.042061016671252</v>
       </c>
       <c r="N24">
-        <v>1.007040455268484</v>
+        <v>1.009877483229057</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.042527503488748</v>
+        <v>1.04186086262555</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.047699319719931</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.045911813255235</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.025357601017167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9881064958159097</v>
+        <v>0.9883855827642588</v>
       </c>
       <c r="D25">
-        <v>1.042200258319242</v>
+        <v>1.039278841297549</v>
       </c>
       <c r="E25">
-        <v>1.011455274696324</v>
+        <v>1.011319308738394</v>
       </c>
       <c r="F25">
-        <v>1.034112675631049</v>
+        <v>1.033039895993045</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.059542799041652</v>
+        <v>1.058086676258252</v>
       </c>
       <c r="J25">
-        <v>1.013040862055451</v>
+        <v>1.013310241621966</v>
       </c>
       <c r="K25">
-        <v>1.054176977325634</v>
+        <v>1.051296536519419</v>
       </c>
       <c r="L25">
-        <v>1.023878327360366</v>
+        <v>1.023744411999616</v>
       </c>
       <c r="M25">
-        <v>1.046203549189724</v>
+        <v>1.045146081538384</v>
       </c>
       <c r="N25">
-        <v>1.008285503566402</v>
+        <v>1.010779445716874</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045139385800793</v>
+        <v>1.044302475919213</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.049425599356822</v>
+        <v>1.047402392456156</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025769426706888</v>
       </c>
     </row>
   </sheetData>
